--- a/data/greenbook_addresses.xlsx
+++ b/data/greenbook_addresses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
   <si>
     <t xml:space="preserve">greenbook_edition</t>
   </si>
@@ -356,6 +356,60 @@
   </si>
   <si>
     <t xml:space="preserve">355 Cuba St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheffield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McClain Hotel</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">19</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> St.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs. I. Hawkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S. Atlantic Ave.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs. S.A. Benton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113 E. FairView St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs. J. Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E. Academy St</t>
   </si>
 </sst>
 </file>
@@ -462,12 +516,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -796,8 +850,81 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/greenbook_addresses.xlsx
+++ b/data/greenbook_addresses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
   <si>
     <t xml:space="preserve">greenbook_edition</t>
   </si>
@@ -43,6 +43,27 @@
     <t xml:space="preserve">oneline</t>
   </si>
   <si>
+    <t xml:space="preserve">cen_addr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cen_lon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cen_lat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cen_street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cen_city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cen_state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cen_zip</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alabama</t>
   </si>
   <si>
@@ -72,6 +93,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">316 N. 17</t>
     </r>
@@ -81,6 +103,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -89,6 +112,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> St</t>
     </r>
@@ -102,6 +126,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1619 N. 4</t>
     </r>
@@ -111,6 +136,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -119,6 +145,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> St</t>
     </r>
@@ -132,6 +159,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">318 N. 18</t>
     </r>
@@ -141,6 +169,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -149,6 +178,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> St</t>
     </r>
@@ -162,6 +192,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">316 N. 18</t>
     </r>
@@ -171,6 +202,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -179,6 +211,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> St</t>
     </r>
@@ -210,6 +243,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1317 4</t>
     </r>
@@ -219,6 +253,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -227,6 +262,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Ave</t>
     </r>
@@ -240,6 +276,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1335 4</t>
     </r>
@@ -249,6 +286,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -257,6 +295,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Ave</t>
     </r>
@@ -270,6 +309,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1324 4</t>
     </r>
@@ -279,6 +319,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -287,6 +328,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Ave</t>
     </r>
@@ -300,6 +342,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">233 N 6</t>
     </r>
@@ -309,6 +352,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -317,6 +361,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> St</t>
     </r>
@@ -369,6 +414,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">19</t>
     </r>
@@ -378,6 +424,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -386,6 +433,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> St.</t>
     </r>
@@ -425,6 +473,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -446,6 +495,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -516,23 +566,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -557,375 +608,446 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1938</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1938</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1938</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1938</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="E8" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1938</v>
+      </c>
       <c r="B9" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>1938</v>
+      </c>
       <c r="B10" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>1938</v>
+      </c>
       <c r="B11" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>1938</v>
+      </c>
       <c r="B13" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>1938</v>
+      </c>
       <c r="B14" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>1938</v>
+      </c>
       <c r="B15" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>1938</v>
+      </c>
       <c r="B16" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>1938</v>
+      </c>
       <c r="B17" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>1938</v>
+      </c>
       <c r="B18" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>1938</v>
+      </c>
       <c r="B19" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>1938</v>
+      </c>
       <c r="B20" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>1938</v>
+      </c>
       <c r="B21" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>1938</v>
+      </c>
       <c r="B22" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/data/greenbook_addresses.xlsx
+++ b/data/greenbook_addresses.xlsx
@@ -399,6 +399,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2526 12</t>
     </r>
@@ -408,6 +409,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -416,6 +418,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> st</t>
     </r>
@@ -429,6 +432,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">419 30</t>
     </r>
@@ -438,6 +442,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -446,6 +451,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Ave</t>
     </r>
@@ -459,6 +465,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1516 25</t>
     </r>
@@ -468,6 +475,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -476,6 +484,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Ave</t>
     </r>
@@ -489,6 +498,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">11</t>
     </r>
@@ -498,6 +508,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -506,6 +517,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> St</t>
     </r>
@@ -523,6 +535,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -544,6 +557,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -616,9 +630,12 @@
       <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>

--- a/data/greenbook_addresses.xlsx
+++ b/data/greenbook_addresses.xlsx
@@ -388,7 +388,7 @@
     <t xml:space="preserve">E. Academy St, Troy, Alabama</t>
   </si>
   <si>
-    <t xml:space="preserve">Tuscalooso</t>
+    <t xml:space="preserve">Tuscaloosa</t>
   </si>
   <si>
     <t xml:space="preserve">Mrs. G.W. Baugh</t>
@@ -627,14 +627,14 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
@@ -1649,7 +1649,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>1938</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>1938</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>1938</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>1938</v>
       </c>

--- a/data/greenbook_addresses.xlsx
+++ b/data/greenbook_addresses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="223">
   <si>
     <t>greenbook_edition</t>
   </si>
@@ -131,9 +131,39 @@
     <t>25</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>Alabama</t>
   </si>
   <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
     <t>Andalusia</t>
   </si>
   <si>
@@ -161,6 +191,15 @@
     <t>Tuscaloosa</t>
   </si>
   <si>
+    <t>Bridgeport</t>
+  </si>
+  <si>
+    <t>Hartford</t>
+  </si>
+  <si>
+    <t>New Haven</t>
+  </si>
+  <si>
     <t>tourist</t>
   </si>
   <si>
@@ -311,6 +350,33 @@
     <t>11th St</t>
   </si>
   <si>
+    <t>468 Broad St</t>
+  </si>
+  <si>
+    <t>83 Summer St</t>
+  </si>
+  <si>
+    <t>68 Fulton St</t>
+  </si>
+  <si>
+    <t>101 Church St.</t>
+  </si>
+  <si>
+    <t>2016 Main St.</t>
+  </si>
+  <si>
+    <t>12 Canton St.</t>
+  </si>
+  <si>
+    <t>359 Beach St.</t>
+  </si>
+  <si>
+    <t>91 Webster St.</t>
+  </si>
+  <si>
+    <t>108 Canal St.</t>
+  </si>
+  <si>
     <t>69 N. Cotton St., Andalusia, Alabama</t>
   </si>
   <si>
@@ -380,6 +446,33 @@
     <t>11th St, Tuscaloosa, Alabama</t>
   </si>
   <si>
+    <t>468 Broad St, Bridgeport, Connecticut</t>
+  </si>
+  <si>
+    <t>83 Summer St, Bridgeport, Connecticut</t>
+  </si>
+  <si>
+    <t>68 Fulton St, Bridgeport, Connecticut</t>
+  </si>
+  <si>
+    <t>101 Church St., Bridgeport, Connecticut</t>
+  </si>
+  <si>
+    <t>2016 Main St., Hartford, Connecticut</t>
+  </si>
+  <si>
+    <t>12 Canton St., Hartford, Connecticut</t>
+  </si>
+  <si>
+    <t>359 Beach St., New Haven, Connecticut</t>
+  </si>
+  <si>
+    <t>91 Webster St., New Haven, Connecticut</t>
+  </si>
+  <si>
+    <t>108 Canal St., New Haven, Connecticut</t>
+  </si>
+  <si>
     <t>[none found]</t>
   </si>
   <si>
@@ -434,6 +527,27 @@
     <t>1516 25TH AVE, TUSCALOOSA, AL, 35401</t>
   </si>
   <si>
+    <t>468 BROAD ST, BRIDGEPORT, CT, 06604</t>
+  </si>
+  <si>
+    <t>83 SUMMER ST, STRATFORD, CT, 06614</t>
+  </si>
+  <si>
+    <t>101 CHURCH ST, BRIDGEPORT, CT, 06608</t>
+  </si>
+  <si>
+    <t>2016 MAIN ST, HARTFORD, CT, 06111</t>
+  </si>
+  <si>
+    <t>12 CANTON ST, HARTFORD, CT, 06120</t>
+  </si>
+  <si>
+    <t>91 WEBSTER ST, NEW HAVEN, CT, 06511</t>
+  </si>
+  <si>
+    <t>108 CANAL ST, NEW HAVEN, CT, 06511</t>
+  </si>
+  <si>
     <t>17TH</t>
   </si>
   <si>
@@ -473,6 +587,24 @@
     <t>25TH</t>
   </si>
   <si>
+    <t>BROAD</t>
+  </si>
+  <si>
+    <t>SUMMER</t>
+  </si>
+  <si>
+    <t>MAIN</t>
+  </si>
+  <si>
+    <t>CANTON</t>
+  </si>
+  <si>
+    <t>WEBSTER</t>
+  </si>
+  <si>
+    <t>CANAL</t>
+  </si>
+  <si>
     <t>BIRMINGHAM</t>
   </si>
   <si>
@@ -491,9 +623,24 @@
     <t>TUSCALOOSA</t>
   </si>
   <si>
+    <t>BRIDGEPORT</t>
+  </si>
+  <si>
+    <t>STRATFORD</t>
+  </si>
+  <si>
+    <t>HARTFORD</t>
+  </si>
+  <si>
+    <t>NEW HAVEN</t>
+  </si>
+  <si>
     <t>AL</t>
   </si>
   <si>
+    <t>CT</t>
+  </si>
+  <si>
     <t>35203</t>
   </si>
   <si>
@@ -516,6 +663,24 @@
   </si>
   <si>
     <t>35401</t>
+  </si>
+  <si>
+    <t>06604</t>
+  </si>
+  <si>
+    <t>06614</t>
+  </si>
+  <si>
+    <t>06608</t>
+  </si>
+  <si>
+    <t>06111</t>
+  </si>
+  <si>
+    <t>06120</t>
+  </si>
+  <si>
+    <t>06511</t>
   </si>
 </sst>
 </file>
@@ -619,25 +784,25 @@
         <v>1938.0</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="J2" t="e">
         <v>#N/A</v>
@@ -666,25 +831,25 @@
         <v>1938.0</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="I3" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="J3" t="n">
         <v>-86.8113150658676</v>
@@ -693,16 +858,16 @@
         <v>33.5143485707937</v>
       </c>
       <c r="L3" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="M3" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="N3" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="O3" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
@@ -713,25 +878,25 @@
         <v>1938.0</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="I4" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="J4" t="n">
         <v>-86.8290693868153</v>
@@ -740,16 +905,16 @@
         <v>33.5320444220056</v>
       </c>
       <c r="L4" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="M4" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="N4" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="O4" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5">
@@ -760,25 +925,25 @@
         <v>1938.0</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="J5" t="n">
         <v>-86.8101998183382</v>
@@ -787,16 +952,16 @@
         <v>33.5154455727818</v>
       </c>
       <c r="L5" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="M5" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="N5" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="O5" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6">
@@ -807,25 +972,25 @@
         <v>1938.0</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H6" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="I6" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="J6" t="n">
         <v>-86.8101943813631</v>
@@ -834,16 +999,16 @@
         <v>33.5154374173175</v>
       </c>
       <c r="L6" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="M6" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="N6" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="O6" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7">
@@ -854,25 +1019,25 @@
         <v>1938.0</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H7" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="I7" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="J7" t="n">
         <v>-86.981936433337</v>
@@ -881,16 +1046,16 @@
         <v>34.6118640107611</v>
       </c>
       <c r="L7" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="M7" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="N7" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="O7" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8">
@@ -901,25 +1066,25 @@
         <v>1938.0</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H8" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="I8" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="J8" t="n">
         <v>-85.9687107717626</v>
@@ -928,16 +1093,16 @@
         <v>33.9940141891079</v>
       </c>
       <c r="L8" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="M8" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="N8" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="O8" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9">
@@ -948,25 +1113,25 @@
         <v>1938.0</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="I9" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="J9" t="n">
         <v>-86.0219558574387</v>
@@ -975,16 +1140,16 @@
         <v>34.0151992985974</v>
       </c>
       <c r="L9" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="M9" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="N9" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="O9" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10">
@@ -995,25 +1160,25 @@
         <v>1938.0</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="H10" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="J10" t="n">
         <v>-86.0222979270442</v>
@@ -1022,16 +1187,16 @@
         <v>34.0152022461397</v>
       </c>
       <c r="L10" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="M10" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="N10" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="O10" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
@@ -1042,25 +1207,25 @@
         <v>1938.0</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H11" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="J11" t="n">
         <v>-86.0221098420977</v>
@@ -1069,16 +1234,16 @@
         <v>34.0150862358663</v>
       </c>
       <c r="L11" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="M11" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="N11" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="O11" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12">
@@ -1089,25 +1254,25 @@
         <v>1938.0</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="H12" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="J12" t="n">
         <v>-86.005031796993</v>
@@ -1116,16 +1281,16 @@
         <v>34.0175041515731</v>
       </c>
       <c r="L12" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="M12" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="N12" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="O12" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13">
@@ -1136,25 +1301,25 @@
         <v>1938.0</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="J13" t="e">
         <v>#N/A</v>
@@ -1183,25 +1348,25 @@
         <v>1938.0</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="J14" t="e">
         <v>#N/A</v>
@@ -1230,25 +1395,25 @@
         <v>1938.0</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="I15" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="J15" t="e">
         <v>#N/A</v>
@@ -1277,25 +1442,25 @@
         <v>1938.0</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="H16" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="J16" t="n">
         <v>-88.0576867932334</v>
@@ -1304,16 +1469,16 @@
         <v>30.6960542804327</v>
       </c>
       <c r="L16" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="N16" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="O16" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17">
@@ -1324,25 +1489,25 @@
         <v>1938.0</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="H17" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="I17" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="J17" t="n">
         <v>-88.0524129709915</v>
@@ -1351,16 +1516,16 @@
         <v>30.6935613534321</v>
       </c>
       <c r="L17" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="N17" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="O17" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18">
@@ -1371,25 +1536,25 @@
         <v>1938.0</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="H18" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="I18" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="J18" t="n">
         <v>-88.0656567796014</v>
@@ -1398,16 +1563,16 @@
         <v>30.6976495325603</v>
       </c>
       <c r="L18" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="M18" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="N18" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="O18" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19">
@@ -1418,25 +1583,25 @@
         <v>1938.0</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="H19" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="I19" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="J19" t="e">
         <v>#N/A</v>
@@ -1465,25 +1630,25 @@
         <v>1938.0</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="H20" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="I20" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="J20" t="e">
         <v>#N/A</v>
@@ -1512,25 +1677,25 @@
         <v>1938.0</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="H21" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="I21" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="J21" t="n">
         <v>-85.9677376311342</v>
@@ -1539,16 +1704,16 @@
         <v>31.8159372445166</v>
       </c>
       <c r="L21" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="M21" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="N21" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="O21" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22">
@@ -1559,25 +1724,25 @@
         <v>1938.0</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="H22" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="I22" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="J22" t="e">
         <v>#N/A</v>
@@ -1606,43 +1771,43 @@
         <v>1938.0</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="H23" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="I23" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="J23" t="n">
-        <v>-87.56741988788946</v>
+        <v>-87.5674198878895</v>
       </c>
       <c r="K23" t="n">
-        <v>33.202715516424774</v>
+        <v>33.2027155164248</v>
       </c>
       <c r="L23" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="M23" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="N23" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="O23" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24">
@@ -1653,43 +1818,43 @@
         <v>1938.0</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="H24" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="I24" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="J24" t="n">
-        <v>-87.57656821306591</v>
+        <v>-87.5765682130659</v>
       </c>
       <c r="K24" t="n">
-        <v>33.20836864576911</v>
+        <v>33.2083686457691</v>
       </c>
       <c r="L24" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="M24" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="N24" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="O24" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25">
@@ -1700,43 +1865,43 @@
         <v>1938.0</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="H25" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="I25" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="J25" t="n">
-        <v>-87.56514799217317</v>
+        <v>-87.5651479921732</v>
       </c>
       <c r="K25" t="n">
-        <v>33.19973830539088</v>
+        <v>33.1997383053909</v>
       </c>
       <c r="L25" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="M25" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="N25" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="O25" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26">
@@ -1747,43 +1912,466 @@
         <v>1938.0</v>
       </c>
       <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" t="s">
+        <v>143</v>
+      </c>
+      <c r="I26" t="s">
+        <v>153</v>
+      </c>
+      <c r="J26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O26" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>39</v>
       </c>
-      <c r="D26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="B27" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C27" t="s">
         <v>49</v>
       </c>
-      <c r="F26" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" t="s">
-        <v>98</v>
-      </c>
-      <c r="H26" t="s">
-        <v>121</v>
-      </c>
-      <c r="I26" t="s">
-        <v>122</v>
-      </c>
-      <c r="J26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O26" t="e">
-        <v>#N/A</v>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G27" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" t="s">
+        <v>171</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-73.18760419910356</v>
+      </c>
+      <c r="K27" t="n">
+        <v>41.169732800618405</v>
+      </c>
+      <c r="L27" t="s">
+        <v>191</v>
+      </c>
+      <c r="M27" t="s">
+        <v>203</v>
+      </c>
+      <c r="N27" t="s">
+        <v>208</v>
+      </c>
+      <c r="O27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H28" t="s">
+        <v>145</v>
+      </c>
+      <c r="I28" t="s">
+        <v>172</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-73.14251642239584</v>
+      </c>
+      <c r="K28" t="n">
+        <v>41.19921679697395</v>
+      </c>
+      <c r="L28" t="s">
+        <v>192</v>
+      </c>
+      <c r="M28" t="s">
+        <v>204</v>
+      </c>
+      <c r="N28" t="s">
+        <v>208</v>
+      </c>
+      <c r="O28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" t="s">
+        <v>146</v>
+      </c>
+      <c r="I29" t="s">
+        <v>153</v>
+      </c>
+      <c r="J29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O29" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G30" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" t="s">
+        <v>147</v>
+      </c>
+      <c r="I30" t="s">
+        <v>173</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-73.17480012426414</v>
+      </c>
+      <c r="K30" t="n">
+        <v>41.184842178076934</v>
+      </c>
+      <c r="L30" t="s">
+        <v>181</v>
+      </c>
+      <c r="M30" t="s">
+        <v>203</v>
+      </c>
+      <c r="N30" t="s">
+        <v>208</v>
+      </c>
+      <c r="O30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G31" t="s">
+        <v>116</v>
+      </c>
+      <c r="H31" t="s">
+        <v>148</v>
+      </c>
+      <c r="I31" t="s">
+        <v>174</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-72.71945134277621</v>
+      </c>
+      <c r="K31" t="n">
+        <v>41.67542783109555</v>
+      </c>
+      <c r="L31" t="s">
+        <v>193</v>
+      </c>
+      <c r="M31" t="s">
+        <v>205</v>
+      </c>
+      <c r="N31" t="s">
+        <v>208</v>
+      </c>
+      <c r="O31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G32" t="s">
+        <v>117</v>
+      </c>
+      <c r="H32" t="s">
+        <v>149</v>
+      </c>
+      <c r="I32" t="s">
+        <v>175</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-72.67598433677638</v>
+      </c>
+      <c r="K32" t="n">
+        <v>41.778444989069676</v>
+      </c>
+      <c r="L32" t="s">
+        <v>194</v>
+      </c>
+      <c r="M32" t="s">
+        <v>205</v>
+      </c>
+      <c r="N32" t="s">
+        <v>208</v>
+      </c>
+      <c r="O32" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" t="s">
+        <v>150</v>
+      </c>
+      <c r="I33" t="s">
+        <v>153</v>
+      </c>
+      <c r="J33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O33" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G34" t="s">
+        <v>119</v>
+      </c>
+      <c r="H34" t="s">
+        <v>151</v>
+      </c>
+      <c r="I34" t="s">
+        <v>176</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-72.93294600768414</v>
+      </c>
+      <c r="K34" t="n">
+        <v>41.31695681768619</v>
+      </c>
+      <c r="L34" t="s">
+        <v>195</v>
+      </c>
+      <c r="M34" t="s">
+        <v>206</v>
+      </c>
+      <c r="N34" t="s">
+        <v>208</v>
+      </c>
+      <c r="O34" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G35" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" t="s">
+        <v>152</v>
+      </c>
+      <c r="I35" t="s">
+        <v>177</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-72.92833826777165</v>
+      </c>
+      <c r="K35" t="n">
+        <v>41.31800506337907</v>
+      </c>
+      <c r="L35" t="s">
+        <v>196</v>
+      </c>
+      <c r="M35" t="s">
+        <v>206</v>
+      </c>
+      <c r="N35" t="s">
+        <v>208</v>
+      </c>
+      <c r="O35" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/data/greenbook_addresses.xlsx
+++ b/data/greenbook_addresses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="310">
   <si>
     <t>greenbook_edition</t>
   </si>
@@ -158,6 +158,63 @@
     <t>34</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -200,6 +257,15 @@
     <t>New Haven</t>
   </si>
   <si>
+    <t>New London</t>
+  </si>
+  <si>
+    <t>Stamford</t>
+  </si>
+  <si>
+    <t>Waterbury</t>
+  </si>
+  <si>
     <t>tourist</t>
   </si>
   <si>
@@ -377,6 +443,63 @@
     <t>108 Canal St.</t>
   </si>
   <si>
+    <t>65 Dixwell Ave.</t>
+  </si>
+  <si>
+    <t>54 Dixwell Ave.</t>
+  </si>
+  <si>
+    <t>68 Dixwell Ave.</t>
+  </si>
+  <si>
+    <t>55 Dwxiell Ave.</t>
+  </si>
+  <si>
+    <t>20 Brewer St.</t>
+  </si>
+  <si>
+    <t>45 Shapley St.</t>
+  </si>
+  <si>
+    <t>73 Hempstead St.</t>
+  </si>
+  <si>
+    <t>88 Bank St.</t>
+  </si>
+  <si>
+    <t>785 Bank St.</t>
+  </si>
+  <si>
+    <t>Gay St</t>
+  </si>
+  <si>
+    <t>33 Beekley Ave.</t>
+  </si>
+  <si>
+    <t>57 Bishop St.</t>
+  </si>
+  <si>
+    <t>208 Bridge St.</t>
+  </si>
+  <si>
+    <t>37 Hanrahan Ave.</t>
+  </si>
+  <si>
+    <t>81 Pearl St.</t>
+  </si>
+  <si>
+    <t>99 Pearl St.</t>
+  </si>
+  <si>
+    <t>51 Pearl St.</t>
+  </si>
+  <si>
+    <t>25 Pearl St.</t>
+  </si>
+  <si>
+    <t>56 Pearl St.</t>
+  </si>
+  <si>
     <t>69 N. Cotton St., Andalusia, Alabama</t>
   </si>
   <si>
@@ -446,7 +569,7 @@
     <t>11th St, Tuscaloosa, Alabama</t>
   </si>
   <si>
-    <t>468 Broad St, Bridgeport, Connecticut</t>
+    <t>468 Broad St, Bridgeport, Alabama</t>
   </si>
   <si>
     <t>83 Summer St, Bridgeport, Connecticut</t>
@@ -473,6 +596,63 @@
     <t>108 Canal St., New Haven, Connecticut</t>
   </si>
   <si>
+    <t>65 Dixwell Ave., New Haven, Connecticut</t>
+  </si>
+  <si>
+    <t>54 Dixwell Ave., New Haven, Connecticut</t>
+  </si>
+  <si>
+    <t>68 Dixwell Ave., New Haven, Connecticut</t>
+  </si>
+  <si>
+    <t>55 Dwxiell Ave., New Haven, Connecticut</t>
+  </si>
+  <si>
+    <t>20 Brewer St., New London, Connecticut</t>
+  </si>
+  <si>
+    <t>45 Shapley St., New London, Connecticut</t>
+  </si>
+  <si>
+    <t>73 Hempstead St., New London, Connecticut</t>
+  </si>
+  <si>
+    <t>88 Bank St., New London, Connecticut</t>
+  </si>
+  <si>
+    <t>785 Bank St., New London, Connecticut</t>
+  </si>
+  <si>
+    <t>Gay St, Stamford, Connecticut</t>
+  </si>
+  <si>
+    <t>33 Beekley Ave., Stamford, Connecticut</t>
+  </si>
+  <si>
+    <t>57 Bishop St., Waterbury, Connecticut</t>
+  </si>
+  <si>
+    <t>208 Bridge St., Waterbury, Connecticut</t>
+  </si>
+  <si>
+    <t>37 Hanrahan Ave., Waterbury, Connecticut</t>
+  </si>
+  <si>
+    <t>81 Pearl St., Waterbury, Connecticut</t>
+  </si>
+  <si>
+    <t>99 Pearl St., Waterbury, Connecticut</t>
+  </si>
+  <si>
+    <t>51 Pearl St., Waterbury, Connecticut</t>
+  </si>
+  <si>
+    <t>25 Pearl St., Waterbury, Connecticut</t>
+  </si>
+  <si>
+    <t>56 Pearl St., Waterbury, Connecticut</t>
+  </si>
+  <si>
     <t>[none found]</t>
   </si>
   <si>
@@ -548,6 +728,48 @@
     <t>108 CANAL ST, NEW HAVEN, CT, 06511</t>
   </si>
   <si>
+    <t>65 DIXWELL AVE, NEW HAVEN, CT, 06511</t>
+  </si>
+  <si>
+    <t>54 DIXWELL AVE, NEW HAVEN, CT, 06511</t>
+  </si>
+  <si>
+    <t>68 DIXWELL AVE, NEW HAVEN, CT, 06511</t>
+  </si>
+  <si>
+    <t>20 BREWER ST, NEW LONDON, CT, 06320</t>
+  </si>
+  <si>
+    <t>73 HEMPSTEAD ST, NEW LONDON, CT, 06320</t>
+  </si>
+  <si>
+    <t>88 BANK ST, NEW LONDON, CT, 06320</t>
+  </si>
+  <si>
+    <t>785 BANK ST, NEW LONDON, CT, 06320</t>
+  </si>
+  <si>
+    <t>33 BERKELEY ST, STAMFORD, CT, 06902</t>
+  </si>
+  <si>
+    <t>57 BISHOP ST, WATERBURY, CT, 06704</t>
+  </si>
+  <si>
+    <t>81 PEARL ST, WATERBURY, CT, 06704</t>
+  </si>
+  <si>
+    <t>99 PEARL ST, WATERBURY, CT, 06704</t>
+  </si>
+  <si>
+    <t>51 PEARL ST, WATERBURY, CT, 06704</t>
+  </si>
+  <si>
+    <t>25 PEARL ST, WATERBURY, CT, 06704</t>
+  </si>
+  <si>
+    <t>56 PEARL ST, WATERBURY, CT, 06704</t>
+  </si>
+  <si>
     <t>17TH</t>
   </si>
   <si>
@@ -605,6 +827,27 @@
     <t>CANAL</t>
   </si>
   <si>
+    <t>DIXWELL</t>
+  </si>
+  <si>
+    <t>BREWER</t>
+  </si>
+  <si>
+    <t>HEMPSTEAD</t>
+  </si>
+  <si>
+    <t>BANK</t>
+  </si>
+  <si>
+    <t>BERKELEY</t>
+  </si>
+  <si>
+    <t>BISHOP</t>
+  </si>
+  <si>
+    <t>PEARL</t>
+  </si>
+  <si>
     <t>BIRMINGHAM</t>
   </si>
   <si>
@@ -635,6 +878,15 @@
     <t>NEW HAVEN</t>
   </si>
   <si>
+    <t>NEW LONDON</t>
+  </si>
+  <si>
+    <t>STAMFORD</t>
+  </si>
+  <si>
+    <t>WATERBURY</t>
+  </si>
+  <si>
     <t>AL</t>
   </si>
   <si>
@@ -681,6 +933,15 @@
   </si>
   <si>
     <t>06511</t>
+  </si>
+  <si>
+    <t>06320</t>
+  </si>
+  <si>
+    <t>06902</t>
+  </si>
+  <si>
+    <t>06704</t>
   </si>
 </sst>
 </file>
@@ -784,25 +1045,25 @@
         <v>1938.0</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="I2" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="J2" t="e">
         <v>#N/A</v>
@@ -831,25 +1092,25 @@
         <v>1938.0</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="H3" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="I3" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="J3" t="n">
         <v>-86.8113150658676</v>
@@ -858,16 +1119,16 @@
         <v>33.5143485707937</v>
       </c>
       <c r="L3" t="s">
-        <v>178</v>
+        <v>252</v>
       </c>
       <c r="M3" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="N3" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O3" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4">
@@ -878,25 +1139,25 @@
         <v>1938.0</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="H4" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="I4" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="J4" t="n">
         <v>-86.8290693868153</v>
@@ -905,16 +1166,16 @@
         <v>33.5320444220056</v>
       </c>
       <c r="L4" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="M4" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="N4" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O4" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5">
@@ -925,25 +1186,25 @@
         <v>1938.0</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="H5" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="I5" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="J5" t="n">
         <v>-86.8101998183382</v>
@@ -952,16 +1213,16 @@
         <v>33.5154455727818</v>
       </c>
       <c r="L5" t="s">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="M5" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="N5" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O5" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6">
@@ -972,25 +1233,25 @@
         <v>1938.0</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="I6" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="J6" t="n">
         <v>-86.8101943813631</v>
@@ -999,16 +1260,16 @@
         <v>33.5154374173175</v>
       </c>
       <c r="L6" t="s">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="M6" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="N6" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O6" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7">
@@ -1019,25 +1280,25 @@
         <v>1938.0</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="H7" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="I7" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="J7" t="n">
         <v>-86.981936433337</v>
@@ -1046,16 +1307,16 @@
         <v>34.6118640107611</v>
       </c>
       <c r="L7" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
       <c r="M7" t="s">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="N7" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O7" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8">
@@ -1066,25 +1327,25 @@
         <v>1938.0</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="I8" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="J8" t="n">
         <v>-85.9687107717626</v>
@@ -1093,16 +1354,16 @@
         <v>33.9940141891079</v>
       </c>
       <c r="L8" t="s">
-        <v>182</v>
+        <v>256</v>
       </c>
       <c r="M8" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="N8" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O8" t="s">
-        <v>212</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9">
@@ -1113,25 +1374,25 @@
         <v>1938.0</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="I9" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="J9" t="n">
         <v>-86.0219558574387</v>
@@ -1140,16 +1401,16 @@
         <v>34.0151992985974</v>
       </c>
       <c r="L9" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="M9" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="N9" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O9" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10">
@@ -1160,25 +1421,25 @@
         <v>1938.0</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="H10" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="I10" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="J10" t="n">
         <v>-86.0222979270442</v>
@@ -1187,16 +1448,16 @@
         <v>34.0152022461397</v>
       </c>
       <c r="L10" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="M10" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="N10" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O10" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11">
@@ -1207,25 +1468,25 @@
         <v>1938.0</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="H11" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="I11" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="J11" t="n">
         <v>-86.0221098420977</v>
@@ -1234,16 +1495,16 @@
         <v>34.0150862358663</v>
       </c>
       <c r="L11" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="M11" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="N11" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O11" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12">
@@ -1254,25 +1515,25 @@
         <v>1938.0</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="H12" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="I12" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="J12" t="n">
         <v>-86.005031796993</v>
@@ -1281,16 +1542,16 @@
         <v>34.0175041515731</v>
       </c>
       <c r="L12" t="s">
-        <v>183</v>
+        <v>257</v>
       </c>
       <c r="M12" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="N12" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O12" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13">
@@ -1301,25 +1562,25 @@
         <v>1938.0</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="H13" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="I13" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="J13" t="e">
         <v>#N/A</v>
@@ -1348,25 +1609,25 @@
         <v>1938.0</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="H14" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="J14" t="e">
         <v>#N/A</v>
@@ -1395,25 +1656,25 @@
         <v>1938.0</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="H15" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="J15" t="e">
         <v>#N/A</v>
@@ -1442,25 +1703,25 @@
         <v>1938.0</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="H16" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="J16" t="n">
         <v>-88.0576867932334</v>
@@ -1469,16 +1730,16 @@
         <v>30.6960542804327</v>
       </c>
       <c r="L16" t="s">
-        <v>184</v>
+        <v>258</v>
       </c>
       <c r="M16" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="N16" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O16" t="s">
-        <v>214</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17">
@@ -1489,25 +1750,25 @@
         <v>1938.0</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G17" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="H17" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="I17" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="J17" t="n">
         <v>-88.0524129709915</v>
@@ -1516,16 +1777,16 @@
         <v>30.6935613534321</v>
       </c>
       <c r="L17" t="s">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="M17" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="N17" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O17" t="s">
-        <v>214</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18">
@@ -1536,25 +1797,25 @@
         <v>1938.0</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="H18" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="I18" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="J18" t="n">
         <v>-88.0656567796014</v>
@@ -1563,16 +1824,16 @@
         <v>30.6976495325603</v>
       </c>
       <c r="L18" t="s">
-        <v>186</v>
+        <v>260</v>
       </c>
       <c r="M18" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="N18" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O18" t="s">
-        <v>214</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19">
@@ -1583,25 +1844,25 @@
         <v>1938.0</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="H19" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="I19" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="J19" t="e">
         <v>#N/A</v>
@@ -1630,25 +1891,25 @@
         <v>1938.0</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="H20" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="I20" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="J20" t="e">
         <v>#N/A</v>
@@ -1677,25 +1938,25 @@
         <v>1938.0</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G21" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="H21" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="I21" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="J21" t="n">
         <v>-85.9677376311342</v>
@@ -1704,16 +1965,16 @@
         <v>31.8159372445166</v>
       </c>
       <c r="L21" t="s">
-        <v>187</v>
+        <v>261</v>
       </c>
       <c r="M21" t="s">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c r="N21" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O21" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22">
@@ -1724,25 +1985,25 @@
         <v>1938.0</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="G22" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="H22" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="I22" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="J22" t="e">
         <v>#N/A</v>
@@ -1771,25 +2032,25 @@
         <v>1938.0</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="G23" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="H23" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="I23" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="J23" t="n">
         <v>-87.5674198878895</v>
@@ -1798,16 +2059,16 @@
         <v>33.2027155164248</v>
       </c>
       <c r="L23" t="s">
-        <v>188</v>
+        <v>262</v>
       </c>
       <c r="M23" t="s">
-        <v>202</v>
+        <v>283</v>
       </c>
       <c r="N23" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O23" t="s">
-        <v>216</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24">
@@ -1818,25 +2079,25 @@
         <v>1938.0</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="G24" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="H24" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="I24" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="J24" t="n">
         <v>-87.5765682130659</v>
@@ -1845,16 +2106,16 @@
         <v>33.2083686457691</v>
       </c>
       <c r="L24" t="s">
-        <v>189</v>
+        <v>263</v>
       </c>
       <c r="M24" t="s">
-        <v>202</v>
+        <v>283</v>
       </c>
       <c r="N24" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O24" t="s">
-        <v>216</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25">
@@ -1865,25 +2126,25 @@
         <v>1938.0</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="G25" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="H25" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="I25" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="J25" t="n">
         <v>-87.5651479921732</v>
@@ -1892,16 +2153,16 @@
         <v>33.1997383053909</v>
       </c>
       <c r="L25" t="s">
-        <v>190</v>
+        <v>264</v>
       </c>
       <c r="M25" t="s">
-        <v>202</v>
+        <v>283</v>
       </c>
       <c r="N25" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O25" t="s">
-        <v>216</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26">
@@ -1912,25 +2173,25 @@
         <v>1938.0</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="G26" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="H26" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="I26" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="J26" t="e">
         <v>#N/A</v>
@@ -1959,43 +2220,43 @@
         <v>1938.0</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F27" t="e">
         <v>#N/A</v>
       </c>
       <c r="G27" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="H27" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="I27" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="J27" t="n">
-        <v>-73.18760419910356</v>
+        <v>-73.1876041991036</v>
       </c>
       <c r="K27" t="n">
-        <v>41.169732800618405</v>
+        <v>41.1697328006184</v>
       </c>
       <c r="L27" t="s">
-        <v>191</v>
+        <v>265</v>
       </c>
       <c r="M27" t="s">
-        <v>203</v>
+        <v>284</v>
       </c>
       <c r="N27" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="O27" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28">
@@ -2006,43 +2267,43 @@
         <v>1938.0</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F28" t="e">
         <v>#N/A</v>
       </c>
       <c r="G28" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="H28" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="I28" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="J28" t="n">
-        <v>-73.14251642239584</v>
+        <v>-73.1425164223959</v>
       </c>
       <c r="K28" t="n">
-        <v>41.19921679697395</v>
+        <v>41.199216796974</v>
       </c>
       <c r="L28" t="s">
-        <v>192</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s">
-        <v>204</v>
+        <v>285</v>
       </c>
       <c r="N28" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="O28" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29">
@@ -2053,25 +2314,25 @@
         <v>1938.0</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F29" t="e">
         <v>#N/A</v>
       </c>
       <c r="G29" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="H29" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="I29" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="J29" t="e">
         <v>#N/A</v>
@@ -2100,43 +2361,43 @@
         <v>1938.0</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F30" t="e">
         <v>#N/A</v>
       </c>
       <c r="G30" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="H30" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="I30" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="J30" t="n">
-        <v>-73.17480012426414</v>
+        <v>-73.1748001242641</v>
       </c>
       <c r="K30" t="n">
-        <v>41.184842178076934</v>
+        <v>41.1848421780769</v>
       </c>
       <c r="L30" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s">
-        <v>203</v>
+        <v>284</v>
       </c>
       <c r="N30" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="O30" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31">
@@ -2147,43 +2408,43 @@
         <v>1938.0</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F31" t="e">
         <v>#N/A</v>
       </c>
       <c r="G31" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="H31" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="I31" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="J31" t="n">
-        <v>-72.71945134277621</v>
+        <v>-72.7194513427762</v>
       </c>
       <c r="K31" t="n">
-        <v>41.67542783109555</v>
+        <v>41.6754278310956</v>
       </c>
       <c r="L31" t="s">
-        <v>193</v>
+        <v>267</v>
       </c>
       <c r="M31" t="s">
-        <v>205</v>
+        <v>286</v>
       </c>
       <c r="N31" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="O31" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32">
@@ -2194,43 +2455,43 @@
         <v>1938.0</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F32" t="e">
         <v>#N/A</v>
       </c>
       <c r="G32" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="H32" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="I32" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="J32" t="n">
-        <v>-72.67598433677638</v>
+        <v>-72.6759843367764</v>
       </c>
       <c r="K32" t="n">
-        <v>41.778444989069676</v>
+        <v>41.7784449890697</v>
       </c>
       <c r="L32" t="s">
-        <v>194</v>
+        <v>268</v>
       </c>
       <c r="M32" t="s">
-        <v>205</v>
+        <v>286</v>
       </c>
       <c r="N32" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="O32" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33">
@@ -2241,25 +2502,25 @@
         <v>1938.0</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F33" t="e">
         <v>#N/A</v>
       </c>
       <c r="G33" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="H33" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="I33" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="J33" t="e">
         <v>#N/A</v>
@@ -2288,43 +2549,43 @@
         <v>1938.0</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F34" t="e">
         <v>#N/A</v>
       </c>
       <c r="G34" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="H34" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="I34" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="J34" t="n">
-        <v>-72.93294600768414</v>
+        <v>-72.9329460076841</v>
       </c>
       <c r="K34" t="n">
-        <v>41.31695681768619</v>
+        <v>41.3169568176862</v>
       </c>
       <c r="L34" t="s">
-        <v>195</v>
+        <v>269</v>
       </c>
       <c r="M34" t="s">
-        <v>206</v>
+        <v>287</v>
       </c>
       <c r="N34" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="O34" t="s">
-        <v>222</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35">
@@ -2335,43 +2596,936 @@
         <v>1938.0</v>
       </c>
       <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G35" t="s">
+        <v>142</v>
+      </c>
+      <c r="H35" t="s">
+        <v>193</v>
+      </c>
+      <c r="I35" t="s">
+        <v>237</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-72.9283382677717</v>
+      </c>
+      <c r="K35" t="n">
+        <v>41.3180050633791</v>
+      </c>
+      <c r="L35" t="s">
+        <v>270</v>
+      </c>
+      <c r="M35" t="s">
+        <v>287</v>
+      </c>
+      <c r="N35" t="s">
+        <v>292</v>
+      </c>
+      <c r="O35" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G36" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" t="s">
+        <v>194</v>
+      </c>
+      <c r="I36" t="s">
+        <v>238</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-72.9326610116185</v>
+      </c>
+      <c r="K36" t="n">
+        <v>41.31483335957365</v>
+      </c>
+      <c r="L36" t="s">
+        <v>271</v>
+      </c>
+      <c r="M36" t="s">
+        <v>287</v>
+      </c>
+      <c r="N36" t="s">
+        <v>292</v>
+      </c>
+      <c r="O36" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
         <v>49</v>
       </c>
-      <c r="D35" t="s">
+      <c r="B37" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G37" t="s">
+        <v>144</v>
+      </c>
+      <c r="H37" t="s">
+        <v>195</v>
+      </c>
+      <c r="I37" t="s">
+        <v>239</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-72.93274094154106</v>
+      </c>
+      <c r="K37" t="n">
+        <v>41.31456929035583</v>
+      </c>
+      <c r="L37" t="s">
+        <v>271</v>
+      </c>
+      <c r="M37" t="s">
+        <v>287</v>
+      </c>
+      <c r="N37" t="s">
+        <v>292</v>
+      </c>
+      <c r="O37" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G38" t="s">
+        <v>145</v>
+      </c>
+      <c r="H38" t="s">
+        <v>196</v>
+      </c>
+      <c r="I38" t="s">
+        <v>240</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-72.93279529277156</v>
+      </c>
+      <c r="K38" t="n">
+        <v>41.31475770802021</v>
+      </c>
+      <c r="L38" t="s">
+        <v>271</v>
+      </c>
+      <c r="M38" t="s">
+        <v>287</v>
+      </c>
+      <c r="N38" t="s">
+        <v>292</v>
+      </c>
+      <c r="O38" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G39" t="s">
+        <v>146</v>
+      </c>
+      <c r="H39" t="s">
+        <v>197</v>
+      </c>
+      <c r="I39" t="s">
+        <v>213</v>
+      </c>
+      <c r="J39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O39" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G40" t="s">
+        <v>147</v>
+      </c>
+      <c r="H40" t="s">
+        <v>198</v>
+      </c>
+      <c r="I40" t="s">
+        <v>241</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-72.09892489200932</v>
+      </c>
+      <c r="K40" t="n">
+        <v>41.351472071654875</v>
+      </c>
+      <c r="L40" t="s">
+        <v>272</v>
+      </c>
+      <c r="M40" t="s">
+        <v>288</v>
+      </c>
+      <c r="N40" t="s">
+        <v>292</v>
+      </c>
+      <c r="O40" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G41" t="s">
+        <v>148</v>
+      </c>
+      <c r="H41" t="s">
+        <v>199</v>
+      </c>
+      <c r="I41" t="s">
+        <v>213</v>
+      </c>
+      <c r="J41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O41" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G42" t="s">
+        <v>149</v>
+      </c>
+      <c r="H42" t="s">
+        <v>200</v>
+      </c>
+      <c r="I42" t="s">
+        <v>242</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-72.1036935417646</v>
+      </c>
+      <c r="K42" t="n">
+        <v>41.35473988848303</v>
+      </c>
+      <c r="L42" t="s">
+        <v>273</v>
+      </c>
+      <c r="M42" t="s">
+        <v>288</v>
+      </c>
+      <c r="N42" t="s">
+        <v>292</v>
+      </c>
+      <c r="O42" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G43" t="s">
+        <v>150</v>
+      </c>
+      <c r="H43" t="s">
+        <v>201</v>
+      </c>
+      <c r="I43" t="s">
+        <v>243</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-72.09455312997488</v>
+      </c>
+      <c r="K43" t="n">
+        <v>41.3529769238668</v>
+      </c>
+      <c r="L43" t="s">
+        <v>274</v>
+      </c>
+      <c r="M43" t="s">
+        <v>288</v>
+      </c>
+      <c r="N43" t="s">
+        <v>292</v>
+      </c>
+      <c r="O43" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G44" t="s">
+        <v>151</v>
+      </c>
+      <c r="H44" t="s">
+        <v>202</v>
+      </c>
+      <c r="I44" t="s">
+        <v>244</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-72.10613109643866</v>
+      </c>
+      <c r="K44" t="n">
+        <v>41.3491636454073</v>
+      </c>
+      <c r="L44" t="s">
+        <v>274</v>
+      </c>
+      <c r="M44" t="s">
+        <v>288</v>
+      </c>
+      <c r="N44" t="s">
+        <v>292</v>
+      </c>
+      <c r="O44" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G45" t="s">
+        <v>152</v>
+      </c>
+      <c r="H45" t="s">
+        <v>203</v>
+      </c>
+      <c r="I45" t="s">
+        <v>213</v>
+      </c>
+      <c r="J45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O45" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G46" t="s">
+        <v>153</v>
+      </c>
+      <c r="H46" t="s">
+        <v>204</v>
+      </c>
+      <c r="I46" t="s">
+        <v>245</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-73.54353504404457</v>
+      </c>
+      <c r="K46" t="n">
+        <v>41.0437896616415</v>
+      </c>
+      <c r="L46" t="s">
+        <v>275</v>
+      </c>
+      <c r="M46" t="s">
+        <v>289</v>
+      </c>
+      <c r="N46" t="s">
+        <v>292</v>
+      </c>
+      <c r="O46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G47" t="s">
+        <v>154</v>
+      </c>
+      <c r="H47" t="s">
+        <v>205</v>
+      </c>
+      <c r="I47" t="s">
+        <v>246</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-73.03604009890913</v>
+      </c>
+      <c r="K47" t="n">
+        <v>41.56128993053742</v>
+      </c>
+      <c r="L47" t="s">
+        <v>276</v>
+      </c>
+      <c r="M47" t="s">
+        <v>290</v>
+      </c>
+      <c r="N47" t="s">
+        <v>292</v>
+      </c>
+      <c r="O47" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G48" t="s">
+        <v>155</v>
+      </c>
+      <c r="H48" t="s">
+        <v>206</v>
+      </c>
+      <c r="I48" t="s">
+        <v>213</v>
+      </c>
+      <c r="J48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O48" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
         <v>61</v>
       </c>
-      <c r="E35" t="s">
+      <c r="B49" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G49" t="s">
+        <v>156</v>
+      </c>
+      <c r="H49" t="s">
+        <v>207</v>
+      </c>
+      <c r="I49" t="s">
+        <v>213</v>
+      </c>
+      <c r="J49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O49" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G50" t="s">
+        <v>157</v>
+      </c>
+      <c r="H50" t="s">
+        <v>208</v>
+      </c>
+      <c r="I50" t="s">
+        <v>247</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-73.03791040117098</v>
+      </c>
+      <c r="K50" t="n">
+        <v>41.563258875315846</v>
+      </c>
+      <c r="L50" t="s">
+        <v>277</v>
+      </c>
+      <c r="M50" t="s">
+        <v>290</v>
+      </c>
+      <c r="N50" t="s">
+        <v>292</v>
+      </c>
+      <c r="O50" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
         <v>63</v>
       </c>
-      <c r="F35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G35" t="s">
-        <v>120</v>
-      </c>
-      <c r="H35" t="s">
-        <v>152</v>
-      </c>
-      <c r="I35" t="s">
-        <v>177</v>
-      </c>
-      <c r="J35" t="n">
-        <v>-72.92833826777165</v>
-      </c>
-      <c r="K35" t="n">
-        <v>41.31800506337907</v>
-      </c>
-      <c r="L35" t="s">
-        <v>196</v>
-      </c>
-      <c r="M35" t="s">
-        <v>206</v>
-      </c>
-      <c r="N35" t="s">
-        <v>208</v>
-      </c>
-      <c r="O35" t="s">
-        <v>222</v>
+      <c r="B51" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" t="s">
+        <v>84</v>
+      </c>
+      <c r="F51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G51" t="s">
+        <v>158</v>
+      </c>
+      <c r="H51" t="s">
+        <v>209</v>
+      </c>
+      <c r="I51" t="s">
+        <v>248</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-73.0381966494124</v>
+      </c>
+      <c r="K51" t="n">
+        <v>41.563742906389116</v>
+      </c>
+      <c r="L51" t="s">
+        <v>277</v>
+      </c>
+      <c r="M51" t="s">
+        <v>290</v>
+      </c>
+      <c r="N51" t="s">
+        <v>292</v>
+      </c>
+      <c r="O51" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G52" t="s">
+        <v>159</v>
+      </c>
+      <c r="H52" t="s">
+        <v>210</v>
+      </c>
+      <c r="I52" t="s">
+        <v>249</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-73.03767095611347</v>
+      </c>
+      <c r="K52" t="n">
+        <v>41.562421005865986</v>
+      </c>
+      <c r="L52" t="s">
+        <v>277</v>
+      </c>
+      <c r="M52" t="s">
+        <v>290</v>
+      </c>
+      <c r="N52" t="s">
+        <v>292</v>
+      </c>
+      <c r="O52" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G53" t="s">
+        <v>160</v>
+      </c>
+      <c r="H53" t="s">
+        <v>211</v>
+      </c>
+      <c r="I53" t="s">
+        <v>250</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-73.03758834084984</v>
+      </c>
+      <c r="K53" t="n">
+        <v>41.561648399456224</v>
+      </c>
+      <c r="L53" t="s">
+        <v>277</v>
+      </c>
+      <c r="M53" t="s">
+        <v>290</v>
+      </c>
+      <c r="N53" t="s">
+        <v>292</v>
+      </c>
+      <c r="O53" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G54" t="s">
+        <v>161</v>
+      </c>
+      <c r="H54" t="s">
+        <v>212</v>
+      </c>
+      <c r="I54" t="s">
+        <v>251</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-73.03750015368333</v>
+      </c>
+      <c r="K54" t="n">
+        <v>41.5623010119887</v>
+      </c>
+      <c r="L54" t="s">
+        <v>277</v>
+      </c>
+      <c r="M54" t="s">
+        <v>290</v>
+      </c>
+      <c r="N54" t="s">
+        <v>292</v>
+      </c>
+      <c r="O54" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/data/greenbook_addresses.xlsx
+++ b/data/greenbook_addresses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="505">
   <si>
     <t>greenbook_edition</t>
   </si>
@@ -215,12 +215,141 @@
     <t>53</t>
   </si>
   <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
     <t>Alabama</t>
   </si>
   <si>
     <t>Connecticut</t>
   </si>
   <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
     <t>Andalusia</t>
   </si>
   <si>
@@ -266,12 +395,45 @@
     <t>Waterbury</t>
   </si>
   <si>
+    <t>Dover</t>
+  </si>
+  <si>
+    <t>Wilmington</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Jacksonville</t>
+  </si>
+  <si>
+    <t>Lakeland</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Pensacola</t>
+  </si>
+  <si>
     <t>tourist</t>
   </si>
   <si>
     <t>hotels</t>
   </si>
   <si>
+    <t>taverns</t>
+  </si>
+  <si>
+    <t>restaurants</t>
+  </si>
+  <si>
+    <t>beauty parlors</t>
+  </si>
+  <si>
+    <t>theaters</t>
+  </si>
+  <si>
     <t>Mrs. Ed. Andrews</t>
   </si>
   <si>
@@ -347,6 +509,12 @@
     <t>Mrs. G. Robinson</t>
   </si>
   <si>
+    <t>Moseley’s</t>
+  </si>
+  <si>
+    <t>Weston’s</t>
+  </si>
+  <si>
     <t>69 N. Cotton St.</t>
   </si>
   <si>
@@ -500,6 +668,114 @@
     <t>56 Pearl St.</t>
   </si>
   <si>
+    <t>Kirkwood St.</t>
+  </si>
+  <si>
+    <t>Division St.</t>
+  </si>
+  <si>
+    <t>Lincoln St.</t>
+  </si>
+  <si>
+    <t>Forrest St.</t>
+  </si>
+  <si>
+    <t>1106 Tatnall St.</t>
+  </si>
+  <si>
+    <t>110 W. 12th St.</t>
+  </si>
+  <si>
+    <t>1008 French St.</t>
+  </si>
+  <si>
+    <t>1317 Tatnall St.</t>
+  </si>
+  <si>
+    <t>N. J. Ave &amp; Dost. Ne IW.</t>
+  </si>
+  <si>
+    <t>1825 13th St. N. W.</t>
+  </si>
+  <si>
+    <t>1502 18th St. N. W.</t>
+  </si>
+  <si>
+    <t>7th &amp; N St. N. W.</t>
+  </si>
+  <si>
+    <t>13th &amp; T St. N. W.</t>
+  </si>
+  <si>
+    <t>1816 12th St. N. W.</t>
+  </si>
+  <si>
+    <t>901 Rhode Island Ave. N. W.</t>
+  </si>
+  <si>
+    <t>215 Florida Ave. N. W.</t>
+  </si>
+  <si>
+    <t>1929 13th St. N. W.</t>
+  </si>
+  <si>
+    <t>1212 Girad St.</t>
+  </si>
+  <si>
+    <t>1435 Q St. N. W.</t>
+  </si>
+  <si>
+    <t>910 5th st. N. W.</t>
+  </si>
+  <si>
+    <t>1218 U St. N. W.</t>
+  </si>
+  <si>
+    <t>7th &amp; T St. N. W.</t>
+  </si>
+  <si>
+    <t>1417 U St. N. W.</t>
+  </si>
+  <si>
+    <t>U St. bw 13 &amp; 15 St.</t>
+  </si>
+  <si>
+    <t>U St. bw 13th &amp; 15th St.</t>
+  </si>
+  <si>
+    <t>514 Broad St</t>
+  </si>
+  <si>
+    <t>635 W. Ashley St.</t>
+  </si>
+  <si>
+    <t>636 W. Ashley St.</t>
+  </si>
+  <si>
+    <t>422 Broad St</t>
+  </si>
+  <si>
+    <t>739 W. Church St.</t>
+  </si>
+  <si>
+    <t>2140 Moncrief St.</t>
+  </si>
+  <si>
+    <t>128 Orange St.</t>
+  </si>
+  <si>
+    <t>827 Florida Ave.</t>
+  </si>
+  <si>
+    <t>941 N. W. 2nd Ave.</t>
+  </si>
+  <si>
+    <t>700 N. W. 2nd Ave.</t>
+  </si>
+  <si>
+    <t>311 N. Tarragonia St.</t>
+  </si>
+  <si>
     <t>69 N. Cotton St., Andalusia, Alabama</t>
   </si>
   <si>
@@ -653,6 +929,114 @@
     <t>56 Pearl St., Waterbury, Connecticut</t>
   </si>
   <si>
+    <t>Kirkwood St., Dover, Delaware</t>
+  </si>
+  <si>
+    <t>Division St., Dover, Delaware</t>
+  </si>
+  <si>
+    <t>Lincoln St., Dover, Delaware</t>
+  </si>
+  <si>
+    <t>Forrest St., Dover, Delaware</t>
+  </si>
+  <si>
+    <t>1106 Tatnall St., Wilmington, Delaware</t>
+  </si>
+  <si>
+    <t>110 W. 12th St., Wilmington, Delaware</t>
+  </si>
+  <si>
+    <t>1008 French St., Wilmington, Delaware</t>
+  </si>
+  <si>
+    <t>1317 Tatnall St., Wilmington, Delaware</t>
+  </si>
+  <si>
+    <t>N. J. Ave &amp; Dost. Ne IW., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>1825 13th St. N. W., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>1502 18th St. N. W., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>7th &amp; N St. N. W., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>13th &amp; T St. N. W., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>1816 12th St. N. W., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>901 Rhode Island Ave. N. W., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>215 Florida Ave. N. W., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>1929 13th St. N. W., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>1212 Girad St., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>1435 Q St. N. W., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>910 5th st. N. W., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>1218 U St. N. W., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>7th &amp; T St. N. W., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>1417 U St. N. W., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>U St. bw 13 &amp; 15 St., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>U St. bw 13th &amp; 15th St., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>514 Broad St, Jacksonville, Florida</t>
+  </si>
+  <si>
+    <t>635 W. Ashley St., Jacksonville, Florida</t>
+  </si>
+  <si>
+    <t>636 W. Ashley St., Jacksonville, Florida</t>
+  </si>
+  <si>
+    <t>422 Broad St, Jacksonville, Florida</t>
+  </si>
+  <si>
+    <t>739 W. Church St., Jacksonville, Florida</t>
+  </si>
+  <si>
+    <t>2140 Moncrief St., Jacksonville, Florida</t>
+  </si>
+  <si>
+    <t>128 Orange St., Jacksonville, Florida</t>
+  </si>
+  <si>
+    <t>827 Florida Ave., Lakeland, Florida</t>
+  </si>
+  <si>
+    <t>941 N. W. 2nd Ave., Miami, Florida</t>
+  </si>
+  <si>
+    <t>700 N. W. 2nd Ave., Miami, Florida</t>
+  </si>
+  <si>
+    <t>311 N. Tarragonia St., Pensacola, Florida</t>
+  </si>
+  <si>
     <t>[none found]</t>
   </si>
   <si>
@@ -770,6 +1154,99 @@
     <t>56 PEARL ST, WATERBURY, CT, 06704</t>
   </si>
   <si>
+    <t>1106 TATNALL ST, WILMINGTON, DE, 19801</t>
+  </si>
+  <si>
+    <t>110 W 12TH ST, WILMINGTON, DE, 19801</t>
+  </si>
+  <si>
+    <t>1008 N FRENCH ST, WILMINGTON, DE, 19801</t>
+  </si>
+  <si>
+    <t>1317 TATNALL ST, WILMINGTON, DE, 19801</t>
+  </si>
+  <si>
+    <t>1825 13TH ST NW, WASHINGTON, DC, 20009</t>
+  </si>
+  <si>
+    <t>1502 18TH ST NW, WASHINGTON, DC, 20036</t>
+  </si>
+  <si>
+    <t>7TH ST NW &amp; N ST NW, WASHINGTON, DC, 20001</t>
+  </si>
+  <si>
+    <t>13TH ST NW &amp; T ST NW, WASHINGTON, DC, 20009</t>
+  </si>
+  <si>
+    <t>1816 12TH ST NW, WASHINGTON, DC, 20009</t>
+  </si>
+  <si>
+    <t>901 RHODE ISLAND AVE NW, WASHINGTON, DC, 20018</t>
+  </si>
+  <si>
+    <t>215 FLORIDA AVE NW, WASHINGTON, DC, 20001</t>
+  </si>
+  <si>
+    <t>1929 13TH ST NW, WASHINGTON, DC, 20009</t>
+  </si>
+  <si>
+    <t>1212 GIRARD ST NW, WASHINGTON, DC, 20009</t>
+  </si>
+  <si>
+    <t>1435 Q ST NW, WASHINGTON, DC, 20009</t>
+  </si>
+  <si>
+    <t>910 5TH ST NW, WASHINGTON, DC, 20001</t>
+  </si>
+  <si>
+    <t>1218 U ST NW, WASHINGTON, DC, 20009</t>
+  </si>
+  <si>
+    <t>7TH ST NW &amp; T ST NW, WASHINGTON, DC, 20001</t>
+  </si>
+  <si>
+    <t>1417 U ST NW, WASHINGTON, DC, 20009</t>
+  </si>
+  <si>
+    <t>U ST NW &amp; 15TH ST NW, WASHINGTON, DC, 20009</t>
+  </si>
+  <si>
+    <t>13TH AVE &amp; 15TH ST</t>
+  </si>
+  <si>
+    <t>514 BROAD ST, JACKSONVILLE, FL, 32202</t>
+  </si>
+  <si>
+    <t>635 W ASHLEY ST, JACKSONVILLE, FL, 32202</t>
+  </si>
+  <si>
+    <t>636 W ASHLEY ST, JACKSONVILLE, FL, 32204</t>
+  </si>
+  <si>
+    <t>422 BROAD ST, JACKSONVILLE, FL, 32202</t>
+  </si>
+  <si>
+    <t>739 W CHURCH ST, JACKSONVILLE, FL, 32202</t>
+  </si>
+  <si>
+    <t>2140 MONCRIEF RD, JACKSONVILLE, FL, 32209</t>
+  </si>
+  <si>
+    <t>128 ORANGE ST, JACKSONVILLE, FL, 32266</t>
+  </si>
+  <si>
+    <t>827 N FLORIDA AVE, LAKELAND, FL, 33801</t>
+  </si>
+  <si>
+    <t>941 NW 2ND AVE, MIAMI, FL, 33136</t>
+  </si>
+  <si>
+    <t>700 NW 2ND AVE, MIAMI, FL, 33136</t>
+  </si>
+  <si>
+    <t>311 N TARRAGONA ST, PENSACOLA, FL, 32501</t>
+  </si>
+  <si>
     <t>17TH</t>
   </si>
   <si>
@@ -848,6 +1325,51 @@
     <t>PEARL</t>
   </si>
   <si>
+    <t>TATNALL</t>
+  </si>
+  <si>
+    <t>FRENCH</t>
+  </si>
+  <si>
+    <t>13TH</t>
+  </si>
+  <si>
+    <t>RHODE ISLAND</t>
+  </si>
+  <si>
+    <t>FLORIDA</t>
+  </si>
+  <si>
+    <t>GIRARD</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>5TH</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ASHLEY</t>
+  </si>
+  <si>
+    <t>MONCRIEF</t>
+  </si>
+  <si>
+    <t>ORANGE</t>
+  </si>
+  <si>
+    <t>2ND</t>
+  </si>
+  <si>
+    <t>TARRAGONA</t>
+  </si>
+  <si>
     <t>BIRMINGHAM</t>
   </si>
   <si>
@@ -887,12 +1409,39 @@
     <t>WATERBURY</t>
   </si>
   <si>
+    <t>WILMINGTON</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
+    <t>JACKSONVILLE</t>
+  </si>
+  <si>
+    <t>LAKELAND</t>
+  </si>
+  <si>
+    <t>MIAMI</t>
+  </si>
+  <si>
+    <t>PENSACOLA</t>
+  </si>
+  <si>
     <t>AL</t>
   </si>
   <si>
     <t>CT</t>
   </si>
   <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
     <t>35203</t>
   </si>
   <si>
@@ -942,6 +1491,42 @@
   </si>
   <si>
     <t>06704</t>
+  </si>
+  <si>
+    <t>19801</t>
+  </si>
+  <si>
+    <t>20009</t>
+  </si>
+  <si>
+    <t>20036</t>
+  </si>
+  <si>
+    <t>20001</t>
+  </si>
+  <si>
+    <t>20018</t>
+  </si>
+  <si>
+    <t>32202</t>
+  </si>
+  <si>
+    <t>32204</t>
+  </si>
+  <si>
+    <t>32209</t>
+  </si>
+  <si>
+    <t>32266</t>
+  </si>
+  <si>
+    <t>33801</t>
+  </si>
+  <si>
+    <t>33136</t>
+  </si>
+  <si>
+    <t>32501</t>
   </si>
 </sst>
 </file>
@@ -1045,25 +1630,25 @@
         <v>1938.0</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="H2" t="s">
-        <v>162</v>
+        <v>254</v>
       </c>
       <c r="I2" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J2" t="e">
         <v>#N/A</v>
@@ -1092,25 +1677,25 @@
         <v>1938.0</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="H3" t="s">
-        <v>163</v>
+        <v>255</v>
       </c>
       <c r="I3" t="s">
-        <v>214</v>
+        <v>342</v>
       </c>
       <c r="J3" t="n">
         <v>-86.8113150658676</v>
@@ -1119,16 +1704,16 @@
         <v>33.5143485707937</v>
       </c>
       <c r="L3" t="s">
-        <v>252</v>
+        <v>411</v>
       </c>
       <c r="M3" t="s">
-        <v>278</v>
+        <v>452</v>
       </c>
       <c r="N3" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O3" t="s">
-        <v>293</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4">
@@ -1139,25 +1724,25 @@
         <v>1938.0</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="H4" t="s">
-        <v>164</v>
+        <v>256</v>
       </c>
       <c r="I4" t="s">
-        <v>215</v>
+        <v>343</v>
       </c>
       <c r="J4" t="n">
         <v>-86.8290693868153</v>
@@ -1166,16 +1751,16 @@
         <v>33.5320444220056</v>
       </c>
       <c r="L4" t="s">
-        <v>253</v>
+        <v>412</v>
       </c>
       <c r="M4" t="s">
-        <v>278</v>
+        <v>452</v>
       </c>
       <c r="N4" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O4" t="s">
-        <v>294</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5">
@@ -1186,25 +1771,25 @@
         <v>1938.0</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="H5" t="s">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="I5" t="s">
-        <v>216</v>
+        <v>344</v>
       </c>
       <c r="J5" t="n">
         <v>-86.8101998183382</v>
@@ -1213,16 +1798,16 @@
         <v>33.5154455727818</v>
       </c>
       <c r="L5" t="s">
-        <v>254</v>
+        <v>413</v>
       </c>
       <c r="M5" t="s">
-        <v>278</v>
+        <v>452</v>
       </c>
       <c r="N5" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O5" t="s">
-        <v>293</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6">
@@ -1233,25 +1818,25 @@
         <v>1938.0</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="G6" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="H6" t="s">
-        <v>166</v>
+        <v>258</v>
       </c>
       <c r="I6" t="s">
-        <v>217</v>
+        <v>345</v>
       </c>
       <c r="J6" t="n">
         <v>-86.8101943813631</v>
@@ -1260,16 +1845,16 @@
         <v>33.5154374173175</v>
       </c>
       <c r="L6" t="s">
-        <v>254</v>
+        <v>413</v>
       </c>
       <c r="M6" t="s">
-        <v>278</v>
+        <v>452</v>
       </c>
       <c r="N6" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O6" t="s">
-        <v>293</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7">
@@ -1280,25 +1865,25 @@
         <v>1938.0</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="H7" t="s">
-        <v>167</v>
+        <v>259</v>
       </c>
       <c r="I7" t="s">
-        <v>218</v>
+        <v>346</v>
       </c>
       <c r="J7" t="n">
         <v>-86.981936433337</v>
@@ -1307,16 +1892,16 @@
         <v>34.6118640107611</v>
       </c>
       <c r="L7" t="s">
-        <v>255</v>
+        <v>414</v>
       </c>
       <c r="M7" t="s">
-        <v>279</v>
+        <v>453</v>
       </c>
       <c r="N7" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O7" t="s">
-        <v>295</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8">
@@ -1327,25 +1912,25 @@
         <v>1938.0</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="G8" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="H8" t="s">
-        <v>168</v>
+        <v>260</v>
       </c>
       <c r="I8" t="s">
-        <v>219</v>
+        <v>347</v>
       </c>
       <c r="J8" t="n">
         <v>-85.9687107717626</v>
@@ -1354,16 +1939,16 @@
         <v>33.9940141891079</v>
       </c>
       <c r="L8" t="s">
-        <v>256</v>
+        <v>415</v>
       </c>
       <c r="M8" t="s">
-        <v>280</v>
+        <v>454</v>
       </c>
       <c r="N8" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O8" t="s">
-        <v>296</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9">
@@ -1374,25 +1959,25 @@
         <v>1938.0</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="G9" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="H9" t="s">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="I9" t="s">
-        <v>220</v>
+        <v>348</v>
       </c>
       <c r="J9" t="n">
         <v>-86.0219558574387</v>
@@ -1401,16 +1986,16 @@
         <v>34.0151992985974</v>
       </c>
       <c r="L9" t="s">
-        <v>253</v>
+        <v>412</v>
       </c>
       <c r="M9" t="s">
-        <v>280</v>
+        <v>454</v>
       </c>
       <c r="N9" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O9" t="s">
-        <v>297</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10">
@@ -1421,25 +2006,25 @@
         <v>1938.0</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="G10" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="H10" t="s">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c r="I10" t="s">
-        <v>221</v>
+        <v>349</v>
       </c>
       <c r="J10" t="n">
         <v>-86.0222979270442</v>
@@ -1448,16 +2033,16 @@
         <v>34.0152022461397</v>
       </c>
       <c r="L10" t="s">
-        <v>253</v>
+        <v>412</v>
       </c>
       <c r="M10" t="s">
-        <v>280</v>
+        <v>454</v>
       </c>
       <c r="N10" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O10" t="s">
-        <v>297</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11">
@@ -1468,25 +2053,25 @@
         <v>1938.0</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="G11" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="H11" t="s">
-        <v>171</v>
+        <v>263</v>
       </c>
       <c r="I11" t="s">
-        <v>222</v>
+        <v>350</v>
       </c>
       <c r="J11" t="n">
         <v>-86.0221098420977</v>
@@ -1495,16 +2080,16 @@
         <v>34.0150862358663</v>
       </c>
       <c r="L11" t="s">
-        <v>253</v>
+        <v>412</v>
       </c>
       <c r="M11" t="s">
-        <v>280</v>
+        <v>454</v>
       </c>
       <c r="N11" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O11" t="s">
-        <v>297</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12">
@@ -1515,25 +2100,25 @@
         <v>1938.0</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="G12" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="H12" t="s">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="I12" t="s">
-        <v>223</v>
+        <v>351</v>
       </c>
       <c r="J12" t="n">
         <v>-86.005031796993</v>
@@ -1542,16 +2127,16 @@
         <v>34.0175041515731</v>
       </c>
       <c r="L12" t="s">
-        <v>257</v>
+        <v>416</v>
       </c>
       <c r="M12" t="s">
-        <v>280</v>
+        <v>454</v>
       </c>
       <c r="N12" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O12" t="s">
-        <v>297</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13">
@@ -1562,25 +2147,25 @@
         <v>1938.0</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="G13" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="H13" t="s">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="I13" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J13" t="e">
         <v>#N/A</v>
@@ -1609,25 +2194,25 @@
         <v>1938.0</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="H14" t="s">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="I14" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J14" t="e">
         <v>#N/A</v>
@@ -1656,25 +2241,25 @@
         <v>1938.0</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="G15" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="H15" t="s">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="I15" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J15" t="e">
         <v>#N/A</v>
@@ -1703,25 +2288,25 @@
         <v>1938.0</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="H16" t="s">
-        <v>174</v>
+        <v>266</v>
       </c>
       <c r="I16" t="s">
-        <v>224</v>
+        <v>352</v>
       </c>
       <c r="J16" t="n">
         <v>-88.0576867932334</v>
@@ -1730,16 +2315,16 @@
         <v>30.6960542804327</v>
       </c>
       <c r="L16" t="s">
-        <v>258</v>
+        <v>417</v>
       </c>
       <c r="M16" t="s">
-        <v>281</v>
+        <v>455</v>
       </c>
       <c r="N16" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O16" t="s">
-        <v>298</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17">
@@ -1750,25 +2335,25 @@
         <v>1938.0</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="H17" t="s">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="I17" t="s">
-        <v>225</v>
+        <v>353</v>
       </c>
       <c r="J17" t="n">
         <v>-88.0524129709915</v>
@@ -1777,16 +2362,16 @@
         <v>30.6935613534321</v>
       </c>
       <c r="L17" t="s">
-        <v>259</v>
+        <v>418</v>
       </c>
       <c r="M17" t="s">
-        <v>281</v>
+        <v>455</v>
       </c>
       <c r="N17" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O17" t="s">
-        <v>298</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18">
@@ -1797,25 +2382,25 @@
         <v>1938.0</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="H18" t="s">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="I18" t="s">
-        <v>226</v>
+        <v>354</v>
       </c>
       <c r="J18" t="n">
         <v>-88.0656567796014</v>
@@ -1824,16 +2409,16 @@
         <v>30.6976495325603</v>
       </c>
       <c r="L18" t="s">
-        <v>260</v>
+        <v>419</v>
       </c>
       <c r="M18" t="s">
-        <v>281</v>
+        <v>455</v>
       </c>
       <c r="N18" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O18" t="s">
-        <v>298</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19">
@@ -1844,25 +2429,25 @@
         <v>1938.0</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="G19" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="H19" t="s">
-        <v>177</v>
+        <v>269</v>
       </c>
       <c r="I19" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J19" t="e">
         <v>#N/A</v>
@@ -1891,25 +2476,25 @@
         <v>1938.0</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="G20" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="H20" t="s">
-        <v>178</v>
+        <v>270</v>
       </c>
       <c r="I20" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J20" t="e">
         <v>#N/A</v>
@@ -1938,25 +2523,25 @@
         <v>1938.0</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="H21" t="s">
-        <v>179</v>
+        <v>271</v>
       </c>
       <c r="I21" t="s">
-        <v>227</v>
+        <v>355</v>
       </c>
       <c r="J21" t="n">
         <v>-85.9677376311342</v>
@@ -1965,16 +2550,16 @@
         <v>31.8159372445166</v>
       </c>
       <c r="L21" t="s">
-        <v>261</v>
+        <v>420</v>
       </c>
       <c r="M21" t="s">
-        <v>282</v>
+        <v>456</v>
       </c>
       <c r="N21" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O21" t="s">
-        <v>299</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22">
@@ -1985,25 +2570,25 @@
         <v>1938.0</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F22" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="G22" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="H22" t="s">
-        <v>180</v>
+        <v>272</v>
       </c>
       <c r="I22" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J22" t="e">
         <v>#N/A</v>
@@ -2032,25 +2617,25 @@
         <v>1938.0</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F23" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="G23" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="H23" t="s">
-        <v>181</v>
+        <v>273</v>
       </c>
       <c r="I23" t="s">
-        <v>228</v>
+        <v>356</v>
       </c>
       <c r="J23" t="n">
         <v>-87.5674198878895</v>
@@ -2059,16 +2644,16 @@
         <v>33.2027155164248</v>
       </c>
       <c r="L23" t="s">
-        <v>262</v>
+        <v>421</v>
       </c>
       <c r="M23" t="s">
-        <v>283</v>
+        <v>457</v>
       </c>
       <c r="N23" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O23" t="s">
-        <v>300</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24">
@@ -2079,25 +2664,25 @@
         <v>1938.0</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="G24" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="H24" t="s">
-        <v>182</v>
+        <v>274</v>
       </c>
       <c r="I24" t="s">
-        <v>229</v>
+        <v>357</v>
       </c>
       <c r="J24" t="n">
         <v>-87.5765682130659</v>
@@ -2106,16 +2691,16 @@
         <v>33.2083686457691</v>
       </c>
       <c r="L24" t="s">
-        <v>263</v>
+        <v>422</v>
       </c>
       <c r="M24" t="s">
-        <v>283</v>
+        <v>457</v>
       </c>
       <c r="N24" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O24" t="s">
-        <v>300</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25">
@@ -2126,25 +2711,25 @@
         <v>1938.0</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="G25" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="H25" t="s">
-        <v>183</v>
+        <v>275</v>
       </c>
       <c r="I25" t="s">
-        <v>230</v>
+        <v>358</v>
       </c>
       <c r="J25" t="n">
         <v>-87.5651479921732</v>
@@ -2153,16 +2738,16 @@
         <v>33.1997383053909</v>
       </c>
       <c r="L25" t="s">
-        <v>264</v>
+        <v>423</v>
       </c>
       <c r="M25" t="s">
-        <v>283</v>
+        <v>457</v>
       </c>
       <c r="N25" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O25" t="s">
-        <v>300</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26">
@@ -2173,25 +2758,25 @@
         <v>1938.0</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F26" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="G26" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="H26" t="s">
-        <v>184</v>
+        <v>276</v>
       </c>
       <c r="I26" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J26" t="e">
         <v>#N/A</v>
@@ -2220,25 +2805,25 @@
         <v>1938.0</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F27" t="e">
         <v>#N/A</v>
       </c>
       <c r="G27" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="H27" t="s">
-        <v>185</v>
+        <v>277</v>
       </c>
       <c r="I27" t="s">
-        <v>231</v>
+        <v>359</v>
       </c>
       <c r="J27" t="n">
         <v>-73.1876041991036</v>
@@ -2247,16 +2832,16 @@
         <v>41.1697328006184</v>
       </c>
       <c r="L27" t="s">
-        <v>265</v>
+        <v>424</v>
       </c>
       <c r="M27" t="s">
-        <v>284</v>
+        <v>458</v>
       </c>
       <c r="N27" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O27" t="s">
-        <v>301</v>
+        <v>484</v>
       </c>
     </row>
     <row r="28">
@@ -2267,25 +2852,25 @@
         <v>1938.0</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F28" t="e">
         <v>#N/A</v>
       </c>
       <c r="G28" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="H28" t="s">
-        <v>186</v>
+        <v>278</v>
       </c>
       <c r="I28" t="s">
-        <v>232</v>
+        <v>360</v>
       </c>
       <c r="J28" t="n">
         <v>-73.1425164223959</v>
@@ -2294,16 +2879,16 @@
         <v>41.199216796974</v>
       </c>
       <c r="L28" t="s">
-        <v>266</v>
+        <v>425</v>
       </c>
       <c r="M28" t="s">
-        <v>285</v>
+        <v>459</v>
       </c>
       <c r="N28" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O28" t="s">
-        <v>302</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29">
@@ -2314,25 +2899,25 @@
         <v>1938.0</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F29" t="e">
         <v>#N/A</v>
       </c>
       <c r="G29" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="H29" t="s">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="I29" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J29" t="e">
         <v>#N/A</v>
@@ -2361,25 +2946,25 @@
         <v>1938.0</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F30" t="e">
         <v>#N/A</v>
       </c>
       <c r="G30" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="H30" t="s">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="I30" t="s">
-        <v>233</v>
+        <v>361</v>
       </c>
       <c r="J30" t="n">
         <v>-73.1748001242641</v>
@@ -2388,16 +2973,16 @@
         <v>41.1848421780769</v>
       </c>
       <c r="L30" t="s">
-        <v>255</v>
+        <v>414</v>
       </c>
       <c r="M30" t="s">
-        <v>284</v>
+        <v>458</v>
       </c>
       <c r="N30" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O30" t="s">
-        <v>303</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31">
@@ -2408,25 +2993,25 @@
         <v>1938.0</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F31" t="e">
         <v>#N/A</v>
       </c>
       <c r="G31" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="H31" t="s">
-        <v>189</v>
+        <v>281</v>
       </c>
       <c r="I31" t="s">
-        <v>234</v>
+        <v>362</v>
       </c>
       <c r="J31" t="n">
         <v>-72.7194513427762</v>
@@ -2435,16 +3020,16 @@
         <v>41.6754278310956</v>
       </c>
       <c r="L31" t="s">
-        <v>267</v>
+        <v>426</v>
       </c>
       <c r="M31" t="s">
-        <v>286</v>
+        <v>460</v>
       </c>
       <c r="N31" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O31" t="s">
-        <v>304</v>
+        <v>487</v>
       </c>
     </row>
     <row r="32">
@@ -2455,25 +3040,25 @@
         <v>1938.0</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F32" t="e">
         <v>#N/A</v>
       </c>
       <c r="G32" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="H32" t="s">
-        <v>190</v>
+        <v>282</v>
       </c>
       <c r="I32" t="s">
-        <v>235</v>
+        <v>363</v>
       </c>
       <c r="J32" t="n">
         <v>-72.6759843367764</v>
@@ -2482,16 +3067,16 @@
         <v>41.7784449890697</v>
       </c>
       <c r="L32" t="s">
-        <v>268</v>
+        <v>427</v>
       </c>
       <c r="M32" t="s">
-        <v>286</v>
+        <v>460</v>
       </c>
       <c r="N32" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O32" t="s">
-        <v>305</v>
+        <v>488</v>
       </c>
     </row>
     <row r="33">
@@ -2502,25 +3087,25 @@
         <v>1938.0</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F33" t="e">
         <v>#N/A</v>
       </c>
       <c r="G33" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="H33" t="s">
-        <v>191</v>
+        <v>283</v>
       </c>
       <c r="I33" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J33" t="e">
         <v>#N/A</v>
@@ -2549,25 +3134,25 @@
         <v>1938.0</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F34" t="e">
         <v>#N/A</v>
       </c>
       <c r="G34" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="H34" t="s">
-        <v>192</v>
+        <v>284</v>
       </c>
       <c r="I34" t="s">
-        <v>236</v>
+        <v>364</v>
       </c>
       <c r="J34" t="n">
         <v>-72.9329460076841</v>
@@ -2576,16 +3161,16 @@
         <v>41.3169568176862</v>
       </c>
       <c r="L34" t="s">
-        <v>269</v>
+        <v>428</v>
       </c>
       <c r="M34" t="s">
-        <v>287</v>
+        <v>461</v>
       </c>
       <c r="N34" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O34" t="s">
-        <v>306</v>
+        <v>489</v>
       </c>
     </row>
     <row r="35">
@@ -2596,25 +3181,25 @@
         <v>1938.0</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F35" t="e">
         <v>#N/A</v>
       </c>
       <c r="G35" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="H35" t="s">
-        <v>193</v>
+        <v>285</v>
       </c>
       <c r="I35" t="s">
-        <v>237</v>
+        <v>365</v>
       </c>
       <c r="J35" t="n">
         <v>-72.9283382677717</v>
@@ -2623,16 +3208,16 @@
         <v>41.3180050633791</v>
       </c>
       <c r="L35" t="s">
-        <v>270</v>
+        <v>429</v>
       </c>
       <c r="M35" t="s">
-        <v>287</v>
+        <v>461</v>
       </c>
       <c r="N35" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O35" t="s">
-        <v>306</v>
+        <v>489</v>
       </c>
     </row>
     <row r="36">
@@ -2643,43 +3228,43 @@
         <v>1938.0</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F36" t="e">
         <v>#N/A</v>
       </c>
       <c r="G36" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="H36" t="s">
-        <v>194</v>
+        <v>286</v>
       </c>
       <c r="I36" t="s">
-        <v>238</v>
+        <v>366</v>
       </c>
       <c r="J36" t="n">
         <v>-72.9326610116185</v>
       </c>
       <c r="K36" t="n">
-        <v>41.31483335957365</v>
+        <v>41.3148333595736</v>
       </c>
       <c r="L36" t="s">
-        <v>271</v>
+        <v>430</v>
       </c>
       <c r="M36" t="s">
-        <v>287</v>
+        <v>461</v>
       </c>
       <c r="N36" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O36" t="s">
-        <v>306</v>
+        <v>489</v>
       </c>
     </row>
     <row r="37">
@@ -2690,43 +3275,43 @@
         <v>1938.0</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F37" t="e">
         <v>#N/A</v>
       </c>
       <c r="G37" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="H37" t="s">
-        <v>195</v>
+        <v>287</v>
       </c>
       <c r="I37" t="s">
-        <v>239</v>
+        <v>367</v>
       </c>
       <c r="J37" t="n">
-        <v>-72.93274094154106</v>
+        <v>-72.9327409415411</v>
       </c>
       <c r="K37" t="n">
-        <v>41.31456929035583</v>
+        <v>41.3145692903558</v>
       </c>
       <c r="L37" t="s">
-        <v>271</v>
+        <v>430</v>
       </c>
       <c r="M37" t="s">
-        <v>287</v>
+        <v>461</v>
       </c>
       <c r="N37" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O37" t="s">
-        <v>306</v>
+        <v>489</v>
       </c>
     </row>
     <row r="38">
@@ -2737,43 +3322,43 @@
         <v>1938.0</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="E38" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F38" t="e">
         <v>#N/A</v>
       </c>
       <c r="G38" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="H38" t="s">
-        <v>196</v>
+        <v>288</v>
       </c>
       <c r="I38" t="s">
-        <v>240</v>
+        <v>368</v>
       </c>
       <c r="J38" t="n">
-        <v>-72.93279529277156</v>
+        <v>-72.9327952927716</v>
       </c>
       <c r="K38" t="n">
-        <v>41.31475770802021</v>
+        <v>41.3147577080202</v>
       </c>
       <c r="L38" t="s">
-        <v>271</v>
+        <v>430</v>
       </c>
       <c r="M38" t="s">
-        <v>287</v>
+        <v>461</v>
       </c>
       <c r="N38" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O38" t="s">
-        <v>306</v>
+        <v>489</v>
       </c>
     </row>
     <row r="39">
@@ -2784,25 +3369,25 @@
         <v>1938.0</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F39" t="e">
         <v>#N/A</v>
       </c>
       <c r="G39" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="H39" t="s">
-        <v>197</v>
+        <v>289</v>
       </c>
       <c r="I39" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J39" t="e">
         <v>#N/A</v>
@@ -2831,43 +3416,43 @@
         <v>1938.0</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F40" t="e">
         <v>#N/A</v>
       </c>
       <c r="G40" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="H40" t="s">
-        <v>198</v>
+        <v>290</v>
       </c>
       <c r="I40" t="s">
-        <v>241</v>
+        <v>369</v>
       </c>
       <c r="J40" t="n">
-        <v>-72.09892489200932</v>
+        <v>-72.0989248920093</v>
       </c>
       <c r="K40" t="n">
-        <v>41.351472071654875</v>
+        <v>41.3514720716549</v>
       </c>
       <c r="L40" t="s">
-        <v>272</v>
+        <v>431</v>
       </c>
       <c r="M40" t="s">
-        <v>288</v>
+        <v>462</v>
       </c>
       <c r="N40" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O40" t="s">
-        <v>307</v>
+        <v>490</v>
       </c>
     </row>
     <row r="41">
@@ -2878,25 +3463,25 @@
         <v>1938.0</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F41" t="e">
         <v>#N/A</v>
       </c>
       <c r="G41" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="H41" t="s">
-        <v>199</v>
+        <v>291</v>
       </c>
       <c r="I41" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J41" t="e">
         <v>#N/A</v>
@@ -2925,43 +3510,43 @@
         <v>1938.0</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="E42" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F42" t="e">
         <v>#N/A</v>
       </c>
       <c r="G42" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="H42" t="s">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="I42" t="s">
-        <v>242</v>
+        <v>370</v>
       </c>
       <c r="J42" t="n">
         <v>-72.1036935417646</v>
       </c>
       <c r="K42" t="n">
-        <v>41.35473988848303</v>
+        <v>41.354739888483</v>
       </c>
       <c r="L42" t="s">
-        <v>273</v>
+        <v>432</v>
       </c>
       <c r="M42" t="s">
-        <v>288</v>
+        <v>462</v>
       </c>
       <c r="N42" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O42" t="s">
-        <v>307</v>
+        <v>490</v>
       </c>
     </row>
     <row r="43">
@@ -2972,43 +3557,43 @@
         <v>1938.0</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F43" t="e">
         <v>#N/A</v>
       </c>
       <c r="G43" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="H43" t="s">
-        <v>201</v>
+        <v>293</v>
       </c>
       <c r="I43" t="s">
-        <v>243</v>
+        <v>371</v>
       </c>
       <c r="J43" t="n">
-        <v>-72.09455312997488</v>
+        <v>-72.0945531299749</v>
       </c>
       <c r="K43" t="n">
         <v>41.3529769238668</v>
       </c>
       <c r="L43" t="s">
-        <v>274</v>
+        <v>433</v>
       </c>
       <c r="M43" t="s">
-        <v>288</v>
+        <v>462</v>
       </c>
       <c r="N43" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O43" t="s">
-        <v>307</v>
+        <v>490</v>
       </c>
     </row>
     <row r="44">
@@ -3019,43 +3604,43 @@
         <v>1938.0</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="E44" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F44" t="e">
         <v>#N/A</v>
       </c>
       <c r="G44" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="H44" t="s">
-        <v>202</v>
+        <v>294</v>
       </c>
       <c r="I44" t="s">
-        <v>244</v>
+        <v>372</v>
       </c>
       <c r="J44" t="n">
-        <v>-72.10613109643866</v>
+        <v>-72.1061310964387</v>
       </c>
       <c r="K44" t="n">
         <v>41.3491636454073</v>
       </c>
       <c r="L44" t="s">
-        <v>274</v>
+        <v>433</v>
       </c>
       <c r="M44" t="s">
-        <v>288</v>
+        <v>462</v>
       </c>
       <c r="N44" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O44" t="s">
-        <v>307</v>
+        <v>490</v>
       </c>
     </row>
     <row r="45">
@@ -3066,25 +3651,25 @@
         <v>1938.0</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D45" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F45" t="e">
         <v>#N/A</v>
       </c>
       <c r="G45" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="H45" t="s">
-        <v>203</v>
+        <v>295</v>
       </c>
       <c r="I45" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J45" t="e">
         <v>#N/A</v>
@@ -3113,43 +3698,43 @@
         <v>1938.0</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F46" t="e">
         <v>#N/A</v>
       </c>
       <c r="G46" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="H46" t="s">
-        <v>204</v>
+        <v>296</v>
       </c>
       <c r="I46" t="s">
-        <v>245</v>
+        <v>373</v>
       </c>
       <c r="J46" t="n">
-        <v>-73.54353504404457</v>
+        <v>-73.5435350440446</v>
       </c>
       <c r="K46" t="n">
         <v>41.0437896616415</v>
       </c>
       <c r="L46" t="s">
-        <v>275</v>
+        <v>434</v>
       </c>
       <c r="M46" t="s">
-        <v>289</v>
+        <v>463</v>
       </c>
       <c r="N46" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O46" t="s">
-        <v>308</v>
+        <v>491</v>
       </c>
     </row>
     <row r="47">
@@ -3160,43 +3745,43 @@
         <v>1938.0</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D47" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="E47" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F47" t="e">
         <v>#N/A</v>
       </c>
       <c r="G47" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="H47" t="s">
-        <v>205</v>
+        <v>297</v>
       </c>
       <c r="I47" t="s">
-        <v>246</v>
+        <v>374</v>
       </c>
       <c r="J47" t="n">
-        <v>-73.03604009890913</v>
+        <v>-73.0360400989091</v>
       </c>
       <c r="K47" t="n">
-        <v>41.56128993053742</v>
+        <v>41.5612899305374</v>
       </c>
       <c r="L47" t="s">
-        <v>276</v>
+        <v>435</v>
       </c>
       <c r="M47" t="s">
-        <v>290</v>
+        <v>464</v>
       </c>
       <c r="N47" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O47" t="s">
-        <v>309</v>
+        <v>492</v>
       </c>
     </row>
     <row r="48">
@@ -3207,25 +3792,25 @@
         <v>1938.0</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="E48" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F48" t="e">
         <v>#N/A</v>
       </c>
       <c r="G48" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="H48" t="s">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="I48" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J48" t="e">
         <v>#N/A</v>
@@ -3254,25 +3839,25 @@
         <v>1938.0</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="E49" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F49" t="e">
         <v>#N/A</v>
       </c>
       <c r="G49" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="H49" t="s">
-        <v>207</v>
+        <v>299</v>
       </c>
       <c r="I49" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J49" t="e">
         <v>#N/A</v>
@@ -3301,43 +3886,43 @@
         <v>1938.0</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="E50" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F50" t="e">
         <v>#N/A</v>
       </c>
       <c r="G50" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="H50" t="s">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c r="I50" t="s">
-        <v>247</v>
+        <v>375</v>
       </c>
       <c r="J50" t="n">
-        <v>-73.03791040117098</v>
+        <v>-73.037910401171</v>
       </c>
       <c r="K50" t="n">
-        <v>41.563258875315846</v>
+        <v>41.5632588753159</v>
       </c>
       <c r="L50" t="s">
-        <v>277</v>
+        <v>436</v>
       </c>
       <c r="M50" t="s">
-        <v>290</v>
+        <v>464</v>
       </c>
       <c r="N50" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O50" t="s">
-        <v>309</v>
+        <v>492</v>
       </c>
     </row>
     <row r="51">
@@ -3348,43 +3933,43 @@
         <v>1938.0</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D51" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="E51" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F51" t="e">
         <v>#N/A</v>
       </c>
       <c r="G51" t="s">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="H51" t="s">
-        <v>209</v>
+        <v>301</v>
       </c>
       <c r="I51" t="s">
-        <v>248</v>
+        <v>376</v>
       </c>
       <c r="J51" t="n">
         <v>-73.0381966494124</v>
       </c>
       <c r="K51" t="n">
-        <v>41.563742906389116</v>
+        <v>41.5637429063891</v>
       </c>
       <c r="L51" t="s">
-        <v>277</v>
+        <v>436</v>
       </c>
       <c r="M51" t="s">
-        <v>290</v>
+        <v>464</v>
       </c>
       <c r="N51" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O51" t="s">
-        <v>309</v>
+        <v>492</v>
       </c>
     </row>
     <row r="52">
@@ -3395,43 +3980,43 @@
         <v>1938.0</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D52" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="E52" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F52" t="e">
         <v>#N/A</v>
       </c>
       <c r="G52" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="H52" t="s">
-        <v>210</v>
+        <v>302</v>
       </c>
       <c r="I52" t="s">
-        <v>249</v>
+        <v>377</v>
       </c>
       <c r="J52" t="n">
-        <v>-73.03767095611347</v>
+        <v>-73.0376709561135</v>
       </c>
       <c r="K52" t="n">
-        <v>41.562421005865986</v>
+        <v>41.562421005866</v>
       </c>
       <c r="L52" t="s">
-        <v>277</v>
+        <v>436</v>
       </c>
       <c r="M52" t="s">
-        <v>290</v>
+        <v>464</v>
       </c>
       <c r="N52" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O52" t="s">
-        <v>309</v>
+        <v>492</v>
       </c>
     </row>
     <row r="53">
@@ -3442,43 +4027,43 @@
         <v>1938.0</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="E53" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F53" t="e">
         <v>#N/A</v>
       </c>
       <c r="G53" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="H53" t="s">
-        <v>211</v>
+        <v>303</v>
       </c>
       <c r="I53" t="s">
-        <v>250</v>
+        <v>378</v>
       </c>
       <c r="J53" t="n">
-        <v>-73.03758834084984</v>
+        <v>-73.0375883408498</v>
       </c>
       <c r="K53" t="n">
-        <v>41.561648399456224</v>
+        <v>41.5616483994562</v>
       </c>
       <c r="L53" t="s">
-        <v>277</v>
+        <v>436</v>
       </c>
       <c r="M53" t="s">
-        <v>290</v>
+        <v>464</v>
       </c>
       <c r="N53" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O53" t="s">
-        <v>309</v>
+        <v>492</v>
       </c>
     </row>
     <row r="54">
@@ -3489,43 +4074,1923 @@
         <v>1938.0</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="E54" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F54" t="e">
         <v>#N/A</v>
       </c>
       <c r="G54" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="H54" t="s">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="I54" t="s">
-        <v>251</v>
+        <v>379</v>
       </c>
       <c r="J54" t="n">
-        <v>-73.03750015368333</v>
+        <v>-73.0375001536833</v>
       </c>
       <c r="K54" t="n">
         <v>41.5623010119887</v>
       </c>
       <c r="L54" t="s">
-        <v>277</v>
+        <v>436</v>
       </c>
       <c r="M54" t="s">
-        <v>290</v>
+        <v>464</v>
       </c>
       <c r="N54" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O54" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" t="s">
+        <v>127</v>
+      </c>
+      <c r="E55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G55" t="s">
+        <v>218</v>
+      </c>
+      <c r="H55" t="s">
+        <v>305</v>
+      </c>
+      <c r="I55" t="s">
+        <v>341</v>
+      </c>
+      <c r="J55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O55" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" t="s">
+        <v>135</v>
+      </c>
+      <c r="F56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G56" t="s">
+        <v>219</v>
+      </c>
+      <c r="H56" t="s">
+        <v>306</v>
+      </c>
+      <c r="I56" t="s">
+        <v>341</v>
+      </c>
+      <c r="J56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O56" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" t="s">
+        <v>127</v>
+      </c>
+      <c r="E57" t="s">
+        <v>135</v>
+      </c>
+      <c r="F57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G57" t="s">
+        <v>220</v>
+      </c>
+      <c r="H57" t="s">
+        <v>307</v>
+      </c>
+      <c r="I57" t="s">
+        <v>341</v>
+      </c>
+      <c r="J57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O57" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" t="s">
+        <v>135</v>
+      </c>
+      <c r="F58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G58" t="s">
+        <v>221</v>
+      </c>
+      <c r="H58" t="s">
+        <v>308</v>
+      </c>
+      <c r="I58" t="s">
+        <v>341</v>
+      </c>
+      <c r="J58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O58" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" t="s">
+        <v>165</v>
+      </c>
+      <c r="G59" t="s">
+        <v>219</v>
+      </c>
+      <c r="H59" t="s">
+        <v>306</v>
+      </c>
+      <c r="I59" t="s">
+        <v>341</v>
+      </c>
+      <c r="J59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O59" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" t="s">
+        <v>135</v>
+      </c>
+      <c r="F60" t="s">
+        <v>166</v>
+      </c>
+      <c r="G60" t="s">
+        <v>219</v>
+      </c>
+      <c r="H60" t="s">
+        <v>306</v>
+      </c>
+      <c r="I60" t="s">
+        <v>341</v>
+      </c>
+      <c r="J60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O60" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" t="s">
+        <v>135</v>
+      </c>
+      <c r="F61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G61" t="s">
+        <v>220</v>
+      </c>
+      <c r="H61" t="s">
+        <v>307</v>
+      </c>
+      <c r="I61" t="s">
+        <v>341</v>
+      </c>
+      <c r="J61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O61" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" t="s">
+        <v>134</v>
+      </c>
+      <c r="F62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G62" t="s">
+        <v>222</v>
+      </c>
+      <c r="H62" t="s">
         <v>309</v>
+      </c>
+      <c r="I62" t="s">
+        <v>380</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-75.5493300113921</v>
+      </c>
+      <c r="K62" t="n">
+        <v>39.7474398054402</v>
+      </c>
+      <c r="L62" t="s">
+        <v>437</v>
+      </c>
+      <c r="M62" t="s">
+        <v>465</v>
+      </c>
+      <c r="N62" t="s">
+        <v>473</v>
+      </c>
+      <c r="O62" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" t="s">
+        <v>134</v>
+      </c>
+      <c r="F63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G63" t="s">
+        <v>223</v>
+      </c>
+      <c r="H63" t="s">
+        <v>310</v>
+      </c>
+      <c r="I63" t="s">
+        <v>381</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-75.548033259881</v>
+      </c>
+      <c r="K63" t="n">
+        <v>39.7478471710777</v>
+      </c>
+      <c r="L63" t="s">
+        <v>421</v>
+      </c>
+      <c r="M63" t="s">
+        <v>465</v>
+      </c>
+      <c r="N63" t="s">
+        <v>473</v>
+      </c>
+      <c r="O63" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" t="s">
+        <v>134</v>
+      </c>
+      <c r="F64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G64" t="s">
+        <v>224</v>
+      </c>
+      <c r="H64" t="s">
+        <v>311</v>
+      </c>
+      <c r="I64" t="s">
+        <v>382</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-75.5459142852752</v>
+      </c>
+      <c r="K64" t="n">
+        <v>39.7449178629458</v>
+      </c>
+      <c r="L64" t="s">
+        <v>438</v>
+      </c>
+      <c r="M64" t="s">
+        <v>465</v>
+      </c>
+      <c r="N64" t="s">
+        <v>473</v>
+      </c>
+      <c r="O64" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" t="s">
+        <v>128</v>
+      </c>
+      <c r="E65" t="s">
+        <v>134</v>
+      </c>
+      <c r="F65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G65" t="s">
+        <v>225</v>
+      </c>
+      <c r="H65" t="s">
+        <v>312</v>
+      </c>
+      <c r="I65" t="s">
+        <v>383</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-75.5481252777236</v>
+      </c>
+      <c r="K65" t="n">
+        <v>39.7494633757811</v>
+      </c>
+      <c r="L65" t="s">
+        <v>437</v>
+      </c>
+      <c r="M65" t="s">
+        <v>465</v>
+      </c>
+      <c r="N65" t="s">
+        <v>473</v>
+      </c>
+      <c r="O65" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" t="s">
+        <v>129</v>
+      </c>
+      <c r="E66" t="s">
+        <v>135</v>
+      </c>
+      <c r="F66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G66" t="s">
+        <v>226</v>
+      </c>
+      <c r="H66" t="s">
+        <v>313</v>
+      </c>
+      <c r="I66" t="s">
+        <v>341</v>
+      </c>
+      <c r="J66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O66" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67" t="s">
+        <v>135</v>
+      </c>
+      <c r="F67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G67" t="s">
+        <v>227</v>
+      </c>
+      <c r="H67" t="s">
+        <v>314</v>
+      </c>
+      <c r="I67" t="s">
+        <v>384</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-77.0295470698206</v>
+      </c>
+      <c r="K67" t="n">
+        <v>38.914479329056</v>
+      </c>
+      <c r="L67" t="s">
+        <v>439</v>
+      </c>
+      <c r="M67" t="s">
+        <v>466</v>
+      </c>
+      <c r="N67" t="s">
+        <v>474</v>
+      </c>
+      <c r="O67" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" t="s">
+        <v>129</v>
+      </c>
+      <c r="E68" t="s">
+        <v>135</v>
+      </c>
+      <c r="F68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G68" t="s">
+        <v>228</v>
+      </c>
+      <c r="H68" t="s">
+        <v>315</v>
+      </c>
+      <c r="I68" t="s">
+        <v>385</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-77.0417451402957</v>
+      </c>
+      <c r="K68" t="n">
+        <v>38.9097567644737</v>
+      </c>
+      <c r="L68" t="s">
+        <v>413</v>
+      </c>
+      <c r="M68" t="s">
+        <v>466</v>
+      </c>
+      <c r="N68" t="s">
+        <v>474</v>
+      </c>
+      <c r="O68" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69" t="s">
+        <v>135</v>
+      </c>
+      <c r="F69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G69" t="s">
+        <v>229</v>
+      </c>
+      <c r="H69" t="s">
+        <v>316</v>
+      </c>
+      <c r="I69" t="s">
+        <v>386</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-77.0219212091946</v>
+      </c>
+      <c r="K69" t="n">
+        <v>38.907244212084</v>
+      </c>
+      <c r="L69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M69" t="s">
+        <v>466</v>
+      </c>
+      <c r="N69" t="s">
+        <v>474</v>
+      </c>
+      <c r="O69" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" t="s">
+        <v>129</v>
+      </c>
+      <c r="E70" t="s">
+        <v>135</v>
+      </c>
+      <c r="F70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G70" t="s">
+        <v>230</v>
+      </c>
+      <c r="H70" t="s">
+        <v>317</v>
+      </c>
+      <c r="I70" t="s">
+        <v>387</v>
+      </c>
+      <c r="J70" t="n">
+        <v>-77.0296207062875</v>
+      </c>
+      <c r="K70" t="n">
+        <v>38.9155782106912</v>
+      </c>
+      <c r="L70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M70" t="s">
+        <v>466</v>
+      </c>
+      <c r="N70" t="s">
+        <v>474</v>
+      </c>
+      <c r="O70" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>110</v>
+      </c>
+      <c r="D71" t="s">
+        <v>129</v>
+      </c>
+      <c r="E71" t="s">
+        <v>135</v>
+      </c>
+      <c r="F71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G71" t="s">
+        <v>231</v>
+      </c>
+      <c r="H71" t="s">
+        <v>318</v>
+      </c>
+      <c r="I71" t="s">
+        <v>388</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-77.0281553432906</v>
+      </c>
+      <c r="K71" t="n">
+        <v>38.9143727773704</v>
+      </c>
+      <c r="L71" t="s">
+        <v>421</v>
+      </c>
+      <c r="M71" t="s">
+        <v>466</v>
+      </c>
+      <c r="N71" t="s">
+        <v>474</v>
+      </c>
+      <c r="O71" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" t="s">
+        <v>129</v>
+      </c>
+      <c r="E72" t="s">
+        <v>135</v>
+      </c>
+      <c r="F72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G72" t="s">
+        <v>232</v>
+      </c>
+      <c r="H72" t="s">
+        <v>319</v>
+      </c>
+      <c r="I72" t="s">
+        <v>389</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-76.9937363573609</v>
+      </c>
+      <c r="K72" t="n">
+        <v>38.9219005286626</v>
+      </c>
+      <c r="L72" t="s">
+        <v>440</v>
+      </c>
+      <c r="M72" t="s">
+        <v>466</v>
+      </c>
+      <c r="N72" t="s">
+        <v>474</v>
+      </c>
+      <c r="O72" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" t="s">
+        <v>129</v>
+      </c>
+      <c r="E73" t="s">
+        <v>135</v>
+      </c>
+      <c r="F73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G73" t="s">
+        <v>233</v>
+      </c>
+      <c r="H73" t="s">
+        <v>320</v>
+      </c>
+      <c r="I73" t="s">
+        <v>390</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-77.01459809738002</v>
+      </c>
+      <c r="K73" t="n">
+        <v>38.913216145225086</v>
+      </c>
+      <c r="L73" t="s">
+        <v>441</v>
+      </c>
+      <c r="M73" t="s">
+        <v>466</v>
+      </c>
+      <c r="N73" t="s">
+        <v>474</v>
+      </c>
+      <c r="O73" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" t="s">
+        <v>129</v>
+      </c>
+      <c r="E74" t="s">
+        <v>135</v>
+      </c>
+      <c r="F74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G74" t="s">
+        <v>234</v>
+      </c>
+      <c r="H74" t="s">
+        <v>321</v>
+      </c>
+      <c r="I74" t="s">
+        <v>391</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-77.02955110701818</v>
+      </c>
+      <c r="K74" t="n">
+        <v>38.916420652308766</v>
+      </c>
+      <c r="L74" t="s">
+        <v>439</v>
+      </c>
+      <c r="M74" t="s">
+        <v>466</v>
+      </c>
+      <c r="N74" t="s">
+        <v>474</v>
+      </c>
+      <c r="O74" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>110</v>
+      </c>
+      <c r="D75" t="s">
+        <v>129</v>
+      </c>
+      <c r="E75" t="s">
+        <v>135</v>
+      </c>
+      <c r="F75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G75" t="s">
+        <v>235</v>
+      </c>
+      <c r="H75" t="s">
+        <v>322</v>
+      </c>
+      <c r="I75" t="s">
+        <v>392</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-77.02854145732209</v>
+      </c>
+      <c r="K75" t="n">
+        <v>38.9256909129142</v>
+      </c>
+      <c r="L75" t="s">
+        <v>442</v>
+      </c>
+      <c r="M75" t="s">
+        <v>466</v>
+      </c>
+      <c r="N75" t="s">
+        <v>474</v>
+      </c>
+      <c r="O75" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76" t="s">
+        <v>129</v>
+      </c>
+      <c r="E76" t="s">
+        <v>135</v>
+      </c>
+      <c r="F76" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G76" t="s">
+        <v>236</v>
+      </c>
+      <c r="H76" t="s">
+        <v>323</v>
+      </c>
+      <c r="I76" t="s">
+        <v>393</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-77.03287812844063</v>
+      </c>
+      <c r="K76" t="n">
+        <v>38.91118050739781</v>
+      </c>
+      <c r="L76" t="s">
+        <v>443</v>
+      </c>
+      <c r="M76" t="s">
+        <v>466</v>
+      </c>
+      <c r="N76" t="s">
+        <v>474</v>
+      </c>
+      <c r="O76" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" t="s">
+        <v>129</v>
+      </c>
+      <c r="E77" t="s">
+        <v>136</v>
+      </c>
+      <c r="F77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G77" t="s">
+        <v>237</v>
+      </c>
+      <c r="H77" t="s">
+        <v>324</v>
+      </c>
+      <c r="I77" t="s">
+        <v>394</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-77.01900233380302</v>
+      </c>
+      <c r="K77" t="n">
+        <v>38.90148995869146</v>
+      </c>
+      <c r="L77" t="s">
+        <v>444</v>
+      </c>
+      <c r="M77" t="s">
+        <v>466</v>
+      </c>
+      <c r="N77" t="s">
+        <v>474</v>
+      </c>
+      <c r="O77" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" t="s">
+        <v>129</v>
+      </c>
+      <c r="E78" t="s">
+        <v>137</v>
+      </c>
+      <c r="F78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G78" t="s">
+        <v>238</v>
+      </c>
+      <c r="H78" t="s">
+        <v>325</v>
+      </c>
+      <c r="I78" t="s">
+        <v>395</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-77.0284109682986</v>
+      </c>
+      <c r="K78" t="n">
+        <v>38.91694291467242</v>
+      </c>
+      <c r="L78" t="s">
+        <v>445</v>
+      </c>
+      <c r="M78" t="s">
+        <v>466</v>
+      </c>
+      <c r="N78" t="s">
+        <v>474</v>
+      </c>
+      <c r="O78" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" t="s">
+        <v>129</v>
+      </c>
+      <c r="E79" t="s">
+        <v>137</v>
+      </c>
+      <c r="F79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G79" t="s">
+        <v>239</v>
+      </c>
+      <c r="H79" t="s">
+        <v>326</v>
+      </c>
+      <c r="I79" t="s">
+        <v>396</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-77.02192120868584</v>
+      </c>
+      <c r="K79" t="n">
+        <v>38.91556921040576</v>
+      </c>
+      <c r="L79" t="s">
+        <v>446</v>
+      </c>
+      <c r="M79" t="s">
+        <v>466</v>
+      </c>
+      <c r="N79" t="s">
+        <v>474</v>
+      </c>
+      <c r="O79" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D80" t="s">
+        <v>129</v>
+      </c>
+      <c r="E80" t="s">
+        <v>138</v>
+      </c>
+      <c r="F80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G80" t="s">
+        <v>240</v>
+      </c>
+      <c r="H80" t="s">
+        <v>327</v>
+      </c>
+      <c r="I80" t="s">
+        <v>397</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-77.03341999283333</v>
+      </c>
+      <c r="K80" t="n">
+        <v>38.91705750623342</v>
+      </c>
+      <c r="L80" t="s">
+        <v>445</v>
+      </c>
+      <c r="M80" t="s">
+        <v>466</v>
+      </c>
+      <c r="N80" t="s">
+        <v>474</v>
+      </c>
+      <c r="O80" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81" t="s">
+        <v>129</v>
+      </c>
+      <c r="E81" t="s">
+        <v>139</v>
+      </c>
+      <c r="F81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G81" t="s">
+        <v>241</v>
+      </c>
+      <c r="H81" t="s">
+        <v>328</v>
+      </c>
+      <c r="I81" t="s">
+        <v>398</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-77.03453020467171</v>
+      </c>
+      <c r="K81" t="n">
+        <v>38.917000210587815</v>
+      </c>
+      <c r="L81" t="s">
+        <v>446</v>
+      </c>
+      <c r="M81" t="s">
+        <v>466</v>
+      </c>
+      <c r="N81" t="s">
+        <v>474</v>
+      </c>
+      <c r="O81" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>110</v>
+      </c>
+      <c r="D82" t="s">
+        <v>129</v>
+      </c>
+      <c r="E82" t="s">
+        <v>139</v>
+      </c>
+      <c r="F82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G82" t="s">
+        <v>242</v>
+      </c>
+      <c r="H82" t="s">
+        <v>329</v>
+      </c>
+      <c r="I82" t="s">
+        <v>399</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-88.69186715159783</v>
+      </c>
+      <c r="K82" t="n">
+        <v>32.371995019098996</v>
+      </c>
+      <c r="L82" t="s">
+        <v>446</v>
+      </c>
+      <c r="M82" t="s">
+        <v>446</v>
+      </c>
+      <c r="N82" t="s">
+        <v>446</v>
+      </c>
+      <c r="O82" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" t="s">
+        <v>129</v>
+      </c>
+      <c r="E83" t="s">
+        <v>139</v>
+      </c>
+      <c r="F83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G83" t="s">
+        <v>241</v>
+      </c>
+      <c r="H83" t="s">
+        <v>328</v>
+      </c>
+      <c r="I83" t="s">
+        <v>398</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-77.03453020467171</v>
+      </c>
+      <c r="K83" t="n">
+        <v>38.917000210587815</v>
+      </c>
+      <c r="L83" t="s">
+        <v>446</v>
+      </c>
+      <c r="M83" t="s">
+        <v>466</v>
+      </c>
+      <c r="N83" t="s">
+        <v>474</v>
+      </c>
+      <c r="O83" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" t="s">
+        <v>130</v>
+      </c>
+      <c r="E84" t="s">
+        <v>135</v>
+      </c>
+      <c r="F84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G84" t="s">
+        <v>243</v>
+      </c>
+      <c r="H84" t="s">
+        <v>330</v>
+      </c>
+      <c r="I84" t="s">
+        <v>400</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-81.66426413723146</v>
+      </c>
+      <c r="K84" t="n">
+        <v>30.331734088630405</v>
+      </c>
+      <c r="L84" t="s">
+        <v>424</v>
+      </c>
+      <c r="M84" t="s">
+        <v>467</v>
+      </c>
+      <c r="N84" t="s">
+        <v>475</v>
+      </c>
+      <c r="O84" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>111</v>
+      </c>
+      <c r="D85" t="s">
+        <v>130</v>
+      </c>
+      <c r="E85" t="s">
+        <v>135</v>
+      </c>
+      <c r="F85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G85" t="s">
+        <v>244</v>
+      </c>
+      <c r="H85" t="s">
+        <v>331</v>
+      </c>
+      <c r="I85" t="s">
+        <v>401</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-81.66441302111136</v>
+      </c>
+      <c r="K85" t="n">
+        <v>30.33248736467606</v>
+      </c>
+      <c r="L85" t="s">
+        <v>447</v>
+      </c>
+      <c r="M85" t="s">
+        <v>467</v>
+      </c>
+      <c r="N85" t="s">
+        <v>475</v>
+      </c>
+      <c r="O85" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>111</v>
+      </c>
+      <c r="D86" t="s">
+        <v>130</v>
+      </c>
+      <c r="E86" t="s">
+        <v>135</v>
+      </c>
+      <c r="F86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G86" t="s">
+        <v>245</v>
+      </c>
+      <c r="H86" t="s">
+        <v>332</v>
+      </c>
+      <c r="I86" t="s">
+        <v>402</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-81.66446539403759</v>
+      </c>
+      <c r="K86" t="n">
+        <v>30.33238043091579</v>
+      </c>
+      <c r="L86" t="s">
+        <v>447</v>
+      </c>
+      <c r="M86" t="s">
+        <v>467</v>
+      </c>
+      <c r="N86" t="s">
+        <v>475</v>
+      </c>
+      <c r="O86" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>111</v>
+      </c>
+      <c r="D87" t="s">
+        <v>130</v>
+      </c>
+      <c r="E87" t="s">
+        <v>135</v>
+      </c>
+      <c r="F87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G87" t="s">
+        <v>246</v>
+      </c>
+      <c r="H87" t="s">
+        <v>333</v>
+      </c>
+      <c r="I87" t="s">
+        <v>403</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-81.66445676014898</v>
+      </c>
+      <c r="K87" t="n">
+        <v>30.331061902734696</v>
+      </c>
+      <c r="L87" t="s">
+        <v>424</v>
+      </c>
+      <c r="M87" t="s">
+        <v>467</v>
+      </c>
+      <c r="N87" t="s">
+        <v>475</v>
+      </c>
+      <c r="O87" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>111</v>
+      </c>
+      <c r="D88" t="s">
+        <v>130</v>
+      </c>
+      <c r="E88" t="s">
+        <v>134</v>
+      </c>
+      <c r="F88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G88" t="s">
+        <v>247</v>
+      </c>
+      <c r="H88" t="s">
+        <v>334</v>
+      </c>
+      <c r="I88" t="s">
+        <v>404</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-81.66566414356389</v>
+      </c>
+      <c r="K88" t="n">
+        <v>30.33195726774236</v>
+      </c>
+      <c r="L88" t="s">
+        <v>414</v>
+      </c>
+      <c r="M88" t="s">
+        <v>467</v>
+      </c>
+      <c r="N88" t="s">
+        <v>475</v>
+      </c>
+      <c r="O88" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89" t="s">
+        <v>130</v>
+      </c>
+      <c r="E89" t="s">
+        <v>134</v>
+      </c>
+      <c r="F89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G89" t="s">
+        <v>248</v>
+      </c>
+      <c r="H89" t="s">
+        <v>335</v>
+      </c>
+      <c r="I89" t="s">
+        <v>405</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-81.66960512522061</v>
+      </c>
+      <c r="K89" t="n">
+        <v>30.350636939663147</v>
+      </c>
+      <c r="L89" t="s">
+        <v>448</v>
+      </c>
+      <c r="M89" t="s">
+        <v>467</v>
+      </c>
+      <c r="N89" t="s">
+        <v>475</v>
+      </c>
+      <c r="O89" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>111</v>
+      </c>
+      <c r="D90" t="s">
+        <v>130</v>
+      </c>
+      <c r="E90" t="s">
+        <v>134</v>
+      </c>
+      <c r="F90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G90" t="s">
+        <v>249</v>
+      </c>
+      <c r="H90" t="s">
+        <v>336</v>
+      </c>
+      <c r="I90" t="s">
+        <v>406</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-81.39550884012574</v>
+      </c>
+      <c r="K90" t="n">
+        <v>30.322939677393787</v>
+      </c>
+      <c r="L90" t="s">
+        <v>449</v>
+      </c>
+      <c r="M90" t="s">
+        <v>467</v>
+      </c>
+      <c r="N90" t="s">
+        <v>475</v>
+      </c>
+      <c r="O90" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91" t="s">
+        <v>131</v>
+      </c>
+      <c r="E91" t="s">
+        <v>135</v>
+      </c>
+      <c r="F91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G91" t="s">
+        <v>250</v>
+      </c>
+      <c r="H91" t="s">
+        <v>337</v>
+      </c>
+      <c r="I91" t="s">
+        <v>407</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-81.95728294282242</v>
+      </c>
+      <c r="K91" t="n">
+        <v>28.051533143602214</v>
+      </c>
+      <c r="L91" t="s">
+        <v>441</v>
+      </c>
+      <c r="M91" t="s">
+        <v>468</v>
+      </c>
+      <c r="N91" t="s">
+        <v>475</v>
+      </c>
+      <c r="O91" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>111</v>
+      </c>
+      <c r="D92" t="s">
+        <v>132</v>
+      </c>
+      <c r="E92" t="s">
+        <v>135</v>
+      </c>
+      <c r="F92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G92" t="s">
+        <v>251</v>
+      </c>
+      <c r="H92" t="s">
+        <v>338</v>
+      </c>
+      <c r="I92" t="s">
+        <v>408</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-80.19796330654357</v>
+      </c>
+      <c r="K92" t="n">
+        <v>25.783100473685785</v>
+      </c>
+      <c r="L92" t="s">
+        <v>450</v>
+      </c>
+      <c r="M92" t="s">
+        <v>469</v>
+      </c>
+      <c r="N92" t="s">
+        <v>475</v>
+      </c>
+      <c r="O92" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>111</v>
+      </c>
+      <c r="D93" t="s">
+        <v>132</v>
+      </c>
+      <c r="E93" t="s">
+        <v>135</v>
+      </c>
+      <c r="F93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G93" t="s">
+        <v>252</v>
+      </c>
+      <c r="H93" t="s">
+        <v>339</v>
+      </c>
+      <c r="I93" t="s">
+        <v>409</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-80.1980312449411</v>
+      </c>
+      <c r="K93" t="n">
+        <v>25.780776879909034</v>
+      </c>
+      <c r="L93" t="s">
+        <v>450</v>
+      </c>
+      <c r="M93" t="s">
+        <v>469</v>
+      </c>
+      <c r="N93" t="s">
+        <v>475</v>
+      </c>
+      <c r="O93" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>111</v>
+      </c>
+      <c r="D94" t="s">
+        <v>133</v>
+      </c>
+      <c r="E94" t="s">
+        <v>135</v>
+      </c>
+      <c r="F94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G94" t="s">
+        <v>253</v>
+      </c>
+      <c r="H94" t="s">
+        <v>340</v>
+      </c>
+      <c r="I94" t="s">
+        <v>410</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-87.21373353953004</v>
+      </c>
+      <c r="K94" t="n">
+        <v>30.417328371683503</v>
+      </c>
+      <c r="L94" t="s">
+        <v>451</v>
+      </c>
+      <c r="M94" t="s">
+        <v>470</v>
+      </c>
+      <c r="N94" t="s">
+        <v>475</v>
+      </c>
+      <c r="O94" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>

--- a/data/greenbook_addresses.xlsx
+++ b/data/greenbook_addresses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="556">
   <si>
     <t>greenbook_edition</t>
   </si>
@@ -335,6 +335,36 @@
     <t>93</t>
   </si>
   <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -416,6 +446,15 @@
     <t>Pensacola</t>
   </si>
   <si>
+    <t>St. Augustine</t>
+  </si>
+  <si>
+    <t>St. Petersburg</t>
+  </si>
+  <si>
+    <t>Tampa</t>
+  </si>
+  <si>
     <t>tourist</t>
   </si>
   <si>
@@ -776,6 +815,36 @@
     <t>311 N. Tarragonia St.</t>
   </si>
   <si>
+    <t>129 Central Ave.</t>
+  </si>
+  <si>
+    <t>83 Bridge St.</t>
+  </si>
+  <si>
+    <t>132 Central Ave.</t>
+  </si>
+  <si>
+    <t>28th St. and 6th Ave. S.</t>
+  </si>
+  <si>
+    <t>1505 5th Ave.</t>
+  </si>
+  <si>
+    <t>942 3rd Ave S.</t>
+  </si>
+  <si>
+    <t>1515 Central Ave</t>
+  </si>
+  <si>
+    <t>1028 Central Ave.</t>
+  </si>
+  <si>
+    <t>829 Zack St.</t>
+  </si>
+  <si>
+    <t>822 Contant St.</t>
+  </si>
+  <si>
     <t>69 N. Cotton St., Andalusia, Alabama</t>
   </si>
   <si>
@@ -1037,6 +1106,36 @@
     <t>311 N. Tarragonia St., Pensacola, Florida</t>
   </si>
   <si>
+    <t>129 Central Ave., St. Augustine, Florida</t>
+  </si>
+  <si>
+    <t>83 Bridge St., St. Augustine, Florida</t>
+  </si>
+  <si>
+    <t>132 Central Ave., St. Augustine, Florida</t>
+  </si>
+  <si>
+    <t>28th St. and 6th Ave. S., St. Petersburg, Florida</t>
+  </si>
+  <si>
+    <t>1505 5th Ave., St. Petersburg, Florida</t>
+  </si>
+  <si>
+    <t>942 3rd Ave S., St. Petersburg, Florida</t>
+  </si>
+  <si>
+    <t>1515 Central Ave, Tampa, Florida</t>
+  </si>
+  <si>
+    <t>1028 Central Ave., Tampa, Florida</t>
+  </si>
+  <si>
+    <t>829 Zack St., Tampa, Florida</t>
+  </si>
+  <si>
+    <t>822 Contant St., Tampa, Florida</t>
+  </si>
+  <si>
     <t>[none found]</t>
   </si>
   <si>
@@ -1247,6 +1346,24 @@
     <t>311 N TARRAGONA ST, PENSACOLA, FL, 32501</t>
   </si>
   <si>
+    <t>83 BRIDGE ST, ST AUGUSTINE, FL, 32084</t>
+  </si>
+  <si>
+    <t>28TH ST S &amp; 6TH AVE S, ST PETERSBURG, FL, 33712</t>
+  </si>
+  <si>
+    <t>1505 5TH AVE N, ST PETERSBURG, FL, 33705</t>
+  </si>
+  <si>
+    <t>942 3RD AVE S, ST PETERSBURG, FL, 33705</t>
+  </si>
+  <si>
+    <t>1028 N CENTRAL AVE, TAMPA, FL, 33612</t>
+  </si>
+  <si>
+    <t>829 E ZACK ST, TAMPA, FL, 33602</t>
+  </si>
+  <si>
     <t>17TH</t>
   </si>
   <si>
@@ -1352,22 +1469,34 @@
     <t>U</t>
   </si>
   <si>
+    <t>ASHLEY</t>
+  </si>
+  <si>
+    <t>MONCRIEF</t>
+  </si>
+  <si>
+    <t>ORANGE</t>
+  </si>
+  <si>
+    <t>2ND</t>
+  </si>
+  <si>
+    <t>TARRAGONA</t>
+  </si>
+  <si>
+    <t>BRIDGE</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>ASHLEY</t>
-  </si>
-  <si>
-    <t>MONCRIEF</t>
-  </si>
-  <si>
-    <t>ORANGE</t>
-  </si>
-  <si>
-    <t>2ND</t>
-  </si>
-  <si>
-    <t>TARRAGONA</t>
+    <t>3RD</t>
+  </si>
+  <si>
+    <t>CENTRAL</t>
+  </si>
+  <si>
+    <t>ZACK</t>
   </si>
   <si>
     <t>BIRMINGHAM</t>
@@ -1427,6 +1556,15 @@
     <t>PENSACOLA</t>
   </si>
   <si>
+    <t>ST AUGUSTINE</t>
+  </si>
+  <si>
+    <t>ST PETERSBURG</t>
+  </si>
+  <si>
+    <t>TAMPA</t>
+  </si>
+  <si>
     <t>AL</t>
   </si>
   <si>
@@ -1527,6 +1665,21 @@
   </si>
   <si>
     <t>32501</t>
+  </si>
+  <si>
+    <t>32084</t>
+  </si>
+  <si>
+    <t>33712</t>
+  </si>
+  <si>
+    <t>33705</t>
+  </si>
+  <si>
+    <t>33612</t>
+  </si>
+  <si>
+    <t>33602</t>
   </si>
 </sst>
 </file>
@@ -1630,25 +1783,25 @@
         <v>1938.0</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="H2" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="I2" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J2" t="e">
         <v>#N/A</v>
@@ -1677,25 +1830,25 @@
         <v>1938.0</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G3" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="H3" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="I3" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="J3" t="n">
         <v>-86.8113150658676</v>
@@ -1704,16 +1857,16 @@
         <v>33.5143485707937</v>
       </c>
       <c r="L3" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="M3" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="N3" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O3" t="s">
-        <v>476</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4">
@@ -1724,25 +1877,25 @@
         <v>1938.0</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G4" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="H4" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="I4" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="J4" t="n">
         <v>-86.8290693868153</v>
@@ -1751,16 +1904,16 @@
         <v>33.5320444220056</v>
       </c>
       <c r="L4" t="s">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="M4" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="N4" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O4" t="s">
-        <v>477</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5">
@@ -1771,25 +1924,25 @@
         <v>1938.0</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F5" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="H5" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="I5" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="J5" t="n">
         <v>-86.8101998183382</v>
@@ -1798,16 +1951,16 @@
         <v>33.5154455727818</v>
       </c>
       <c r="L5" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="M5" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="N5" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O5" t="s">
-        <v>476</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6">
@@ -1818,25 +1971,25 @@
         <v>1938.0</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F6" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="G6" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="H6" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="I6" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="J6" t="n">
         <v>-86.8101943813631</v>
@@ -1845,16 +1998,16 @@
         <v>33.5154374173175</v>
       </c>
       <c r="L6" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="M6" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="N6" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O6" t="s">
-        <v>476</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7">
@@ -1865,25 +2018,25 @@
         <v>1938.0</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="H7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="I7" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="J7" t="n">
         <v>-86.981936433337</v>
@@ -1892,16 +2045,16 @@
         <v>34.6118640107611</v>
       </c>
       <c r="L7" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="M7" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="N7" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O7" t="s">
-        <v>478</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8">
@@ -1912,25 +2065,25 @@
         <v>1938.0</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F8" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="G8" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="H8" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="I8" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="J8" t="n">
         <v>-85.9687107717626</v>
@@ -1939,16 +2092,16 @@
         <v>33.9940141891079</v>
       </c>
       <c r="L8" t="s">
-        <v>415</v>
+        <v>454</v>
       </c>
       <c r="M8" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="N8" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O8" t="s">
-        <v>479</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9">
@@ -1959,25 +2112,25 @@
         <v>1938.0</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F9" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="G9" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="H9" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="I9" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="J9" t="n">
         <v>-86.0219558574387</v>
@@ -1986,16 +2139,16 @@
         <v>34.0151992985974</v>
       </c>
       <c r="L9" t="s">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="M9" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="N9" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O9" t="s">
-        <v>480</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10">
@@ -2006,25 +2159,25 @@
         <v>1938.0</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G10" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H10" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="I10" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="J10" t="n">
         <v>-86.0222979270442</v>
@@ -2033,16 +2186,16 @@
         <v>34.0152022461397</v>
       </c>
       <c r="L10" t="s">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="M10" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="N10" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O10" t="s">
-        <v>480</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11">
@@ -2053,25 +2206,25 @@
         <v>1938.0</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F11" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G11" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="H11" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="I11" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="J11" t="n">
         <v>-86.0221098420977</v>
@@ -2080,16 +2233,16 @@
         <v>34.0150862358663</v>
       </c>
       <c r="L11" t="s">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="M11" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="N11" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O11" t="s">
-        <v>480</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12">
@@ -2100,25 +2253,25 @@
         <v>1938.0</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F12" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="G12" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="H12" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="I12" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="J12" t="n">
         <v>-86.005031796993</v>
@@ -2127,16 +2280,16 @@
         <v>34.0175041515731</v>
       </c>
       <c r="L12" t="s">
-        <v>416</v>
+        <v>455</v>
       </c>
       <c r="M12" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="N12" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O12" t="s">
-        <v>480</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13">
@@ -2147,25 +2300,25 @@
         <v>1938.0</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F13" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G13" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="H13" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="I13" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J13" t="e">
         <v>#N/A</v>
@@ -2194,25 +2347,25 @@
         <v>1938.0</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G14" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="H14" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="I14" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J14" t="e">
         <v>#N/A</v>
@@ -2241,25 +2394,25 @@
         <v>1938.0</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="G15" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="H15" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="I15" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J15" t="e">
         <v>#N/A</v>
@@ -2288,25 +2441,25 @@
         <v>1938.0</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="H16" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="I16" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="J16" t="n">
         <v>-88.0576867932334</v>
@@ -2315,16 +2468,16 @@
         <v>30.6960542804327</v>
       </c>
       <c r="L16" t="s">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="M16" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="N16" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O16" t="s">
-        <v>481</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17">
@@ -2335,25 +2488,25 @@
         <v>1938.0</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="H17" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="I17" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="J17" t="n">
         <v>-88.0524129709915</v>
@@ -2362,16 +2515,16 @@
         <v>30.6935613534321</v>
       </c>
       <c r="L17" t="s">
-        <v>418</v>
+        <v>457</v>
       </c>
       <c r="M17" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="N17" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O17" t="s">
-        <v>481</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18">
@@ -2382,25 +2535,25 @@
         <v>1938.0</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="H18" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="I18" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="J18" t="n">
         <v>-88.0656567796014</v>
@@ -2409,16 +2562,16 @@
         <v>30.6976495325603</v>
       </c>
       <c r="L18" t="s">
-        <v>419</v>
+        <v>458</v>
       </c>
       <c r="M18" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="N18" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O18" t="s">
-        <v>481</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19">
@@ -2429,25 +2582,25 @@
         <v>1938.0</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="H19" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="I19" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J19" t="e">
         <v>#N/A</v>
@@ -2476,25 +2629,25 @@
         <v>1938.0</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G20" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H20" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="I20" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J20" t="e">
         <v>#N/A</v>
@@ -2523,25 +2676,25 @@
         <v>1938.0</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F21" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G21" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="H21" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="I21" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="J21" t="n">
         <v>-85.9677376311342</v>
@@ -2550,16 +2703,16 @@
         <v>31.8159372445166</v>
       </c>
       <c r="L21" t="s">
-        <v>420</v>
+        <v>459</v>
       </c>
       <c r="M21" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="N21" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O21" t="s">
-        <v>482</v>
+        <v>528</v>
       </c>
     </row>
     <row r="22">
@@ -2570,25 +2723,25 @@
         <v>1938.0</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F22" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="G22" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="H22" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="I22" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J22" t="e">
         <v>#N/A</v>
@@ -2617,25 +2770,25 @@
         <v>1938.0</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F23" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="G23" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="H23" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="I23" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="J23" t="n">
         <v>-87.5674198878895</v>
@@ -2644,16 +2797,16 @@
         <v>33.2027155164248</v>
       </c>
       <c r="L23" t="s">
-        <v>421</v>
+        <v>460</v>
       </c>
       <c r="M23" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="N23" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O23" t="s">
-        <v>483</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24">
@@ -2664,25 +2817,25 @@
         <v>1938.0</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F24" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="G24" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="H24" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="I24" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="J24" t="n">
         <v>-87.5765682130659</v>
@@ -2691,16 +2844,16 @@
         <v>33.2083686457691</v>
       </c>
       <c r="L24" t="s">
-        <v>422</v>
+        <v>461</v>
       </c>
       <c r="M24" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="N24" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O24" t="s">
-        <v>483</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25">
@@ -2711,25 +2864,25 @@
         <v>1938.0</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F25" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="G25" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="H25" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="I25" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="J25" t="n">
         <v>-87.5651479921732</v>
@@ -2738,16 +2891,16 @@
         <v>33.1997383053909</v>
       </c>
       <c r="L25" t="s">
-        <v>423</v>
+        <v>462</v>
       </c>
       <c r="M25" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="N25" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O25" t="s">
-        <v>483</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26">
@@ -2758,25 +2911,25 @@
         <v>1938.0</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F26" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G26" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="H26" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="I26" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J26" t="e">
         <v>#N/A</v>
@@ -2805,25 +2958,25 @@
         <v>1938.0</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F27" t="e">
         <v>#N/A</v>
       </c>
       <c r="G27" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="H27" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="I27" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="J27" t="n">
         <v>-73.1876041991036</v>
@@ -2832,16 +2985,16 @@
         <v>41.1697328006184</v>
       </c>
       <c r="L27" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="M27" t="s">
-        <v>458</v>
+        <v>501</v>
       </c>
       <c r="N27" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O27" t="s">
-        <v>484</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28">
@@ -2852,25 +3005,25 @@
         <v>1938.0</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F28" t="e">
         <v>#N/A</v>
       </c>
       <c r="G28" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="H28" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="I28" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="J28" t="n">
         <v>-73.1425164223959</v>
@@ -2879,16 +3032,16 @@
         <v>41.199216796974</v>
       </c>
       <c r="L28" t="s">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="M28" t="s">
-        <v>459</v>
+        <v>502</v>
       </c>
       <c r="N28" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O28" t="s">
-        <v>485</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29">
@@ -2899,25 +3052,25 @@
         <v>1938.0</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F29" t="e">
         <v>#N/A</v>
       </c>
       <c r="G29" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="H29" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="I29" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J29" t="e">
         <v>#N/A</v>
@@ -2946,25 +3099,25 @@
         <v>1938.0</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E30" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F30" t="e">
         <v>#N/A</v>
       </c>
       <c r="G30" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="H30" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="I30" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="J30" t="n">
         <v>-73.1748001242641</v>
@@ -2973,16 +3126,16 @@
         <v>41.1848421780769</v>
       </c>
       <c r="L30" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="M30" t="s">
-        <v>458</v>
+        <v>501</v>
       </c>
       <c r="N30" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O30" t="s">
-        <v>486</v>
+        <v>532</v>
       </c>
     </row>
     <row r="31">
@@ -2993,25 +3146,25 @@
         <v>1938.0</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E31" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F31" t="e">
         <v>#N/A</v>
       </c>
       <c r="G31" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="H31" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="I31" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="J31" t="n">
         <v>-72.7194513427762</v>
@@ -3020,16 +3173,16 @@
         <v>41.6754278310956</v>
       </c>
       <c r="L31" t="s">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="M31" t="s">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="N31" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O31" t="s">
-        <v>487</v>
+        <v>533</v>
       </c>
     </row>
     <row r="32">
@@ -3040,25 +3193,25 @@
         <v>1938.0</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F32" t="e">
         <v>#N/A</v>
       </c>
       <c r="G32" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="H32" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="I32" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="J32" t="n">
         <v>-72.6759843367764</v>
@@ -3067,16 +3220,16 @@
         <v>41.7784449890697</v>
       </c>
       <c r="L32" t="s">
-        <v>427</v>
+        <v>466</v>
       </c>
       <c r="M32" t="s">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="N32" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O32" t="s">
-        <v>488</v>
+        <v>534</v>
       </c>
     </row>
     <row r="33">
@@ -3087,25 +3240,25 @@
         <v>1938.0</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E33" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F33" t="e">
         <v>#N/A</v>
       </c>
       <c r="G33" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="H33" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="I33" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J33" t="e">
         <v>#N/A</v>
@@ -3134,25 +3287,25 @@
         <v>1938.0</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F34" t="e">
         <v>#N/A</v>
       </c>
       <c r="G34" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="H34" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="I34" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="J34" t="n">
         <v>-72.9329460076841</v>
@@ -3161,16 +3314,16 @@
         <v>41.3169568176862</v>
       </c>
       <c r="L34" t="s">
-        <v>428</v>
+        <v>467</v>
       </c>
       <c r="M34" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="N34" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O34" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35">
@@ -3181,25 +3334,25 @@
         <v>1938.0</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F35" t="e">
         <v>#N/A</v>
       </c>
       <c r="G35" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="H35" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="I35" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="J35" t="n">
         <v>-72.9283382677717</v>
@@ -3208,16 +3361,16 @@
         <v>41.3180050633791</v>
       </c>
       <c r="L35" t="s">
-        <v>429</v>
+        <v>468</v>
       </c>
       <c r="M35" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="N35" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O35" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
     </row>
     <row r="36">
@@ -3228,25 +3381,25 @@
         <v>1938.0</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F36" t="e">
         <v>#N/A</v>
       </c>
       <c r="G36" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="H36" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="I36" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="J36" t="n">
         <v>-72.9326610116185</v>
@@ -3255,16 +3408,16 @@
         <v>41.3148333595736</v>
       </c>
       <c r="L36" t="s">
-        <v>430</v>
+        <v>469</v>
       </c>
       <c r="M36" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="N36" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O36" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
     </row>
     <row r="37">
@@ -3275,25 +3428,25 @@
         <v>1938.0</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E37" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F37" t="e">
         <v>#N/A</v>
       </c>
       <c r="G37" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="H37" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="I37" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="J37" t="n">
         <v>-72.9327409415411</v>
@@ -3302,16 +3455,16 @@
         <v>41.3145692903558</v>
       </c>
       <c r="L37" t="s">
-        <v>430</v>
+        <v>469</v>
       </c>
       <c r="M37" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="N37" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O37" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
     </row>
     <row r="38">
@@ -3322,25 +3475,25 @@
         <v>1938.0</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F38" t="e">
         <v>#N/A</v>
       </c>
       <c r="G38" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="H38" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="I38" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="J38" t="n">
         <v>-72.9327952927716</v>
@@ -3349,16 +3502,16 @@
         <v>41.3147577080202</v>
       </c>
       <c r="L38" t="s">
-        <v>430</v>
+        <v>469</v>
       </c>
       <c r="M38" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="N38" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O38" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
     </row>
     <row r="39">
@@ -3369,25 +3522,25 @@
         <v>1938.0</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F39" t="e">
         <v>#N/A</v>
       </c>
       <c r="G39" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="H39" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="I39" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J39" t="e">
         <v>#N/A</v>
@@ -3416,25 +3569,25 @@
         <v>1938.0</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E40" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F40" t="e">
         <v>#N/A</v>
       </c>
       <c r="G40" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="H40" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="I40" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="J40" t="n">
         <v>-72.0989248920093</v>
@@ -3443,16 +3596,16 @@
         <v>41.3514720716549</v>
       </c>
       <c r="L40" t="s">
-        <v>431</v>
+        <v>470</v>
       </c>
       <c r="M40" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="N40" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O40" t="s">
-        <v>490</v>
+        <v>536</v>
       </c>
     </row>
     <row r="41">
@@ -3463,25 +3616,25 @@
         <v>1938.0</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E41" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F41" t="e">
         <v>#N/A</v>
       </c>
       <c r="G41" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="H41" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="I41" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J41" t="e">
         <v>#N/A</v>
@@ -3510,25 +3663,25 @@
         <v>1938.0</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D42" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F42" t="e">
         <v>#N/A</v>
       </c>
       <c r="G42" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="H42" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="I42" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="J42" t="n">
         <v>-72.1036935417646</v>
@@ -3537,16 +3690,16 @@
         <v>41.354739888483</v>
       </c>
       <c r="L42" t="s">
-        <v>432</v>
+        <v>471</v>
       </c>
       <c r="M42" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="N42" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O42" t="s">
-        <v>490</v>
+        <v>536</v>
       </c>
     </row>
     <row r="43">
@@ -3557,25 +3710,25 @@
         <v>1938.0</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D43" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F43" t="e">
         <v>#N/A</v>
       </c>
       <c r="G43" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="H43" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="I43" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="J43" t="n">
         <v>-72.0945531299749</v>
@@ -3584,16 +3737,16 @@
         <v>41.3529769238668</v>
       </c>
       <c r="L43" t="s">
-        <v>433</v>
+        <v>472</v>
       </c>
       <c r="M43" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="N43" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O43" t="s">
-        <v>490</v>
+        <v>536</v>
       </c>
     </row>
     <row r="44">
@@ -3604,25 +3757,25 @@
         <v>1938.0</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D44" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E44" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F44" t="e">
         <v>#N/A</v>
       </c>
       <c r="G44" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="H44" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="I44" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="J44" t="n">
         <v>-72.1061310964387</v>
@@ -3631,16 +3784,16 @@
         <v>41.3491636454073</v>
       </c>
       <c r="L44" t="s">
-        <v>433</v>
+        <v>472</v>
       </c>
       <c r="M44" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="N44" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O44" t="s">
-        <v>490</v>
+        <v>536</v>
       </c>
     </row>
     <row r="45">
@@ -3651,25 +3804,25 @@
         <v>1938.0</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D45" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E45" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F45" t="e">
         <v>#N/A</v>
       </c>
       <c r="G45" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="H45" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="I45" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J45" t="e">
         <v>#N/A</v>
@@ -3698,25 +3851,25 @@
         <v>1938.0</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E46" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F46" t="e">
         <v>#N/A</v>
       </c>
       <c r="G46" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="H46" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="I46" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="J46" t="n">
         <v>-73.5435350440446</v>
@@ -3725,16 +3878,16 @@
         <v>41.0437896616415</v>
       </c>
       <c r="L46" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="M46" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="N46" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O46" t="s">
-        <v>491</v>
+        <v>537</v>
       </c>
     </row>
     <row r="47">
@@ -3745,25 +3898,25 @@
         <v>1938.0</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D47" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E47" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F47" t="e">
         <v>#N/A</v>
       </c>
       <c r="G47" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="H47" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="I47" t="s">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="J47" t="n">
         <v>-73.0360400989091</v>
@@ -3772,16 +3925,16 @@
         <v>41.5612899305374</v>
       </c>
       <c r="L47" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="M47" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="N47" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O47" t="s">
-        <v>492</v>
+        <v>538</v>
       </c>
     </row>
     <row r="48">
@@ -3792,25 +3945,25 @@
         <v>1938.0</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E48" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F48" t="e">
         <v>#N/A</v>
       </c>
       <c r="G48" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="H48" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="I48" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J48" t="e">
         <v>#N/A</v>
@@ -3839,25 +3992,25 @@
         <v>1938.0</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E49" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F49" t="e">
         <v>#N/A</v>
       </c>
       <c r="G49" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="H49" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="I49" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J49" t="e">
         <v>#N/A</v>
@@ -3886,25 +4039,25 @@
         <v>1938.0</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D50" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E50" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F50" t="e">
         <v>#N/A</v>
       </c>
       <c r="G50" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="H50" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="I50" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="J50" t="n">
         <v>-73.037910401171</v>
@@ -3913,16 +4066,16 @@
         <v>41.5632588753159</v>
       </c>
       <c r="L50" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="M50" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="N50" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O50" t="s">
-        <v>492</v>
+        <v>538</v>
       </c>
     </row>
     <row r="51">
@@ -3933,25 +4086,25 @@
         <v>1938.0</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D51" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E51" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F51" t="e">
         <v>#N/A</v>
       </c>
       <c r="G51" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="H51" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="I51" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="J51" t="n">
         <v>-73.0381966494124</v>
@@ -3960,16 +4113,16 @@
         <v>41.5637429063891</v>
       </c>
       <c r="L51" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="M51" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="N51" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O51" t="s">
-        <v>492</v>
+        <v>538</v>
       </c>
     </row>
     <row r="52">
@@ -3980,25 +4133,25 @@
         <v>1938.0</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D52" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E52" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F52" t="e">
         <v>#N/A</v>
       </c>
       <c r="G52" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="H52" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="I52" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="J52" t="n">
         <v>-73.0376709561135</v>
@@ -4007,16 +4160,16 @@
         <v>41.562421005866</v>
       </c>
       <c r="L52" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="M52" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="N52" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O52" t="s">
-        <v>492</v>
+        <v>538</v>
       </c>
     </row>
     <row r="53">
@@ -4027,25 +4180,25 @@
         <v>1938.0</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D53" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E53" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F53" t="e">
         <v>#N/A</v>
       </c>
       <c r="G53" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="H53" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="I53" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="J53" t="n">
         <v>-73.0375883408498</v>
@@ -4054,16 +4207,16 @@
         <v>41.5616483994562</v>
       </c>
       <c r="L53" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="M53" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="N53" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O53" t="s">
-        <v>492</v>
+        <v>538</v>
       </c>
     </row>
     <row r="54">
@@ -4074,25 +4227,25 @@
         <v>1938.0</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D54" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E54" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F54" t="e">
         <v>#N/A</v>
       </c>
       <c r="G54" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="H54" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="I54" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="J54" t="n">
         <v>-73.0375001536833</v>
@@ -4101,16 +4254,16 @@
         <v>41.5623010119887</v>
       </c>
       <c r="L54" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="M54" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="N54" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O54" t="s">
-        <v>492</v>
+        <v>538</v>
       </c>
     </row>
     <row r="55">
@@ -4121,25 +4274,25 @@
         <v>1938.0</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D55" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E55" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F55" t="e">
         <v>#N/A</v>
       </c>
       <c r="G55" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="H55" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="I55" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J55" t="e">
         <v>#N/A</v>
@@ -4168,25 +4321,25 @@
         <v>1938.0</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D56" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E56" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F56" t="e">
         <v>#N/A</v>
       </c>
       <c r="G56" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="H56" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="I56" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J56" t="e">
         <v>#N/A</v>
@@ -4215,25 +4368,25 @@
         <v>1938.0</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D57" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E57" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F57" t="e">
         <v>#N/A</v>
       </c>
       <c r="G57" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="H57" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="I57" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J57" t="e">
         <v>#N/A</v>
@@ -4262,25 +4415,25 @@
         <v>1938.0</v>
       </c>
       <c r="C58" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D58" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E58" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F58" t="e">
         <v>#N/A</v>
       </c>
       <c r="G58" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="H58" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="I58" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J58" t="e">
         <v>#N/A</v>
@@ -4309,25 +4462,25 @@
         <v>1938.0</v>
       </c>
       <c r="C59" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D59" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E59" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F59" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="G59" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="H59" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="I59" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J59" t="e">
         <v>#N/A</v>
@@ -4356,25 +4509,25 @@
         <v>1938.0</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D60" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E60" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F60" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="G60" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="H60" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="I60" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J60" t="e">
         <v>#N/A</v>
@@ -4403,25 +4556,25 @@
         <v>1938.0</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D61" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E61" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F61" t="e">
         <v>#N/A</v>
       </c>
       <c r="G61" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="H61" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="I61" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J61" t="e">
         <v>#N/A</v>
@@ -4450,25 +4603,25 @@
         <v>1938.0</v>
       </c>
       <c r="C62" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D62" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E62" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F62" t="e">
         <v>#N/A</v>
       </c>
       <c r="G62" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="H62" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="I62" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="J62" t="n">
         <v>-75.5493300113921</v>
@@ -4477,16 +4630,16 @@
         <v>39.7474398054402</v>
       </c>
       <c r="L62" t="s">
-        <v>437</v>
+        <v>476</v>
       </c>
       <c r="M62" t="s">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="N62" t="s">
-        <v>473</v>
+        <v>519</v>
       </c>
       <c r="O62" t="s">
-        <v>493</v>
+        <v>539</v>
       </c>
     </row>
     <row r="63">
@@ -4497,25 +4650,25 @@
         <v>1938.0</v>
       </c>
       <c r="C63" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D63" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E63" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F63" t="e">
         <v>#N/A</v>
       </c>
       <c r="G63" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="H63" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="I63" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="J63" t="n">
         <v>-75.548033259881</v>
@@ -4524,16 +4677,16 @@
         <v>39.7478471710777</v>
       </c>
       <c r="L63" t="s">
-        <v>421</v>
+        <v>460</v>
       </c>
       <c r="M63" t="s">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="N63" t="s">
-        <v>473</v>
+        <v>519</v>
       </c>
       <c r="O63" t="s">
-        <v>493</v>
+        <v>539</v>
       </c>
     </row>
     <row r="64">
@@ -4544,25 +4697,25 @@
         <v>1938.0</v>
       </c>
       <c r="C64" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D64" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E64" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F64" t="e">
         <v>#N/A</v>
       </c>
       <c r="G64" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="H64" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="I64" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="J64" t="n">
         <v>-75.5459142852752</v>
@@ -4571,16 +4724,16 @@
         <v>39.7449178629458</v>
       </c>
       <c r="L64" t="s">
-        <v>438</v>
+        <v>477</v>
       </c>
       <c r="M64" t="s">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="N64" t="s">
-        <v>473</v>
+        <v>519</v>
       </c>
       <c r="O64" t="s">
-        <v>493</v>
+        <v>539</v>
       </c>
     </row>
     <row r="65">
@@ -4591,25 +4744,25 @@
         <v>1938.0</v>
       </c>
       <c r="C65" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D65" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E65" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F65" t="e">
         <v>#N/A</v>
       </c>
       <c r="G65" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="H65" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="I65" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="J65" t="n">
         <v>-75.5481252777236</v>
@@ -4618,16 +4771,16 @@
         <v>39.7494633757811</v>
       </c>
       <c r="L65" t="s">
-        <v>437</v>
+        <v>476</v>
       </c>
       <c r="M65" t="s">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="N65" t="s">
-        <v>473</v>
+        <v>519</v>
       </c>
       <c r="O65" t="s">
-        <v>493</v>
+        <v>539</v>
       </c>
     </row>
     <row r="66">
@@ -4638,25 +4791,25 @@
         <v>1938.0</v>
       </c>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D66" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E66" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F66" t="e">
         <v>#N/A</v>
       </c>
       <c r="G66" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="H66" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="I66" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J66" t="e">
         <v>#N/A</v>
@@ -4685,25 +4838,25 @@
         <v>1938.0</v>
       </c>
       <c r="C67" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D67" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E67" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F67" t="e">
         <v>#N/A</v>
       </c>
       <c r="G67" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="H67" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="I67" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="J67" t="n">
         <v>-77.0295470698206</v>
@@ -4712,16 +4865,16 @@
         <v>38.914479329056</v>
       </c>
       <c r="L67" t="s">
-        <v>439</v>
+        <v>478</v>
       </c>
       <c r="M67" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N67" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O67" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
     </row>
     <row r="68">
@@ -4732,25 +4885,25 @@
         <v>1938.0</v>
       </c>
       <c r="C68" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D68" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F68" t="e">
         <v>#N/A</v>
       </c>
       <c r="G68" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="H68" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="I68" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="J68" t="n">
         <v>-77.0417451402957</v>
@@ -4759,16 +4912,16 @@
         <v>38.9097567644737</v>
       </c>
       <c r="L68" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="M68" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N68" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O68" t="s">
-        <v>495</v>
+        <v>541</v>
       </c>
     </row>
     <row r="69">
@@ -4779,25 +4932,25 @@
         <v>1938.0</v>
       </c>
       <c r="C69" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D69" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F69" t="e">
         <v>#N/A</v>
       </c>
       <c r="G69" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="H69" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="I69" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="J69" t="n">
         <v>-77.0219212091946</v>
@@ -4809,13 +4962,13 @@
         <v>#N/A</v>
       </c>
       <c r="M69" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N69" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O69" t="s">
-        <v>496</v>
+        <v>542</v>
       </c>
     </row>
     <row r="70">
@@ -4826,25 +4979,25 @@
         <v>1938.0</v>
       </c>
       <c r="C70" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D70" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F70" t="e">
         <v>#N/A</v>
       </c>
       <c r="G70" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="H70" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="I70" t="s">
-        <v>387</v>
+        <v>420</v>
       </c>
       <c r="J70" t="n">
         <v>-77.0296207062875</v>
@@ -4856,13 +5009,13 @@
         <v>#N/A</v>
       </c>
       <c r="M70" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N70" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O70" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
     </row>
     <row r="71">
@@ -4873,25 +5026,25 @@
         <v>1938.0</v>
       </c>
       <c r="C71" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D71" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F71" t="e">
         <v>#N/A</v>
       </c>
       <c r="G71" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="H71" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="I71" t="s">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="J71" t="n">
         <v>-77.0281553432906</v>
@@ -4900,16 +5053,16 @@
         <v>38.9143727773704</v>
       </c>
       <c r="L71" t="s">
-        <v>421</v>
+        <v>460</v>
       </c>
       <c r="M71" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N71" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O71" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
     </row>
     <row r="72">
@@ -4920,25 +5073,25 @@
         <v>1938.0</v>
       </c>
       <c r="C72" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D72" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F72" t="e">
         <v>#N/A</v>
       </c>
       <c r="G72" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="H72" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="I72" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="J72" t="n">
         <v>-76.9937363573609</v>
@@ -4947,16 +5100,16 @@
         <v>38.9219005286626</v>
       </c>
       <c r="L72" t="s">
-        <v>440</v>
+        <v>479</v>
       </c>
       <c r="M72" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N72" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O72" t="s">
-        <v>497</v>
+        <v>543</v>
       </c>
     </row>
     <row r="73">
@@ -4967,43 +5120,43 @@
         <v>1938.0</v>
       </c>
       <c r="C73" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D73" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E73" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F73" t="e">
         <v>#N/A</v>
       </c>
       <c r="G73" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="H73" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="I73" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="J73" t="n">
-        <v>-77.01459809738002</v>
+        <v>-77.01459809738</v>
       </c>
       <c r="K73" t="n">
-        <v>38.913216145225086</v>
+        <v>38.9132161452251</v>
       </c>
       <c r="L73" t="s">
-        <v>441</v>
+        <v>480</v>
       </c>
       <c r="M73" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N73" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O73" t="s">
-        <v>496</v>
+        <v>542</v>
       </c>
     </row>
     <row r="74">
@@ -5014,43 +5167,43 @@
         <v>1938.0</v>
       </c>
       <c r="C74" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D74" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E74" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F74" t="e">
         <v>#N/A</v>
       </c>
       <c r="G74" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="H74" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="I74" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="J74" t="n">
-        <v>-77.02955110701818</v>
+        <v>-77.0295511070182</v>
       </c>
       <c r="K74" t="n">
-        <v>38.916420652308766</v>
+        <v>38.9164206523088</v>
       </c>
       <c r="L74" t="s">
-        <v>439</v>
+        <v>478</v>
       </c>
       <c r="M74" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N74" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O74" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
     </row>
     <row r="75">
@@ -5061,43 +5214,43 @@
         <v>1938.0</v>
       </c>
       <c r="C75" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D75" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E75" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F75" t="e">
         <v>#N/A</v>
       </c>
       <c r="G75" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="H75" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="I75" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="J75" t="n">
-        <v>-77.02854145732209</v>
+        <v>-77.0285414573221</v>
       </c>
       <c r="K75" t="n">
         <v>38.9256909129142</v>
       </c>
       <c r="L75" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="M75" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N75" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O75" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
     </row>
     <row r="76">
@@ -5108,43 +5261,43 @@
         <v>1938.0</v>
       </c>
       <c r="C76" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D76" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E76" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F76" t="e">
         <v>#N/A</v>
       </c>
       <c r="G76" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="H76" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="I76" t="s">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="J76" t="n">
-        <v>-77.03287812844063</v>
+        <v>-77.0328781284406</v>
       </c>
       <c r="K76" t="n">
-        <v>38.91118050739781</v>
+        <v>38.9111805073978</v>
       </c>
       <c r="L76" t="s">
-        <v>443</v>
+        <v>482</v>
       </c>
       <c r="M76" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N76" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O76" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
     </row>
     <row r="77">
@@ -5155,43 +5308,43 @@
         <v>1938.0</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D77" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E77" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="F77" t="e">
         <v>#N/A</v>
       </c>
       <c r="G77" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="H77" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="I77" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="J77" t="n">
-        <v>-77.01900233380302</v>
+        <v>-77.019002333803</v>
       </c>
       <c r="K77" t="n">
-        <v>38.90148995869146</v>
+        <v>38.9014899586915</v>
       </c>
       <c r="L77" t="s">
-        <v>444</v>
+        <v>483</v>
       </c>
       <c r="M77" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N77" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O77" t="s">
-        <v>496</v>
+        <v>542</v>
       </c>
     </row>
     <row r="78">
@@ -5202,43 +5355,43 @@
         <v>1938.0</v>
       </c>
       <c r="C78" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D78" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E78" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F78" t="e">
         <v>#N/A</v>
       </c>
       <c r="G78" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="H78" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="I78" t="s">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="J78" t="n">
         <v>-77.0284109682986</v>
       </c>
       <c r="K78" t="n">
-        <v>38.91694291467242</v>
+        <v>38.9169429146724</v>
       </c>
       <c r="L78" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
       <c r="M78" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N78" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O78" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
     </row>
     <row r="79">
@@ -5249,43 +5402,43 @@
         <v>1938.0</v>
       </c>
       <c r="C79" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D79" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E79" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F79" t="e">
         <v>#N/A</v>
       </c>
       <c r="G79" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H79" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="I79" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="J79" t="n">
-        <v>-77.02192120868584</v>
+        <v>-77.0219212086858</v>
       </c>
       <c r="K79" t="n">
-        <v>38.91556921040576</v>
-      </c>
-      <c r="L79" t="s">
-        <v>446</v>
+        <v>38.9155692104058</v>
+      </c>
+      <c r="L79" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M79" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N79" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O79" t="s">
-        <v>496</v>
+        <v>542</v>
       </c>
     </row>
     <row r="80">
@@ -5296,43 +5449,43 @@
         <v>1938.0</v>
       </c>
       <c r="C80" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D80" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E80" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F80" t="e">
         <v>#N/A</v>
       </c>
       <c r="G80" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="H80" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="I80" t="s">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="J80" t="n">
-        <v>-77.03341999283333</v>
+        <v>-77.0334199928333</v>
       </c>
       <c r="K80" t="n">
-        <v>38.91705750623342</v>
+        <v>38.9170575062334</v>
       </c>
       <c r="L80" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
       <c r="M80" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N80" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O80" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
     </row>
     <row r="81">
@@ -5343,43 +5496,43 @@
         <v>1938.0</v>
       </c>
       <c r="C81" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D81" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E81" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="F81" t="e">
         <v>#N/A</v>
       </c>
       <c r="G81" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="H81" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="I81" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="J81" t="n">
-        <v>-77.03453020467171</v>
+        <v>-77.0345302046717</v>
       </c>
       <c r="K81" t="n">
-        <v>38.917000210587815</v>
-      </c>
-      <c r="L81" t="s">
-        <v>446</v>
+        <v>38.9170002105878</v>
+      </c>
+      <c r="L81" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M81" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N81" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O81" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
     </row>
     <row r="82">
@@ -5390,43 +5543,43 @@
         <v>1938.0</v>
       </c>
       <c r="C82" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D82" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E82" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="F82" t="e">
         <v>#N/A</v>
       </c>
       <c r="G82" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="H82" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="I82" t="s">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="J82" t="n">
-        <v>-88.69186715159783</v>
+        <v>-88.6918671515978</v>
       </c>
       <c r="K82" t="n">
-        <v>32.371995019098996</v>
-      </c>
-      <c r="L82" t="s">
-        <v>446</v>
-      </c>
-      <c r="M82" t="s">
-        <v>446</v>
-      </c>
-      <c r="N82" t="s">
-        <v>446</v>
-      </c>
-      <c r="O82" t="s">
-        <v>446</v>
+        <v>32.371995019099</v>
+      </c>
+      <c r="L82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O82" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="83">
@@ -5437,43 +5590,43 @@
         <v>1938.0</v>
       </c>
       <c r="C83" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D83" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E83" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="F83" t="e">
         <v>#N/A</v>
       </c>
       <c r="G83" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="H83" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="I83" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="J83" t="n">
-        <v>-77.03453020467171</v>
+        <v>-77.0345302046717</v>
       </c>
       <c r="K83" t="n">
-        <v>38.917000210587815</v>
-      </c>
-      <c r="L83" t="s">
-        <v>446</v>
+        <v>38.9170002105878</v>
+      </c>
+      <c r="L83" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M83" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N83" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O83" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
     </row>
     <row r="84">
@@ -5484,43 +5637,43 @@
         <v>1938.0</v>
       </c>
       <c r="C84" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D84" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E84" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F84" t="e">
         <v>#N/A</v>
       </c>
       <c r="G84" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="H84" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="I84" t="s">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="J84" t="n">
-        <v>-81.66426413723146</v>
+        <v>-81.6642641372315</v>
       </c>
       <c r="K84" t="n">
-        <v>30.331734088630405</v>
+        <v>30.3317340886304</v>
       </c>
       <c r="L84" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="M84" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="N84" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="O84" t="s">
-        <v>498</v>
+        <v>544</v>
       </c>
     </row>
     <row r="85">
@@ -5531,43 +5684,43 @@
         <v>1938.0</v>
       </c>
       <c r="C85" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D85" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E85" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F85" t="e">
         <v>#N/A</v>
       </c>
       <c r="G85" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="H85" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="I85" t="s">
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="J85" t="n">
-        <v>-81.66441302111136</v>
+        <v>-81.6644130211114</v>
       </c>
       <c r="K85" t="n">
-        <v>30.33248736467606</v>
+        <v>30.3324873646761</v>
       </c>
       <c r="L85" t="s">
-        <v>447</v>
+        <v>485</v>
       </c>
       <c r="M85" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="N85" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="O85" t="s">
-        <v>498</v>
+        <v>544</v>
       </c>
     </row>
     <row r="86">
@@ -5578,43 +5731,43 @@
         <v>1938.0</v>
       </c>
       <c r="C86" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D86" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E86" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F86" t="e">
         <v>#N/A</v>
       </c>
       <c r="G86" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="H86" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="I86" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="J86" t="n">
-        <v>-81.66446539403759</v>
+        <v>-81.6644653940376</v>
       </c>
       <c r="K86" t="n">
-        <v>30.33238043091579</v>
+        <v>30.3323804309158</v>
       </c>
       <c r="L86" t="s">
-        <v>447</v>
+        <v>485</v>
       </c>
       <c r="M86" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="N86" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="O86" t="s">
-        <v>499</v>
+        <v>545</v>
       </c>
     </row>
     <row r="87">
@@ -5625,43 +5778,43 @@
         <v>1938.0</v>
       </c>
       <c r="C87" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D87" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E87" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F87" t="e">
         <v>#N/A</v>
       </c>
       <c r="G87" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="H87" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="I87" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="J87" t="n">
-        <v>-81.66445676014898</v>
+        <v>-81.664456760149</v>
       </c>
       <c r="K87" t="n">
-        <v>30.331061902734696</v>
+        <v>30.3310619027347</v>
       </c>
       <c r="L87" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="M87" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="N87" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="O87" t="s">
-        <v>498</v>
+        <v>544</v>
       </c>
     </row>
     <row r="88">
@@ -5672,43 +5825,43 @@
         <v>1938.0</v>
       </c>
       <c r="C88" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D88" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E88" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F88" t="e">
         <v>#N/A</v>
       </c>
       <c r="G88" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="H88" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="I88" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="J88" t="n">
-        <v>-81.66566414356389</v>
+        <v>-81.6656641435639</v>
       </c>
       <c r="K88" t="n">
-        <v>30.33195726774236</v>
+        <v>30.3319572677424</v>
       </c>
       <c r="L88" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="M88" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="N88" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="O88" t="s">
-        <v>498</v>
+        <v>544</v>
       </c>
     </row>
     <row r="89">
@@ -5719,43 +5872,43 @@
         <v>1938.0</v>
       </c>
       <c r="C89" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D89" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E89" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F89" t="e">
         <v>#N/A</v>
       </c>
       <c r="G89" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="H89" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="I89" t="s">
-        <v>405</v>
+        <v>438</v>
       </c>
       <c r="J89" t="n">
-        <v>-81.66960512522061</v>
+        <v>-81.6696051252206</v>
       </c>
       <c r="K89" t="n">
-        <v>30.350636939663147</v>
+        <v>30.3506369396631</v>
       </c>
       <c r="L89" t="s">
-        <v>448</v>
+        <v>486</v>
       </c>
       <c r="M89" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="N89" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="O89" t="s">
-        <v>500</v>
+        <v>546</v>
       </c>
     </row>
     <row r="90">
@@ -5766,43 +5919,43 @@
         <v>1938.0</v>
       </c>
       <c r="C90" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D90" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E90" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F90" t="e">
         <v>#N/A</v>
       </c>
       <c r="G90" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="H90" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="I90" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="J90" t="n">
-        <v>-81.39550884012574</v>
+        <v>-81.3955088401258</v>
       </c>
       <c r="K90" t="n">
-        <v>30.322939677393787</v>
+        <v>30.3229396773938</v>
       </c>
       <c r="L90" t="s">
-        <v>449</v>
+        <v>487</v>
       </c>
       <c r="M90" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="N90" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="O90" t="s">
-        <v>501</v>
+        <v>547</v>
       </c>
     </row>
     <row r="91">
@@ -5813,43 +5966,43 @@
         <v>1938.0</v>
       </c>
       <c r="C91" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D91" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E91" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F91" t="e">
         <v>#N/A</v>
       </c>
       <c r="G91" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="H91" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="I91" t="s">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="J91" t="n">
-        <v>-81.95728294282242</v>
+        <v>-81.9572829428224</v>
       </c>
       <c r="K91" t="n">
-        <v>28.051533143602214</v>
+        <v>28.0515331436022</v>
       </c>
       <c r="L91" t="s">
-        <v>441</v>
+        <v>480</v>
       </c>
       <c r="M91" t="s">
-        <v>468</v>
+        <v>511</v>
       </c>
       <c r="N91" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="O91" t="s">
-        <v>502</v>
+        <v>548</v>
       </c>
     </row>
     <row r="92">
@@ -5860,43 +6013,43 @@
         <v>1938.0</v>
       </c>
       <c r="C92" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D92" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E92" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F92" t="e">
         <v>#N/A</v>
       </c>
       <c r="G92" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="H92" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="I92" t="s">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="J92" t="n">
-        <v>-80.19796330654357</v>
+        <v>-80.1979633065436</v>
       </c>
       <c r="K92" t="n">
-        <v>25.783100473685785</v>
+        <v>25.7831004736858</v>
       </c>
       <c r="L92" t="s">
-        <v>450</v>
+        <v>488</v>
       </c>
       <c r="M92" t="s">
-        <v>469</v>
+        <v>512</v>
       </c>
       <c r="N92" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="O92" t="s">
-        <v>503</v>
+        <v>549</v>
       </c>
     </row>
     <row r="93">
@@ -5907,43 +6060,43 @@
         <v>1938.0</v>
       </c>
       <c r="C93" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D93" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E93" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F93" t="e">
         <v>#N/A</v>
       </c>
       <c r="G93" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="H93" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="I93" t="s">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="J93" t="n">
         <v>-80.1980312449411</v>
       </c>
       <c r="K93" t="n">
-        <v>25.780776879909034</v>
+        <v>25.780776879909</v>
       </c>
       <c r="L93" t="s">
-        <v>450</v>
+        <v>488</v>
       </c>
       <c r="M93" t="s">
-        <v>469</v>
+        <v>512</v>
       </c>
       <c r="N93" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="O93" t="s">
-        <v>503</v>
+        <v>549</v>
       </c>
     </row>
     <row r="94">
@@ -5954,43 +6107,513 @@
         <v>1938.0</v>
       </c>
       <c r="C94" t="s">
+        <v>121</v>
+      </c>
+      <c r="D94" t="s">
+        <v>143</v>
+      </c>
+      <c r="E94" t="s">
+        <v>148</v>
+      </c>
+      <c r="F94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G94" t="s">
+        <v>266</v>
+      </c>
+      <c r="H94" t="s">
+        <v>363</v>
+      </c>
+      <c r="I94" t="s">
+        <v>443</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-87.21373353953</v>
+      </c>
+      <c r="K94" t="n">
+        <v>30.4173283716835</v>
+      </c>
+      <c r="L94" t="s">
+        <v>489</v>
+      </c>
+      <c r="M94" t="s">
+        <v>513</v>
+      </c>
+      <c r="N94" t="s">
+        <v>521</v>
+      </c>
+      <c r="O94" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95" t="s">
+        <v>144</v>
+      </c>
+      <c r="E95" t="s">
+        <v>147</v>
+      </c>
+      <c r="F95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G95" t="s">
+        <v>267</v>
+      </c>
+      <c r="H95" t="s">
+        <v>364</v>
+      </c>
+      <c r="I95" t="s">
+        <v>374</v>
+      </c>
+      <c r="J95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O95" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>121</v>
+      </c>
+      <c r="D96" t="s">
+        <v>144</v>
+      </c>
+      <c r="E96" t="s">
+        <v>147</v>
+      </c>
+      <c r="F96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G96" t="s">
+        <v>268</v>
+      </c>
+      <c r="H96" t="s">
+        <v>365</v>
+      </c>
+      <c r="I96" t="s">
+        <v>444</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-81.31442133739978</v>
+      </c>
+      <c r="K96" t="n">
+        <v>29.88895432612814</v>
+      </c>
+      <c r="L96" t="s">
+        <v>490</v>
+      </c>
+      <c r="M96" t="s">
+        <v>514</v>
+      </c>
+      <c r="N96" t="s">
+        <v>521</v>
+      </c>
+      <c r="O96" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>121</v>
+      </c>
+      <c r="D97" t="s">
+        <v>144</v>
+      </c>
+      <c r="E97" t="s">
+        <v>147</v>
+      </c>
+      <c r="F97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G97" t="s">
+        <v>269</v>
+      </c>
+      <c r="H97" t="s">
+        <v>366</v>
+      </c>
+      <c r="I97" t="s">
+        <v>374</v>
+      </c>
+      <c r="J97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O97" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>110</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>121</v>
+      </c>
+      <c r="D98" t="s">
+        <v>145</v>
+      </c>
+      <c r="E98" t="s">
+        <v>147</v>
+      </c>
+      <c r="F98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G98" t="s">
+        <v>270</v>
+      </c>
+      <c r="H98" t="s">
+        <v>367</v>
+      </c>
+      <c r="I98" t="s">
+        <v>445</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-82.67117954274819</v>
+      </c>
+      <c r="K98" t="n">
+        <v>27.764976877558205</v>
+      </c>
+      <c r="L98" t="s">
+        <v>491</v>
+      </c>
+      <c r="M98" t="s">
+        <v>515</v>
+      </c>
+      <c r="N98" t="s">
+        <v>521</v>
+      </c>
+      <c r="O98" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
         <v>111</v>
       </c>
-      <c r="D94" t="s">
-        <v>133</v>
-      </c>
-      <c r="E94" t="s">
-        <v>135</v>
-      </c>
-      <c r="F94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G94" t="s">
-        <v>253</v>
-      </c>
-      <c r="H94" t="s">
-        <v>340</v>
-      </c>
-      <c r="I94" t="s">
-        <v>410</v>
-      </c>
-      <c r="J94" t="n">
-        <v>-87.21373353953004</v>
-      </c>
-      <c r="K94" t="n">
-        <v>30.417328371683503</v>
-      </c>
-      <c r="L94" t="s">
-        <v>451</v>
-      </c>
-      <c r="M94" t="s">
-        <v>470</v>
-      </c>
-      <c r="N94" t="s">
-        <v>475</v>
-      </c>
-      <c r="O94" t="s">
-        <v>504</v>
+      <c r="B99" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>121</v>
+      </c>
+      <c r="D99" t="s">
+        <v>145</v>
+      </c>
+      <c r="E99" t="s">
+        <v>147</v>
+      </c>
+      <c r="F99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G99" t="s">
+        <v>271</v>
+      </c>
+      <c r="H99" t="s">
+        <v>368</v>
+      </c>
+      <c r="I99" t="s">
+        <v>446</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-82.65392154972366</v>
+      </c>
+      <c r="K99" t="n">
+        <v>27.77756216977729</v>
+      </c>
+      <c r="L99" t="s">
+        <v>483</v>
+      </c>
+      <c r="M99" t="s">
+        <v>515</v>
+      </c>
+      <c r="N99" t="s">
+        <v>521</v>
+      </c>
+      <c r="O99" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100" t="s">
+        <v>145</v>
+      </c>
+      <c r="E100" t="s">
+        <v>147</v>
+      </c>
+      <c r="F100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G100" t="s">
+        <v>272</v>
+      </c>
+      <c r="H100" t="s">
+        <v>369</v>
+      </c>
+      <c r="I100" t="s">
+        <v>447</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-82.64731694277427</v>
+      </c>
+      <c r="K100" t="n">
+        <v>27.7684565804156</v>
+      </c>
+      <c r="L100" t="s">
+        <v>492</v>
+      </c>
+      <c r="M100" t="s">
+        <v>515</v>
+      </c>
+      <c r="N100" t="s">
+        <v>521</v>
+      </c>
+      <c r="O100" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>121</v>
+      </c>
+      <c r="D101" t="s">
+        <v>146</v>
+      </c>
+      <c r="E101" t="s">
+        <v>148</v>
+      </c>
+      <c r="F101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G101" t="s">
+        <v>273</v>
+      </c>
+      <c r="H101" t="s">
+        <v>370</v>
+      </c>
+      <c r="I101" t="s">
+        <v>374</v>
+      </c>
+      <c r="J101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O101" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>121</v>
+      </c>
+      <c r="D102" t="s">
+        <v>146</v>
+      </c>
+      <c r="E102" t="s">
+        <v>148</v>
+      </c>
+      <c r="F102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G102" t="s">
+        <v>274</v>
+      </c>
+      <c r="H102" t="s">
+        <v>371</v>
+      </c>
+      <c r="I102" t="s">
+        <v>448</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-82.45533737670763</v>
+      </c>
+      <c r="K102" t="n">
+        <v>28.03697055725273</v>
+      </c>
+      <c r="L102" t="s">
+        <v>493</v>
+      </c>
+      <c r="M102" t="s">
+        <v>516</v>
+      </c>
+      <c r="N102" t="s">
+        <v>521</v>
+      </c>
+      <c r="O102" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>121</v>
+      </c>
+      <c r="D103" t="s">
+        <v>146</v>
+      </c>
+      <c r="E103" t="s">
+        <v>148</v>
+      </c>
+      <c r="F103" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G103" t="s">
+        <v>275</v>
+      </c>
+      <c r="H103" t="s">
+        <v>372</v>
+      </c>
+      <c r="I103" t="s">
+        <v>449</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-82.45416202996856</v>
+      </c>
+      <c r="K103" t="n">
+        <v>27.951475964784862</v>
+      </c>
+      <c r="L103" t="s">
+        <v>494</v>
+      </c>
+      <c r="M103" t="s">
+        <v>516</v>
+      </c>
+      <c r="N103" t="s">
+        <v>521</v>
+      </c>
+      <c r="O103" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>121</v>
+      </c>
+      <c r="D104" t="s">
+        <v>146</v>
+      </c>
+      <c r="E104" t="s">
+        <v>148</v>
+      </c>
+      <c r="F104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G104" t="s">
+        <v>276</v>
+      </c>
+      <c r="H104" t="s">
+        <v>373</v>
+      </c>
+      <c r="I104" t="s">
+        <v>374</v>
+      </c>
+      <c r="J104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O104" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>

--- a/data/greenbook_addresses.xlsx
+++ b/data/greenbook_addresses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="693">
   <si>
     <t xml:space="preserve">greenbook_edition</t>
   </si>
@@ -2042,6 +2042,87 @@
   </si>
   <si>
     <t xml:space="preserve">Chicago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3953 S. Michigan Ave. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">51 St. Michigan Ave.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5048 S. Parkway </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">649 E. 37</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Liberation Mono;Courier New;DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.St. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3449 S. State St.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">409 E. Oakwood Blvd. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6014 S. Park Ave. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">409 Oakwood Blvd. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4259 S. Parkway </t>
+  </si>
+  <si>
+    <t xml:space="preserve">601 E. 36th St. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3763 S. Wabash Ave. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4559 S. Parkway </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3942 Indiana Ave. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">303 N. Pine St. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">503 N. Poplar St. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">120 N. Poplar St. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BH. North St. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Springfield</t>
   </si>
 </sst>
 </file>
@@ -2051,7 +2132,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2073,6 +2154,12 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Liberation Mono;Courier New;DejaVu Sans Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Liberation Mono;Courier New;DejaVu Sans Mono"/>
       <family val="3"/>
@@ -2156,16 +2243,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O141"/>
+  <dimension ref="A1:O164"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C142" activeCellId="0" sqref="C142"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F159" activeCellId="0" sqref="F159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8652,7 +8739,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="1" t="n">
         <v>1938</v>
       </c>
@@ -8664,6 +8751,352 @@
       </c>
       <c r="E141" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>672</v>
       </c>
     </row>
   </sheetData>

--- a/data/greenbook_addresses.xlsx
+++ b/data/greenbook_addresses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="707">
   <si>
     <t xml:space="preserve">greenbook_edition</t>
   </si>
@@ -2123,6 +2123,48 @@
   </si>
   <si>
     <t xml:space="preserve">Springfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130 S. 11th St. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kentucky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louisville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2516 W. Madison </t>
+  </si>
+  <si>
+    <t xml:space="preserve">615 Walnut St. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">528 S. Walnut St. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mammoth Cave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brantsford </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mt. Sterling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E. Locust St. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paducah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51l4 S, 8th St. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">724 Jackson St. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">805 Washington St. </t>
   </si>
 </sst>
 </file>
@@ -2243,10 +2285,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O164"/>
+  <dimension ref="A1:O167"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F159" activeCellId="0" sqref="F159"/>
+      <selection pane="topLeft" activeCell="E164" activeCellId="0" sqref="E164:E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9058,13 +9100,25 @@
       <c r="E159" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="G159" s="2" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="1" t="n">
         <v>1938</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>672</v>
+        <v>694</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9072,31 +9126,119 @@
         <v>1938</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>694</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="1" t="n">
         <v>1938</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>694</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="1" t="n">
         <v>1938</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>672</v>
-      </c>
+        <v>694</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="G163" s="2"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="1" t="n">
         <v>1938</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>672</v>
+        <v>694</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>706</v>
       </c>
     </row>
   </sheetData>

--- a/data/greenbook_addresses.xlsx
+++ b/data/greenbook_addresses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2681" uniqueCount="1345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="1361">
   <si>
     <t xml:space="preserve">greenbook_edition</t>
   </si>
@@ -4127,6 +4127,54 @@
   </si>
   <si>
     <t xml:space="preserve">235 Bloomfield Ave. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78 W. Market St. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">151 Pennslyvania Ave. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">39 Chester Ave. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">506 Washington St. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTAURANTS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">178 Orange St. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">126 West St. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">72 Waverly Pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174 W. Kinny St </t>
+  </si>
+  <si>
+    <t xml:space="preserve">125 Broome St. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">115 Broome St. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broome &amp; W. Kinny Sts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">245 Academy St. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">47 Montgomery St. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">175 Spruce St </t>
   </si>
 </sst>
 </file>
@@ -4237,10 +4285,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O289"/>
+  <dimension ref="A1:O303"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A280" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B286" activeCellId="0" sqref="B286:D289"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A292" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B296" activeCellId="0" sqref="B296:E303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17676,6 +17724,244 @@
       </c>
       <c r="G289" s="1" t="s">
         <v>1344</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B290" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C290" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D290" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E290" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B291" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C291" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D291" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E291" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B292" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C292" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D292" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E292" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B293" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C293" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D293" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E293" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B294" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C294" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D294" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B295" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C295" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D295" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B296" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C296" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D296" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E296" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="G296" s="0" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B297" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C297" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D297" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E297" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B298" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C298" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D298" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E298" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B299" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C299" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D299" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E299" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B300" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C300" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D300" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E300" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B301" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C301" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D301" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E301" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B302" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C302" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D302" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E302" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B303" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C303" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D303" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E303" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>1360</v>
       </c>
     </row>
   </sheetData>

--- a/data/greenbook_addresses.xlsx
+++ b/data/greenbook_addresses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5381" uniqueCount="2436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5377" uniqueCount="2435">
   <si>
     <t>greenbook_edition</t>
   </si>
@@ -6804,9 +6804,6 @@
   </si>
   <si>
     <t>148TH</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>139TH</t>
@@ -7500,13 +7497,13 @@
         <v>2123</v>
       </c>
       <c r="M3" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="N3" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="O3" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="4">
@@ -7547,13 +7544,13 @@
         <v>2124</v>
       </c>
       <c r="M4" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="N4" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="O4" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="5">
@@ -7594,13 +7591,13 @@
         <v>2125</v>
       </c>
       <c r="M5" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="N5" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="O5" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="6">
@@ -7641,13 +7638,13 @@
         <v>2125</v>
       </c>
       <c r="M6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="N6" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="O6" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="7">
@@ -7691,10 +7688,10 @@
         <v>2170</v>
       </c>
       <c r="N7" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="O7" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="8">
@@ -7735,13 +7732,13 @@
         <v>2127</v>
       </c>
       <c r="M8" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="N8" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="O8" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="9">
@@ -7782,13 +7779,13 @@
         <v>2124</v>
       </c>
       <c r="M9" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="N9" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="O9" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="10">
@@ -7829,13 +7826,13 @@
         <v>2124</v>
       </c>
       <c r="M10" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="N10" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="O10" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="11">
@@ -7876,13 +7873,13 @@
         <v>2124</v>
       </c>
       <c r="M11" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="N11" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="O11" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="12">
@@ -7923,13 +7920,13 @@
         <v>2128</v>
       </c>
       <c r="M12" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="N12" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="O12" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="13">
@@ -8111,13 +8108,13 @@
         <v>2129</v>
       </c>
       <c r="M16" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="N16" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="O16" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="17">
@@ -8158,13 +8155,13 @@
         <v>2130</v>
       </c>
       <c r="M17" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="N17" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="O17" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="18">
@@ -8205,13 +8202,13 @@
         <v>2131</v>
       </c>
       <c r="M18" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="N18" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="O18" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="19">
@@ -8346,13 +8343,13 @@
         <v>2132</v>
       </c>
       <c r="M21" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="N21" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="O21" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="22">
@@ -8440,13 +8437,13 @@
         <v>2133</v>
       </c>
       <c r="M23" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="N23" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="O23" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="24">
@@ -8487,13 +8484,13 @@
         <v>2134</v>
       </c>
       <c r="M24" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="N24" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="O24" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="25">
@@ -8534,13 +8531,13 @@
         <v>2135</v>
       </c>
       <c r="M25" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="N25" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="O25" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="26">
@@ -8628,13 +8625,13 @@
         <v>2136</v>
       </c>
       <c r="M27" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="N27" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="O27" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="28">
@@ -8675,13 +8672,13 @@
         <v>2137</v>
       </c>
       <c r="M28" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="N28" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="O28" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="29">
@@ -8769,13 +8766,13 @@
         <v>2126</v>
       </c>
       <c r="M30" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="N30" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="O30" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="31">
@@ -8816,13 +8813,13 @@
         <v>2138</v>
       </c>
       <c r="M31" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="N31" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="O31" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="32">
@@ -8863,13 +8860,13 @@
         <v>2139</v>
       </c>
       <c r="M32" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="N32" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="O32" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="33">
@@ -8957,13 +8954,13 @@
         <v>2140</v>
       </c>
       <c r="M34" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="N34" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="O34" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="35">
@@ -9004,13 +9001,13 @@
         <v>2141</v>
       </c>
       <c r="M35" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="N35" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="O35" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="36">
@@ -9051,13 +9048,13 @@
         <v>2142</v>
       </c>
       <c r="M36" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="N36" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="O36" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="37">
@@ -9098,13 +9095,13 @@
         <v>2142</v>
       </c>
       <c r="M37" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="N37" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="O37" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="38">
@@ -9145,13 +9142,13 @@
         <v>2142</v>
       </c>
       <c r="M38" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="N38" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="O38" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="39">
@@ -9239,13 +9236,13 @@
         <v>2143</v>
       </c>
       <c r="M40" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="N40" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="O40" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="41">
@@ -9333,13 +9330,13 @@
         <v>2144</v>
       </c>
       <c r="M42" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="N42" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="O42" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="43">
@@ -9380,13 +9377,13 @@
         <v>2145</v>
       </c>
       <c r="M43" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="N43" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="O43" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="44">
@@ -9427,13 +9424,13 @@
         <v>2145</v>
       </c>
       <c r="M44" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="N44" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="O44" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="45">
@@ -9521,13 +9518,13 @@
         <v>2146</v>
       </c>
       <c r="M46" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="N46" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="O46" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="47">
@@ -9568,13 +9565,13 @@
         <v>2147</v>
       </c>
       <c r="M47" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="N47" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="O47" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="48">
@@ -9709,13 +9706,13 @@
         <v>2148</v>
       </c>
       <c r="M50" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="N50" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="O50" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="51">
@@ -9756,13 +9753,13 @@
         <v>2148</v>
       </c>
       <c r="M51" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="N51" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="O51" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="52">
@@ -9803,13 +9800,13 @@
         <v>2148</v>
       </c>
       <c r="M52" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="N52" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="O52" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="53">
@@ -9850,13 +9847,13 @@
         <v>2148</v>
       </c>
       <c r="M53" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="N53" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="O53" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="54">
@@ -9897,13 +9894,13 @@
         <v>2148</v>
       </c>
       <c r="M54" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="N54" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="O54" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="55">
@@ -10273,13 +10270,13 @@
         <v>2149</v>
       </c>
       <c r="M62" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="N62" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="O62" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="63">
@@ -10320,13 +10317,13 @@
         <v>2133</v>
       </c>
       <c r="M63" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="N63" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="O63" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="64">
@@ -10367,13 +10364,13 @@
         <v>2150</v>
       </c>
       <c r="M64" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="N64" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="O64" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="65">
@@ -10414,13 +10411,13 @@
         <v>2149</v>
       </c>
       <c r="M65" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="N65" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="O65" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="66">
@@ -10511,10 +10508,10 @@
         <v>2187</v>
       </c>
       <c r="N67" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="O67" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="68">
@@ -10558,10 +10555,10 @@
         <v>2187</v>
       </c>
       <c r="N68" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="O68" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="69">
@@ -10605,10 +10602,10 @@
         <v>2187</v>
       </c>
       <c r="N69" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="O69" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="70">
@@ -10652,10 +10649,10 @@
         <v>2187</v>
       </c>
       <c r="N70" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="O70" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="71">
@@ -10699,10 +10696,10 @@
         <v>2187</v>
       </c>
       <c r="N71" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="O71" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="72">
@@ -10746,10 +10743,10 @@
         <v>2187</v>
       </c>
       <c r="N72" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="O72" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="73">
@@ -10793,10 +10790,10 @@
         <v>2187</v>
       </c>
       <c r="N73" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="O73" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="74">
@@ -10840,10 +10837,10 @@
         <v>2187</v>
       </c>
       <c r="N74" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="O74" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="75">
@@ -10887,10 +10884,10 @@
         <v>2187</v>
       </c>
       <c r="N75" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="O75" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="76">
@@ -10934,10 +10931,10 @@
         <v>2187</v>
       </c>
       <c r="N76" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="O76" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="77">
@@ -10981,10 +10978,10 @@
         <v>2187</v>
       </c>
       <c r="N77" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="O77" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="78">
@@ -11028,10 +11025,10 @@
         <v>2187</v>
       </c>
       <c r="N78" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="O78" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="79">
@@ -11075,10 +11072,10 @@
         <v>2187</v>
       </c>
       <c r="N79" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="O79" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="80">
@@ -11122,10 +11119,10 @@
         <v>2187</v>
       </c>
       <c r="N80" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="O80" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="81">
@@ -11169,10 +11166,10 @@
         <v>2187</v>
       </c>
       <c r="N81" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="O81" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="82">
@@ -11263,10 +11260,10 @@
         <v>2187</v>
       </c>
       <c r="N83" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="O83" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="84">
@@ -11307,13 +11304,13 @@
         <v>2136</v>
       </c>
       <c r="M84" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="N84" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="O84" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="85">
@@ -11354,13 +11351,13 @@
         <v>2158</v>
       </c>
       <c r="M85" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="N85" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="O85" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="86">
@@ -11401,13 +11398,13 @@
         <v>2158</v>
       </c>
       <c r="M86" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="N86" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="O86" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="87">
@@ -11448,13 +11445,13 @@
         <v>2136</v>
       </c>
       <c r="M87" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="N87" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="O87" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="88">
@@ -11495,13 +11492,13 @@
         <v>2126</v>
       </c>
       <c r="M88" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="N88" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="O88" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="89">
@@ -11542,13 +11539,13 @@
         <v>2159</v>
       </c>
       <c r="M89" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="N89" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="O89" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="90">
@@ -11589,13 +11586,13 @@
         <v>630</v>
       </c>
       <c r="M90" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="N90" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="O90" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="91">
@@ -11636,13 +11633,13 @@
         <v>2153</v>
       </c>
       <c r="M91" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="N91" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="O91" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="92">
@@ -11683,13 +11680,13 @@
         <v>2160</v>
       </c>
       <c r="M92" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="N92" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="O92" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="93">
@@ -11730,13 +11727,13 @@
         <v>2160</v>
       </c>
       <c r="M93" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="N93" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="O93" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="94">
@@ -11777,13 +11774,13 @@
         <v>2161</v>
       </c>
       <c r="M94" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="N94" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="O94" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="95">
@@ -11871,13 +11868,13 @@
         <v>2162</v>
       </c>
       <c r="M96" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="N96" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="O96" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="97">
@@ -11965,13 +11962,13 @@
         <v>#N/A</v>
       </c>
       <c r="M98" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="N98" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="O98" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="99">
@@ -12012,13 +12009,13 @@
         <v>2156</v>
       </c>
       <c r="M99" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="N99" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="O99" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="100">
@@ -12059,13 +12056,13 @@
         <v>2163</v>
       </c>
       <c r="M100" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="N100" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="O100" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="101">
@@ -12153,13 +12150,13 @@
         <v>2164</v>
       </c>
       <c r="M102" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="N102" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="O102" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="103">
@@ -12200,13 +12197,13 @@
         <v>2165</v>
       </c>
       <c r="M103" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="N103" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="O103" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="104">
@@ -12294,13 +12291,13 @@
         <v>2166</v>
       </c>
       <c r="M105" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="N105" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="O105" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="106">
@@ -12388,13 +12385,13 @@
         <v>2166</v>
       </c>
       <c r="M107" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="N107" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="O107" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="108">
@@ -12435,13 +12432,13 @@
         <v>2167</v>
       </c>
       <c r="M108" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="N108" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="O108" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="109">
@@ -12482,13 +12479,13 @@
         <v>2168</v>
       </c>
       <c r="M109" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="N109" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="O109" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="110">
@@ -12529,13 +12526,13 @@
         <v>2168</v>
       </c>
       <c r="M110" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="N110" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="O110" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="111">
@@ -12623,13 +12620,13 @@
         <v>2169</v>
       </c>
       <c r="M112" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="N112" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="O112" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="113">
@@ -12764,13 +12761,13 @@
         <v>2168</v>
       </c>
       <c r="M115" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="N115" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="O115" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="116">
@@ -12811,13 +12808,13 @@
         <v>2170</v>
       </c>
       <c r="M116" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="N116" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="O116" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="117">
@@ -12858,13 +12855,13 @@
         <v>#N/A</v>
       </c>
       <c r="M117" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="N117" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="O117" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="118">
@@ -13140,13 +13137,13 @@
         <v>2171</v>
       </c>
       <c r="M123" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="N123" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="O123" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="124">
@@ -13234,13 +13231,13 @@
         <v>2171</v>
       </c>
       <c r="M125" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="N125" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="O125" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="126">
@@ -13281,13 +13278,13 @@
         <v>2171</v>
       </c>
       <c r="M126" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="N126" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="O126" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="127">
@@ -13328,13 +13325,13 @@
         <v>2172</v>
       </c>
       <c r="M127" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="N127" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="O127" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="128">
@@ -13563,13 +13560,13 @@
         <v>2173</v>
       </c>
       <c r="M132" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="N132" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="O132" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="133">
@@ -13610,13 +13607,13 @@
         <v>2173</v>
       </c>
       <c r="M133" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="N133" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="O133" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="134">
@@ -13657,13 +13654,13 @@
         <v>2174</v>
       </c>
       <c r="M134" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="N134" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="O134" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="135">
@@ -13704,13 +13701,13 @@
         <v>2174</v>
       </c>
       <c r="M135" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="N135" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="O135" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="136">
@@ -13751,13 +13748,13 @@
         <v>2175</v>
       </c>
       <c r="M136" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="N136" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="O136" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="137">
@@ -13798,13 +13795,13 @@
         <v>2174</v>
       </c>
       <c r="M137" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="N137" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="O137" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="138">
@@ -13892,13 +13889,13 @@
         <v>2176</v>
       </c>
       <c r="M139" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="N139" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="O139" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="140">
@@ -13939,13 +13936,13 @@
         <v>2176</v>
       </c>
       <c r="M140" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="N140" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="O140" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="141">
@@ -13986,13 +13983,13 @@
         <v>2177</v>
       </c>
       <c r="M141" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="N141" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="O141" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="142">
@@ -14033,13 +14030,13 @@
         <v>2177</v>
       </c>
       <c r="M142" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="N142" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="O142" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="143">
@@ -14127,13 +14124,13 @@
         <v>2178</v>
       </c>
       <c r="M144" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="N144" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="O144" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="145">
@@ -14174,13 +14171,13 @@
         <v>2179</v>
       </c>
       <c r="M145" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="N145" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="O145" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="146">
@@ -14221,13 +14218,13 @@
         <v>2180</v>
       </c>
       <c r="M146" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="N146" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="O146" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="147">
@@ -14315,13 +14312,13 @@
         <v>2180</v>
       </c>
       <c r="M148" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="N148" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="O148" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="149">
@@ -14409,13 +14406,13 @@
         <v>2181</v>
       </c>
       <c r="M150" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="N150" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="O150" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="151">
@@ -14456,13 +14453,13 @@
         <v>2182</v>
       </c>
       <c r="M151" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="N151" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="O151" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="152">
@@ -14550,13 +14547,13 @@
         <v>2183</v>
       </c>
       <c r="M153" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="N153" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="O153" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="154">
@@ -14832,13 +14829,13 @@
         <v>2184</v>
       </c>
       <c r="M159" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="N159" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="O159" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="160">
@@ -14879,13 +14876,13 @@
         <v>2185</v>
       </c>
       <c r="M160" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="N160" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="O160" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="161">
@@ -14973,13 +14970,13 @@
         <v>2186</v>
       </c>
       <c r="M162" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="N162" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="O162" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="163">
@@ -15161,13 +15158,13 @@
         <v>2167</v>
       </c>
       <c r="M166" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="N166" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="O166" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="167">
@@ -15208,13 +15205,13 @@
         <v>2187</v>
       </c>
       <c r="M167" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="N167" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="O167" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="168">
@@ -15255,13 +15252,13 @@
         <v>2188</v>
       </c>
       <c r="M168" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="N168" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="O168" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="169">
@@ -15349,13 +15346,13 @@
         <v>2188</v>
       </c>
       <c r="M170" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="N170" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="O170" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="171">
@@ -15490,13 +15487,13 @@
         <v>2189</v>
       </c>
       <c r="M173" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="N173" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="O173" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="174">
@@ -15537,13 +15534,13 @@
         <v>2190</v>
       </c>
       <c r="M174" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="N174" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="O174" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="175">
@@ -15634,10 +15631,10 @@
         <v>2223</v>
       </c>
       <c r="N176" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="O176" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="177">
@@ -15681,10 +15678,10 @@
         <v>2223</v>
       </c>
       <c r="N177" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="O177" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="178">
@@ -15728,10 +15725,10 @@
         <v>2223</v>
       </c>
       <c r="N178" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="O178" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="179">
@@ -15775,10 +15772,10 @@
         <v>2223</v>
       </c>
       <c r="N179" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="O179" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="180">
@@ -15822,10 +15819,10 @@
         <v>2223</v>
       </c>
       <c r="N180" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="O180" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="181">
@@ -15869,10 +15866,10 @@
         <v>2223</v>
       </c>
       <c r="N181" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="O181" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="182">
@@ -15916,10 +15913,10 @@
         <v>2223</v>
       </c>
       <c r="N182" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="O182" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="183">
@@ -15963,10 +15960,10 @@
         <v>2223</v>
       </c>
       <c r="N183" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="O183" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="184">
@@ -16010,10 +16007,10 @@
         <v>2223</v>
       </c>
       <c r="N184" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="O184" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="185">
@@ -16054,13 +16051,13 @@
         <v>2195</v>
       </c>
       <c r="M185" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="N185" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="O185" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="186">
@@ -16101,13 +16098,13 @@
         <v>2156</v>
       </c>
       <c r="M186" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="N186" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="O186" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="187">
@@ -16148,13 +16145,13 @@
         <v>2196</v>
       </c>
       <c r="M187" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="N187" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="O187" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="188">
@@ -16195,13 +16192,13 @@
         <v>2197</v>
       </c>
       <c r="M188" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="N188" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="O188" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="189">
@@ -16289,13 +16286,13 @@
         <v>2198</v>
       </c>
       <c r="M190" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="N190" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="O190" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="191">
@@ -16386,10 +16383,10 @@
         <v>2237</v>
       </c>
       <c r="N192" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="O192" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="193">
@@ -16433,10 +16430,10 @@
         <v>2237</v>
       </c>
       <c r="N193" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="O193" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="194">
@@ -16477,13 +16474,13 @@
         <v>2201</v>
       </c>
       <c r="M194" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="N194" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="O194" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="195">
@@ -16618,13 +16615,13 @@
         <v>618</v>
       </c>
       <c r="M197" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="N197" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="O197" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="198">
@@ -16665,13 +16662,13 @@
         <v>2185</v>
       </c>
       <c r="M198" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="N198" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="O198" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="199">
@@ -16712,13 +16709,13 @@
         <v>2202</v>
       </c>
       <c r="M199" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="N199" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="O199" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="200">
@@ -17041,13 +17038,13 @@
         <v>2203</v>
       </c>
       <c r="M206" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="N206" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O206" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="207">
@@ -17088,13 +17085,13 @@
         <v>2204</v>
       </c>
       <c r="M207" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N207" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O207" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="208">
@@ -17135,13 +17132,13 @@
         <v>2205</v>
       </c>
       <c r="M208" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N208" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O208" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="209">
@@ -17182,13 +17179,13 @@
         <v>2205</v>
       </c>
       <c r="M209" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N209" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O209" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="210">
@@ -17229,13 +17226,13 @@
         <v>2204</v>
       </c>
       <c r="M210" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N210" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O210" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="211">
@@ -17276,13 +17273,13 @@
         <v>2206</v>
       </c>
       <c r="M211" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N211" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O211" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="212">
@@ -17323,13 +17320,13 @@
         <v>2207</v>
       </c>
       <c r="M212" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N212" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O212" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="213">
@@ -17417,13 +17414,13 @@
         <v>2205</v>
       </c>
       <c r="M214" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N214" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O214" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="215">
@@ -17464,13 +17461,13 @@
         <v>2208</v>
       </c>
       <c r="M215" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N215" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O215" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="216">
@@ -17511,13 +17508,13 @@
         <v>2208</v>
       </c>
       <c r="M216" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N216" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O216" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="217">
@@ -17558,13 +17555,13 @@
         <v>2209</v>
       </c>
       <c r="M217" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N217" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O217" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="218">
@@ -17605,13 +17602,13 @@
         <v>2209</v>
       </c>
       <c r="M218" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N218" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O218" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="219">
@@ -17746,13 +17743,13 @@
         <v>2204</v>
       </c>
       <c r="M221" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N221" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O221" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="222">
@@ -17793,13 +17790,13 @@
         <v>2204</v>
       </c>
       <c r="M222" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N222" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O222" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="223">
@@ -17840,13 +17837,13 @@
         <v>2204</v>
       </c>
       <c r="M223" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N223" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O223" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="224">
@@ -17887,13 +17884,13 @@
         <v>2204</v>
       </c>
       <c r="M224" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N224" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O224" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="225">
@@ -17934,13 +17931,13 @@
         <v>2204</v>
       </c>
       <c r="M225" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N225" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O225" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="226">
@@ -17981,13 +17978,13 @@
         <v>2204</v>
       </c>
       <c r="M226" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N226" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O226" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="227">
@@ -18028,13 +18025,13 @@
         <v>2204</v>
       </c>
       <c r="M227" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N227" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O227" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="228">
@@ -18075,13 +18072,13 @@
         <v>2204</v>
       </c>
       <c r="M228" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N228" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O228" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="229">
@@ -18122,13 +18119,13 @@
         <v>2204</v>
       </c>
       <c r="M229" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N229" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O229" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="230">
@@ -18169,13 +18166,13 @@
         <v>2204</v>
       </c>
       <c r="M230" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N230" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O230" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="231">
@@ -18216,13 +18213,13 @@
         <v>2204</v>
       </c>
       <c r="M231" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N231" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O231" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="232">
@@ -18263,13 +18260,13 @@
         <v>2210</v>
       </c>
       <c r="M232" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N232" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O232" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="233">
@@ -18310,13 +18307,13 @@
         <v>2204</v>
       </c>
       <c r="M233" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N233" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O233" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="234">
@@ -18357,13 +18354,13 @@
         <v>2211</v>
       </c>
       <c r="M234" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="N234" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O234" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="235">
@@ -18404,13 +18401,13 @@
         <v>2212</v>
       </c>
       <c r="M235" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="N235" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O235" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="236">
@@ -18451,13 +18448,13 @@
         <v>#N/A</v>
       </c>
       <c r="M236" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="N236" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O236" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="237">
@@ -18498,13 +18495,13 @@
         <v>2213</v>
       </c>
       <c r="M237" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="N237" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O237" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="238">
@@ -18545,13 +18542,13 @@
         <v>2214</v>
       </c>
       <c r="M238" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="N238" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O238" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="239">
@@ -18592,13 +18589,13 @@
         <v>2213</v>
       </c>
       <c r="M239" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="N239" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O239" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="240">
@@ -18639,13 +18636,13 @@
         <v>2215</v>
       </c>
       <c r="M240" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="N240" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O240" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="241">
@@ -18733,13 +18730,13 @@
         <v>2213</v>
       </c>
       <c r="M242" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="N242" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O242" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="243">
@@ -18921,13 +18918,13 @@
         <v>#N/A</v>
       </c>
       <c r="M246" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="N246" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O246" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="247">
@@ -18971,10 +18968,10 @@
         <v>614</v>
       </c>
       <c r="N247" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O247" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="248">
@@ -19065,10 +19062,10 @@
         <v>614</v>
       </c>
       <c r="N249" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O249" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="250">
@@ -19112,10 +19109,10 @@
         <v>614</v>
       </c>
       <c r="N250" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O250" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="251">
@@ -19250,13 +19247,13 @@
         <v>2217</v>
       </c>
       <c r="M253" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="N253" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O253" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="254">
@@ -19300,10 +19297,10 @@
         <v>630</v>
       </c>
       <c r="N254" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O254" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="255">
@@ -19347,10 +19344,10 @@
         <v>618</v>
       </c>
       <c r="N255" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O255" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="256">
@@ -19394,10 +19391,10 @@
         <v>618</v>
       </c>
       <c r="N256" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O256" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="257">
@@ -19441,10 +19438,10 @@
         <v>618</v>
       </c>
       <c r="N257" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O257" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="258">
@@ -19488,10 +19485,10 @@
         <v>618</v>
       </c>
       <c r="N258" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O258" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="259">
@@ -19535,10 +19532,10 @@
         <v>618</v>
       </c>
       <c r="N259" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O259" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="260">
@@ -19582,10 +19579,10 @@
         <v>619</v>
       </c>
       <c r="N260" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O260" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="261">
@@ -19629,10 +19626,10 @@
         <v>619</v>
       </c>
       <c r="N261" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O261" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="262">
@@ -19673,13 +19670,13 @@
         <v>2175</v>
       </c>
       <c r="M262" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="N262" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O262" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="263">
@@ -19720,13 +19717,13 @@
         <v>2175</v>
       </c>
       <c r="M263" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="N263" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O263" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="264">
@@ -19767,13 +19764,13 @@
         <v>2164</v>
       </c>
       <c r="M264" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="N264" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O264" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="265">
@@ -19814,13 +19811,13 @@
         <v>2175</v>
       </c>
       <c r="M265" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="N265" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O265" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="266">
@@ -19861,13 +19858,13 @@
         <v>2164</v>
       </c>
       <c r="M266" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="N266" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O266" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="267">
@@ -19908,13 +19905,13 @@
         <v>2175</v>
       </c>
       <c r="M267" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="N267" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O267" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="268">
@@ -19955,13 +19952,13 @@
         <v>2164</v>
       </c>
       <c r="M268" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="N268" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O268" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="269">
@@ -20287,10 +20284,10 @@
         <v>624</v>
       </c>
       <c r="N275" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O275" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="276">
@@ -20334,10 +20331,10 @@
         <v>625</v>
       </c>
       <c r="N276" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O276" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="277">
@@ -20381,10 +20378,10 @@
         <v>625</v>
       </c>
       <c r="N277" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O277" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="278">
@@ -20475,10 +20472,10 @@
         <v>625</v>
       </c>
       <c r="N279" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O279" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="280">
@@ -20569,10 +20566,10 @@
         <v>625</v>
       </c>
       <c r="N281" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O281" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="282">
@@ -20660,13 +20657,13 @@
         <v>2225</v>
       </c>
       <c r="M283" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N283" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O283" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="284">
@@ -20710,10 +20707,10 @@
         <v>2225</v>
       </c>
       <c r="N284" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O284" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="285">
@@ -20757,10 +20754,10 @@
         <v>2225</v>
       </c>
       <c r="N285" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O285" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="286">
@@ -20804,10 +20801,10 @@
         <v>627</v>
       </c>
       <c r="N286" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O286" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="287">
@@ -20851,10 +20848,10 @@
         <v>2225</v>
       </c>
       <c r="N287" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O287" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="288">
@@ -20898,10 +20895,10 @@
         <v>2225</v>
       </c>
       <c r="N288" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O288" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="289">
@@ -20942,13 +20939,13 @@
         <v>2225</v>
       </c>
       <c r="M289" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N289" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O289" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="290">
@@ -20989,13 +20986,13 @@
         <v>2226</v>
       </c>
       <c r="M290" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N290" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O290" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="291">
@@ -21036,13 +21033,13 @@
         <v>2193</v>
       </c>
       <c r="M291" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N291" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O291" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="292">
@@ -21083,13 +21080,13 @@
         <v>2227</v>
       </c>
       <c r="M292" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N292" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O292" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="293">
@@ -21130,13 +21127,13 @@
         <v>2187</v>
       </c>
       <c r="M293" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N293" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O293" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="294">
@@ -21177,13 +21174,13 @@
         <v>630</v>
       </c>
       <c r="M294" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N294" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O294" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="295">
@@ -21318,13 +21315,13 @@
         <v>2228</v>
       </c>
       <c r="M297" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N297" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O297" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="298">
@@ -21365,13 +21362,13 @@
         <v>2229</v>
       </c>
       <c r="M298" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N298" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O298" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="299">
@@ -21412,13 +21409,13 @@
         <v>2229</v>
       </c>
       <c r="M299" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N299" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O299" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="300">
@@ -21506,13 +21503,13 @@
         <v>2230</v>
       </c>
       <c r="M301" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N301" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O301" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="302">
@@ -21553,13 +21550,13 @@
         <v>2231</v>
       </c>
       <c r="M302" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N302" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O302" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="303">
@@ -21600,13 +21597,13 @@
         <v>2232</v>
       </c>
       <c r="M303" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N303" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O303" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="304">
@@ -21647,13 +21644,13 @@
         <v>630</v>
       </c>
       <c r="M304" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N304" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O304" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="305">
@@ -21694,13 +21691,13 @@
         <v>630</v>
       </c>
       <c r="M305" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N305" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O305" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="306">
@@ -21788,13 +21785,13 @@
         <v>2228</v>
       </c>
       <c r="M307" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N307" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O307" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="308">
@@ -21835,13 +21832,13 @@
         <v>2128</v>
       </c>
       <c r="M308" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N308" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O308" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="309">
@@ -21882,13 +21879,13 @@
         <v>2233</v>
       </c>
       <c r="M309" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N309" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O309" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="310">
@@ -21929,13 +21926,13 @@
         <v>2234</v>
       </c>
       <c r="M310" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N310" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O310" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="311">
@@ -22023,13 +22020,13 @@
         <v>2235</v>
       </c>
       <c r="M312" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N312" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O312" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="313">
@@ -22070,13 +22067,13 @@
         <v>2236</v>
       </c>
       <c r="M313" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N313" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O313" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="314">
@@ -22117,13 +22114,13 @@
         <v>2228</v>
       </c>
       <c r="M314" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N314" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O314" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="315">
@@ -22164,13 +22161,13 @@
         <v>2228</v>
       </c>
       <c r="M315" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N315" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O315" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="316">
@@ -22211,13 +22208,13 @@
         <v>2236</v>
       </c>
       <c r="M316" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N316" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O316" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="317">
@@ -22258,13 +22255,13 @@
         <v>2237</v>
       </c>
       <c r="M317" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N317" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O317" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="318">
@@ -22305,13 +22302,13 @@
         <v>2238</v>
       </c>
       <c r="M318" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N318" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O318" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="319">
@@ -22399,13 +22396,13 @@
         <v>2239</v>
       </c>
       <c r="M320" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N320" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O320" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="321">
@@ -22446,13 +22443,13 @@
         <v>2187</v>
       </c>
       <c r="M321" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N321" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O321" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="322">
@@ -22493,13 +22490,13 @@
         <v>2232</v>
       </c>
       <c r="M322" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N322" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O322" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="323">
@@ -22540,13 +22537,13 @@
         <v>2232</v>
       </c>
       <c r="M323" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N323" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O323" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="324">
@@ -22637,10 +22634,10 @@
         <v>630</v>
       </c>
       <c r="N325" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O325" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="326">
@@ -22731,10 +22728,10 @@
         <v>630</v>
       </c>
       <c r="N327" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O327" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="328">
@@ -22778,10 +22775,10 @@
         <v>631</v>
       </c>
       <c r="N328" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O328" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="329">
@@ -22872,10 +22869,10 @@
         <v>632</v>
       </c>
       <c r="N330" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O330" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="331">
@@ -22919,10 +22916,10 @@
         <v>632</v>
       </c>
       <c r="N331" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O331" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="332">
@@ -23010,13 +23007,13 @@
         <v>2175</v>
       </c>
       <c r="M333" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="N333" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O333" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="334">
@@ -23104,13 +23101,13 @@
         <v>2244</v>
       </c>
       <c r="M335" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="N335" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O335" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="336">
@@ -23154,10 +23151,10 @@
         <v>637</v>
       </c>
       <c r="N336" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O336" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="337">
@@ -23201,10 +23198,10 @@
         <v>637</v>
       </c>
       <c r="N337" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O337" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="338">
@@ -23248,10 +23245,10 @@
         <v>637</v>
       </c>
       <c r="N338" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O338" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="339">
@@ -23295,10 +23292,10 @@
         <v>637</v>
       </c>
       <c r="N339" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O339" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="340">
@@ -23342,10 +23339,10 @@
         <v>637</v>
       </c>
       <c r="N340" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O340" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="341">
@@ -23389,10 +23386,10 @@
         <v>637</v>
       </c>
       <c r="N341" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O341" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="342">
@@ -23436,10 +23433,10 @@
         <v>637</v>
       </c>
       <c r="N342" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O342" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="343">
@@ -23668,13 +23665,13 @@
         <v>2248</v>
       </c>
       <c r="M347" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="N347" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O347" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="348">
@@ -23809,13 +23806,13 @@
         <v>2177</v>
       </c>
       <c r="M350" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="N350" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O350" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="351">
@@ -23856,13 +23853,13 @@
         <v>2177</v>
       </c>
       <c r="M351" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="N351" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O351" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="352">
@@ -23903,13 +23900,13 @@
         <v>2249</v>
       </c>
       <c r="M352" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="N352" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O352" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="353">
@@ -23950,13 +23947,13 @@
         <v>2250</v>
       </c>
       <c r="M353" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N353" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O353" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="354">
@@ -23997,13 +23994,13 @@
         <v>#N/A</v>
       </c>
       <c r="M354" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N354" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O354" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="355">
@@ -24044,13 +24041,13 @@
         <v>2251</v>
       </c>
       <c r="M355" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N355" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O355" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="356">
@@ -24091,13 +24088,13 @@
         <v>2252</v>
       </c>
       <c r="M356" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N356" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O356" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="357">
@@ -24138,13 +24135,13 @@
         <v>2253</v>
       </c>
       <c r="M357" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N357" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O357" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="358">
@@ -24185,13 +24182,13 @@
         <v>2254</v>
       </c>
       <c r="M358" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N358" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O358" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="359">
@@ -24232,13 +24229,13 @@
         <v>2252</v>
       </c>
       <c r="M359" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N359" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O359" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="360">
@@ -24279,13 +24276,13 @@
         <v>2250</v>
       </c>
       <c r="M360" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N360" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O360" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="361">
@@ -24373,13 +24370,13 @@
         <v>2252</v>
       </c>
       <c r="M362" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N362" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O362" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="363">
@@ -24420,13 +24417,13 @@
         <v>2253</v>
       </c>
       <c r="M363" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N363" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O363" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="364">
@@ -24467,13 +24464,13 @@
         <v>2255</v>
       </c>
       <c r="M364" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N364" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O364" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="365">
@@ -24514,13 +24511,13 @@
         <v>2250</v>
       </c>
       <c r="M365" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N365" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O365" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="366">
@@ -24561,13 +24558,13 @@
         <v>2256</v>
       </c>
       <c r="M366" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N366" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O366" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="367">
@@ -24608,13 +24605,13 @@
         <v>2252</v>
       </c>
       <c r="M367" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N367" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O367" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="368">
@@ -24655,13 +24652,13 @@
         <v>2250</v>
       </c>
       <c r="M368" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N368" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O368" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="369">
@@ -24702,13 +24699,13 @@
         <v>#N/A</v>
       </c>
       <c r="M369" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N369" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O369" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="370">
@@ -24749,13 +24746,13 @@
         <v>2254</v>
       </c>
       <c r="M370" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N370" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O370" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="371">
@@ -24796,13 +24793,13 @@
         <v>2257</v>
       </c>
       <c r="M371" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N371" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O371" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="372">
@@ -24843,13 +24840,13 @@
         <v>2257</v>
       </c>
       <c r="M372" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N372" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O372" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="373">
@@ -24890,13 +24887,13 @@
         <v>2254</v>
       </c>
       <c r="M373" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N373" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O373" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="374">
@@ -24937,13 +24934,13 @@
         <v>2257</v>
       </c>
       <c r="M374" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N374" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O374" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="375">
@@ -24984,13 +24981,13 @@
         <v>2250</v>
       </c>
       <c r="M375" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N375" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O375" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="376">
@@ -25031,13 +25028,13 @@
         <v>2256</v>
       </c>
       <c r="M376" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N376" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O376" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="377">
@@ -25078,13 +25075,13 @@
         <v>2250</v>
       </c>
       <c r="M377" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N377" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O377" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="378">
@@ -25125,13 +25122,13 @@
         <v>2258</v>
       </c>
       <c r="M378" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N378" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O378" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="379">
@@ -25172,13 +25169,13 @@
         <v>2259</v>
       </c>
       <c r="M379" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N379" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O379" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="380">
@@ -25219,13 +25216,13 @@
         <v>2250</v>
       </c>
       <c r="M380" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N380" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O380" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="381">
@@ -25266,13 +25263,13 @@
         <v>2256</v>
       </c>
       <c r="M381" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N381" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O381" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="382">
@@ -25313,13 +25310,13 @@
         <v>2260</v>
       </c>
       <c r="M382" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N382" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O382" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="383">
@@ -25360,13 +25357,13 @@
         <v>2254</v>
       </c>
       <c r="M383" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N383" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O383" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="384">
@@ -25407,13 +25404,13 @@
         <v>2254</v>
       </c>
       <c r="M384" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N384" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O384" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="385">
@@ -25454,13 +25451,13 @@
         <v>2250</v>
       </c>
       <c r="M385" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N385" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O385" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="386">
@@ -25501,13 +25498,13 @@
         <v>2260</v>
       </c>
       <c r="M386" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N386" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O386" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="387">
@@ -25548,13 +25545,13 @@
         <v>2256</v>
       </c>
       <c r="M387" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N387" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O387" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="388">
@@ -25595,13 +25592,13 @@
         <v>2250</v>
       </c>
       <c r="M388" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N388" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O388" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="389">
@@ -25642,13 +25639,13 @@
         <v>2250</v>
       </c>
       <c r="M389" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N389" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O389" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="390">
@@ -25689,13 +25686,13 @@
         <v>#N/A</v>
       </c>
       <c r="M390" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N390" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O390" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="391">
@@ -25736,13 +25733,13 @@
         <v>2250</v>
       </c>
       <c r="M391" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N391" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O391" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="392">
@@ -25783,13 +25780,13 @@
         <v>2254</v>
       </c>
       <c r="M392" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N392" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O392" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="393">
@@ -25830,13 +25827,13 @@
         <v>2256</v>
       </c>
       <c r="M393" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N393" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O393" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="394">
@@ -25877,13 +25874,13 @@
         <v>2250</v>
       </c>
       <c r="M394" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N394" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O394" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="395">
@@ -25924,13 +25921,13 @@
         <v>2256</v>
       </c>
       <c r="M395" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N395" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O395" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="396">
@@ -25971,13 +25968,13 @@
         <v>2261</v>
       </c>
       <c r="M396" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N396" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O396" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="397">
@@ -26018,13 +26015,13 @@
         <v>2250</v>
       </c>
       <c r="M397" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N397" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O397" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="398">
@@ -26065,13 +26062,13 @@
         <v>2256</v>
       </c>
       <c r="M398" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N398" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O398" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="399">
@@ -26112,13 +26109,13 @@
         <v>2259</v>
       </c>
       <c r="M399" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N399" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O399" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="400">
@@ -26159,13 +26156,13 @@
         <v>2250</v>
       </c>
       <c r="M400" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N400" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O400" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="401">
@@ -26206,13 +26203,13 @@
         <v>2261</v>
       </c>
       <c r="M401" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N401" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O401" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="402">
@@ -26253,13 +26250,13 @@
         <v>2257</v>
       </c>
       <c r="M402" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N402" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O402" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="403">
@@ -26300,13 +26297,13 @@
         <v>2261</v>
       </c>
       <c r="M403" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N403" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O403" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="404">
@@ -26347,13 +26344,13 @@
         <v>#N/A</v>
       </c>
       <c r="M404" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N404" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O404" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="405">
@@ -26394,13 +26391,13 @@
         <v>2256</v>
       </c>
       <c r="M405" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N405" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O405" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="406">
@@ -26441,13 +26438,13 @@
         <v>2250</v>
       </c>
       <c r="M406" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N406" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O406" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="407">
@@ -26488,13 +26485,13 @@
         <v>2250</v>
       </c>
       <c r="M407" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N407" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O407" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="408">
@@ -26535,13 +26532,13 @@
         <v>2250</v>
       </c>
       <c r="M408" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N408" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O408" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="409">
@@ -26582,13 +26579,13 @@
         <v>2257</v>
       </c>
       <c r="M409" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N409" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O409" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="410">
@@ -26629,13 +26626,13 @@
         <v>2257</v>
       </c>
       <c r="M410" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N410" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O410" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="411">
@@ -26676,13 +26673,13 @@
         <v>2250</v>
       </c>
       <c r="M411" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N411" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O411" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="412">
@@ -26723,13 +26720,13 @@
         <v>#N/A</v>
       </c>
       <c r="M412" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N412" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O412" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="413">
@@ -26770,13 +26767,13 @@
         <v>2256</v>
       </c>
       <c r="M413" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N413" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O413" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="414">
@@ -26817,13 +26814,13 @@
         <v>2262</v>
       </c>
       <c r="M414" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N414" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O414" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="415">
@@ -26864,13 +26861,13 @@
         <v>2254</v>
       </c>
       <c r="M415" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N415" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O415" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="416">
@@ -26911,13 +26908,13 @@
         <v>2257</v>
       </c>
       <c r="M416" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N416" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O416" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="417">
@@ -26958,13 +26955,13 @@
         <v>2257</v>
       </c>
       <c r="M417" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N417" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O417" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="418">
@@ -27005,13 +27002,13 @@
         <v>2250</v>
       </c>
       <c r="M418" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N418" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O418" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="419">
@@ -27052,13 +27049,13 @@
         <v>2260</v>
       </c>
       <c r="M419" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N419" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O419" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="420">
@@ -27099,13 +27096,13 @@
         <v>2250</v>
       </c>
       <c r="M420" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N420" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O420" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="421">
@@ -27146,13 +27143,13 @@
         <v>2257</v>
       </c>
       <c r="M421" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N421" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O421" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="422">
@@ -27193,13 +27190,13 @@
         <v>2250</v>
       </c>
       <c r="M422" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N422" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O422" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="423">
@@ -27240,13 +27237,13 @@
         <v>2250</v>
       </c>
       <c r="M423" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N423" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O423" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="424">
@@ -27287,13 +27284,13 @@
         <v>2259</v>
       </c>
       <c r="M424" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N424" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O424" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="425">
@@ -27334,13 +27331,13 @@
         <v>2250</v>
       </c>
       <c r="M425" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N425" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O425" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="426">
@@ -27381,13 +27378,13 @@
         <v>2250</v>
       </c>
       <c r="M426" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N426" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O426" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="427">
@@ -27428,13 +27425,13 @@
         <v>2250</v>
       </c>
       <c r="M427" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N427" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O427" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="428">
@@ -27475,13 +27472,13 @@
         <v>2250</v>
       </c>
       <c r="M428" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N428" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O428" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="429">
@@ -27522,13 +27519,13 @@
         <v>2263</v>
       </c>
       <c r="M429" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N429" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O429" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="430">
@@ -27569,13 +27566,13 @@
         <v>#N/A</v>
       </c>
       <c r="M430" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N430" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O430" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="431">
@@ -27616,13 +27613,13 @@
         <v>2254</v>
       </c>
       <c r="M431" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N431" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O431" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="432">
@@ -27663,13 +27660,13 @@
         <v>2257</v>
       </c>
       <c r="M432" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N432" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O432" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="433">
@@ -27710,13 +27707,13 @@
         <v>2257</v>
       </c>
       <c r="M433" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N433" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O433" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="434">
@@ -27757,13 +27754,13 @@
         <v>2250</v>
       </c>
       <c r="M434" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N434" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O434" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="435">
@@ -27804,13 +27801,13 @@
         <v>2250</v>
       </c>
       <c r="M435" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N435" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O435" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="436">
@@ -27851,13 +27848,13 @@
         <v>2250</v>
       </c>
       <c r="M436" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N436" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O436" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="437">
@@ -27898,13 +27895,13 @@
         <v>2260</v>
       </c>
       <c r="M437" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N437" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O437" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="438">
@@ -27992,13 +27989,13 @@
         <v>2260</v>
       </c>
       <c r="M439" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N439" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O439" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="440">
@@ -28039,13 +28036,13 @@
         <v>2250</v>
       </c>
       <c r="M440" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N440" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O440" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="441">
@@ -28086,13 +28083,13 @@
         <v>2250</v>
       </c>
       <c r="M441" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N441" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O441" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="442">
@@ -28133,13 +28130,13 @@
         <v>2257</v>
       </c>
       <c r="M442" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N442" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O442" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="443">
@@ -28180,13 +28177,13 @@
         <v>2257</v>
       </c>
       <c r="M443" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N443" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O443" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="444">
@@ -28227,13 +28224,13 @@
         <v>2257</v>
       </c>
       <c r="M444" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N444" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O444" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="445">
@@ -28274,13 +28271,13 @@
         <v>2262</v>
       </c>
       <c r="M445" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N445" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O445" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="446">
@@ -28321,13 +28318,13 @@
         <v>2257</v>
       </c>
       <c r="M446" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N446" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O446" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="447">
@@ -28368,13 +28365,13 @@
         <v>2257</v>
       </c>
       <c r="M447" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N447" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O447" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="448">
@@ -28415,13 +28412,13 @@
         <v>2256</v>
       </c>
       <c r="M448" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N448" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O448" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="449">
@@ -28462,13 +28459,13 @@
         <v>2257</v>
       </c>
       <c r="M449" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N449" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O449" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="450">
@@ -28509,13 +28506,13 @@
         <v>2259</v>
       </c>
       <c r="M450" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N450" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O450" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="451">
@@ -28603,13 +28600,13 @@
         <v>2259</v>
       </c>
       <c r="M452" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N452" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O452" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="453">
@@ -28650,13 +28647,13 @@
         <v>2250</v>
       </c>
       <c r="M453" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N453" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O453" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="454">
@@ -28697,13 +28694,13 @@
         <v>2259</v>
       </c>
       <c r="M454" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N454" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O454" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="455">
@@ -28744,13 +28741,13 @@
         <v>2250</v>
       </c>
       <c r="M455" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N455" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O455" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="456">
@@ -28791,13 +28788,13 @@
         <v>2257</v>
       </c>
       <c r="M456" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N456" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O456" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="457">
@@ -28838,13 +28835,13 @@
         <v>2256</v>
       </c>
       <c r="M457" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N457" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O457" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="458">
@@ -28885,13 +28882,13 @@
         <v>2256</v>
       </c>
       <c r="M458" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N458" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O458" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="459">
@@ -28932,13 +28929,13 @@
         <v>2254</v>
       </c>
       <c r="M459" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N459" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O459" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="460">
@@ -28979,13 +28976,13 @@
         <v>2256</v>
       </c>
       <c r="M460" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N460" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O460" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="461">
@@ -29026,13 +29023,13 @@
         <v>2254</v>
       </c>
       <c r="M461" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N461" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O461" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="462">
@@ -29073,13 +29070,13 @@
         <v>2254</v>
       </c>
       <c r="M462" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N462" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O462" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="463">
@@ -29120,13 +29117,13 @@
         <v>2254</v>
       </c>
       <c r="M463" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N463" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O463" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="464">
@@ -29167,13 +29164,13 @@
         <v>2250</v>
       </c>
       <c r="M464" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N464" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O464" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="465">
@@ -29214,13 +29211,13 @@
         <v>2256</v>
       </c>
       <c r="M465" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N465" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O465" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="466">
@@ -29261,13 +29258,13 @@
         <v>2250</v>
       </c>
       <c r="M466" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N466" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O466" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="467">
@@ -29308,13 +29305,13 @@
         <v>2260</v>
       </c>
       <c r="M467" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N467" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O467" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="468">
@@ -29355,13 +29352,13 @@
         <v>2250</v>
       </c>
       <c r="M468" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N468" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O468" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="469">
@@ -29402,13 +29399,13 @@
         <v>2254</v>
       </c>
       <c r="M469" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N469" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O469" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="470">
@@ -29449,13 +29446,13 @@
         <v>2257</v>
       </c>
       <c r="M470" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N470" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O470" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="471">
@@ -29492,17 +29489,17 @@
       <c r="K471" t="n">
         <v>40.81281372177277</v>
       </c>
-      <c r="L471" t="s">
-        <v>2264</v>
+      <c r="L471" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M471" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N471" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O471" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="472">
@@ -29543,13 +29540,13 @@
         <v>2259</v>
       </c>
       <c r="M472" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N472" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O472" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="473">
@@ -29586,17 +29583,17 @@
       <c r="K473" t="n">
         <v>40.81860072050208</v>
       </c>
-      <c r="L473" t="s">
-        <v>2264</v>
+      <c r="L473" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M473" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N473" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O473" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="474">
@@ -29633,17 +29630,17 @@
       <c r="K474" t="n">
         <v>40.8153067213518</v>
       </c>
-      <c r="L474" t="s">
-        <v>2264</v>
+      <c r="L474" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M474" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N474" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O474" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="475">
@@ -29681,16 +29678,16 @@
         <v>40.816743467633145</v>
       </c>
       <c r="L475" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="M475" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N475" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O475" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="476">
@@ -29731,13 +29728,13 @@
         <v>2260</v>
       </c>
       <c r="M476" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N476" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O476" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="477">
@@ -29778,13 +29775,13 @@
         <v>2256</v>
       </c>
       <c r="M477" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N477" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O477" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="478">
@@ -29825,13 +29822,13 @@
         <v>2250</v>
       </c>
       <c r="M478" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N478" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O478" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="479">
@@ -29872,13 +29869,13 @@
         <v>2259</v>
       </c>
       <c r="M479" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N479" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O479" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="480">
@@ -29919,13 +29916,13 @@
         <v>2250</v>
       </c>
       <c r="M480" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N480" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O480" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="481">
@@ -29966,13 +29963,13 @@
         <v>2250</v>
       </c>
       <c r="M481" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N481" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O481" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="482">
@@ -30013,13 +30010,13 @@
         <v>2250</v>
       </c>
       <c r="M482" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N482" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O482" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="483">
@@ -30057,16 +30054,16 @@
         <v>40.8222866019032</v>
       </c>
       <c r="L483" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="M483" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N483" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O483" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="484">
@@ -30107,13 +30104,13 @@
         <v>2256</v>
       </c>
       <c r="M484" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N484" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O484" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="485">
@@ -30154,13 +30151,13 @@
         <v>2260</v>
       </c>
       <c r="M485" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N485" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O485" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="486">
@@ -30201,13 +30198,13 @@
         <v>2259</v>
       </c>
       <c r="M486" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N486" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O486" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="487">
@@ -30248,13 +30245,13 @@
         <v>2250</v>
       </c>
       <c r="M487" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N487" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O487" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="488">
@@ -30295,13 +30292,13 @@
         <v>2256</v>
       </c>
       <c r="M488" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N488" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O488" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="489">
@@ -30342,13 +30339,13 @@
         <v>2259</v>
       </c>
       <c r="M489" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N489" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O489" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="490">
@@ -30389,13 +30386,13 @@
         <v>2250</v>
       </c>
       <c r="M490" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N490" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O490" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="491">
@@ -30436,13 +30433,13 @@
         <v>2250</v>
       </c>
       <c r="M491" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N491" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O491" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="492">
@@ -30483,13 +30480,13 @@
         <v>2250</v>
       </c>
       <c r="M492" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N492" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O492" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="493">
@@ -30530,13 +30527,13 @@
         <v>2254</v>
       </c>
       <c r="M493" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N493" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O493" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="494">
@@ -30577,13 +30574,13 @@
         <v>2260</v>
       </c>
       <c r="M494" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N494" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O494" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="495">
@@ -30624,13 +30621,13 @@
         <v>2256</v>
       </c>
       <c r="M495" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N495" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O495" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="496">
@@ -30671,13 +30668,13 @@
         <v>2256</v>
       </c>
       <c r="M496" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N496" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O496" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="497">
@@ -30765,13 +30762,13 @@
         <v>2250</v>
       </c>
       <c r="M498" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N498" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O498" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="499">
@@ -30812,13 +30809,13 @@
         <v>2254</v>
       </c>
       <c r="M499" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N499" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O499" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="500">
@@ -30856,16 +30853,16 @@
         <v>40.80406383593044</v>
       </c>
       <c r="L500" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="M500" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N500" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O500" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="501">
@@ -30906,13 +30903,13 @@
         <v>2250</v>
       </c>
       <c r="M501" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N501" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O501" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="502">
@@ -30953,13 +30950,13 @@
         <v>2250</v>
       </c>
       <c r="M502" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N502" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O502" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="503">
@@ -31000,13 +30997,13 @@
         <v>2256</v>
       </c>
       <c r="M503" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N503" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O503" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="504">
@@ -31047,13 +31044,13 @@
         <v>2250</v>
       </c>
       <c r="M504" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N504" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O504" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="505">
@@ -31094,13 +31091,13 @@
         <v>2254</v>
       </c>
       <c r="M505" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N505" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O505" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="506">
@@ -31141,13 +31138,13 @@
         <v>2250</v>
       </c>
       <c r="M506" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N506" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O506" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="507">
@@ -31188,13 +31185,13 @@
         <v>2260</v>
       </c>
       <c r="M507" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N507" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O507" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="508">
@@ -31232,16 +31229,16 @@
         <v>40.82826505224555</v>
       </c>
       <c r="L508" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="M508" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N508" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O508" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="509">
@@ -31282,13 +31279,13 @@
         <v>2250</v>
       </c>
       <c r="M509" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N509" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O509" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="510">
@@ -31329,13 +31326,13 @@
         <v>2260</v>
       </c>
       <c r="M510" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N510" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O510" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="511">
@@ -31376,13 +31373,13 @@
         <v>2259</v>
       </c>
       <c r="M511" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N511" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O511" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="512">
@@ -31419,17 +31416,17 @@
       <c r="K512" t="n">
         <v>40.82877971867058</v>
       </c>
-      <c r="L512" t="s">
-        <v>2264</v>
+      <c r="L512" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M512" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N512" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O512" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="513">
@@ -31470,13 +31467,13 @@
         <v>2254</v>
       </c>
       <c r="M513" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N513" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O513" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="514">
@@ -31564,13 +31561,13 @@
         <v>2250</v>
       </c>
       <c r="M515" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N515" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O515" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="516">
@@ -31611,13 +31608,13 @@
         <v>2250</v>
       </c>
       <c r="M516" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N516" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O516" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="517">
@@ -31658,13 +31655,13 @@
         <v>2250</v>
       </c>
       <c r="M517" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N517" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O517" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="518">
@@ -31705,13 +31702,13 @@
         <v>2254</v>
       </c>
       <c r="M518" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N518" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O518" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="519">
@@ -31752,13 +31749,13 @@
         <v>2259</v>
       </c>
       <c r="M519" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N519" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O519" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="520">
@@ -31799,13 +31796,13 @@
         <v>2254</v>
       </c>
       <c r="M520" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N520" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O520" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="521">
@@ -31846,13 +31843,13 @@
         <v>2259</v>
       </c>
       <c r="M521" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N521" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O521" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="522">
@@ -31893,13 +31890,13 @@
         <v>2250</v>
       </c>
       <c r="M522" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N522" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O522" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="523">
@@ -31940,13 +31937,13 @@
         <v>2250</v>
       </c>
       <c r="M523" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N523" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O523" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="524">
@@ -31987,13 +31984,13 @@
         <v>2250</v>
       </c>
       <c r="M524" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N524" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O524" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="525">
@@ -32034,13 +32031,13 @@
         <v>2250</v>
       </c>
       <c r="M525" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N525" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O525" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="526">
@@ -32078,16 +32075,16 @@
         <v>40.827966816762824</v>
       </c>
       <c r="L526" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="M526" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N526" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O526" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="527">
@@ -32128,13 +32125,13 @@
         <v>2252</v>
       </c>
       <c r="M527" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N527" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O527" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="528">
@@ -32175,13 +32172,13 @@
         <v>2261</v>
       </c>
       <c r="M528" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="N528" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="O528" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
   </sheetData>

--- a/data/greenbook_addresses.xlsx
+++ b/data/greenbook_addresses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5377" uniqueCount="2432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5382" uniqueCount="2434">
   <si>
     <t>greenbook_edition</t>
   </si>
@@ -2318,7 +2318,7 @@
     <t>1317 Tatnall St.</t>
   </si>
   <si>
-    <t>N. J. Ave &amp; Dost. Ne IW.</t>
+    <t>N. J. Ave &amp; Dost. Ne</t>
   </si>
   <si>
     <t>1825 13th St. N. W.</t>
@@ -2456,10 +2456,10 @@
     <t>22 Butler St.</t>
   </si>
   <si>
-    <t>49 Davis St. N. W.</t>
-  </si>
-  <si>
-    <t>Auburn Ave. N. HB.</t>
+    <t>49 Davis St. N.</t>
+  </si>
+  <si>
+    <t>Auburn Ave. N.</t>
   </si>
   <si>
     <t>312 Auburn Ave. N. E.</t>
@@ -2471,15 +2471,15 @@
     <t>Auburn &amp; Belle St. N.</t>
   </si>
   <si>
-    <t>Auburn Ave. N. E.</t>
-  </si>
-  <si>
-    <t>Hunter St. N. BE.</t>
+    <t>Hunter St. N.</t>
   </si>
   <si>
     <t>Sunset Casino</t>
   </si>
   <si>
+    <t>Auburn Ave.</t>
+  </si>
+  <si>
     <t>316 S. Jefferson</t>
   </si>
   <si>
@@ -2708,7 +2708,7 @@
     <t>615 E. Adams St.</t>
   </si>
   <si>
-    <t>Maple &amp; Chene Sts</t>
+    <t>Maple at Chene St.</t>
   </si>
   <si>
     <t>104 Myrtle Ave.</t>
@@ -2810,7 +2810,7 @@
     <t>15 Illinois Ave.</t>
   </si>
   <si>
-    <t>1326 Virginia Ave. N.</t>
+    <t>1326 Virginia Ave.</t>
   </si>
   <si>
     <t>1702 Arctic Ave.</t>
@@ -2963,7 +2963,7 @@
     <t>115 Broome St.</t>
   </si>
   <si>
-    <t>Broome &amp; W. Kinny Sts.</t>
+    <t>Broome at W. Kinny St.</t>
   </si>
   <si>
     <t>245 Academy St.</t>
@@ -2981,7 +2981,7 @@
     <t>179 Orange St.</t>
   </si>
   <si>
-    <t>60 Waverly Ave.</t>
+    <t>60 Waverly</t>
   </si>
   <si>
     <t>173 W. Kinny St</t>
@@ -2996,7 +2996,7 @@
     <t>258 Prinnce St.</t>
   </si>
   <si>
-    <t>88 Waverly St.</t>
+    <t>88 Waverly</t>
   </si>
   <si>
     <t>28 Wright St.</t>
@@ -3020,7 +3020,7 @@
     <t>150 Charleston St.</t>
   </si>
   <si>
-    <t>Warren &amp; Newark St.</t>
+    <t>Warren at Newark St.</t>
   </si>
   <si>
     <t>36 Arlington St.</t>
@@ -3041,7 +3041,7 @@
     <t>120 Hickory St.</t>
   </si>
   <si>
-    <t>Parrow &amp; Chestnut Pl.</t>
+    <t>Parrow at Chestnut Pl.</t>
   </si>
   <si>
     <t>132 Parrow St.</t>
@@ -3464,7 +3464,7 @@
     <t>105 W. 116th St</t>
   </si>
   <si>
-    <t>142nd St &amp; Lenox Ave.</t>
+    <t>142nd St at Lenox Ave.</t>
   </si>
   <si>
     <t>7th Ave. &amp; 135th St.</t>
@@ -3587,7 +3587,7 @@
     <t>212 St. Nicholas Ave.</t>
   </si>
   <si>
-    <t>19 St. Nichalos Ave.</t>
+    <t>19 St. Nicholas Ave.</t>
   </si>
   <si>
     <t>2205 7th Ave.</t>
@@ -3806,7 +3806,7 @@
     <t>1317 Tatnall St., Wilmington, Delaware</t>
   </si>
   <si>
-    <t>N. J. Ave &amp; Dost. Ne IW., Washington, District of Columbia</t>
+    <t>N. J. Ave &amp; Dost. Ne, Washington, District of Columbia</t>
   </si>
   <si>
     <t>1825 13th St. N. W., Washington, District of Columbia</t>
@@ -3944,10 +3944,10 @@
     <t>22 Butler St., Atlanta, Georgia</t>
   </si>
   <si>
-    <t>49 Davis St. N. W., Atlanta, Georgia</t>
-  </si>
-  <si>
-    <t>Auburn Ave. N. HB., Atlanta, Georgia</t>
+    <t>49 Davis St. N., Atlanta, Georgia</t>
+  </si>
+  <si>
+    <t>Auburn Ave. N., Atlanta, Georgia</t>
   </si>
   <si>
     <t>312 Auburn Ave. N. E., Atlanta, Georgia</t>
@@ -3959,15 +3959,15 @@
     <t>Auburn &amp; Belle St. N., Atlanta, Georgia</t>
   </si>
   <si>
-    <t>Auburn Ave. N. E., Atlanta, Georgia</t>
-  </si>
-  <si>
-    <t>Hunter St. N. BE., Atlanta, Georgia</t>
+    <t>Hunter St. N., Atlanta, Georgia</t>
   </si>
   <si>
     <t>Sunset Casino, Atlanta, Georgia</t>
   </si>
   <si>
+    <t>Auburn Ave., Atlanta, Georgia</t>
+  </si>
+  <si>
     <t>NA, Columbus, Georgia</t>
   </si>
   <si>
@@ -4208,7 +4208,7 @@
     <t>615 E. Adams St., Detroit, Michigan</t>
   </si>
   <si>
-    <t>Maple &amp; Chene Sts, Detroit, Michigan</t>
+    <t>Maple at Chene St., Detroit, Michigan</t>
   </si>
   <si>
     <t>NA, Arenel, New Jersey</t>
@@ -4313,7 +4313,7 @@
     <t>15 Illinois Ave., Atlantic City, New Jersey</t>
   </si>
   <si>
-    <t>1326 Virginia Ave. N., Atlantic City, New Jersey</t>
+    <t>1326 Virginia Ave., Atlantic City, New Jersey</t>
   </si>
   <si>
     <t>1702 Arctic Ave., Atlantic City, New Jersey</t>
@@ -4481,7 +4481,7 @@
     <t>115 Broome St., Newark, New Jersey</t>
   </si>
   <si>
-    <t>Broome &amp; W. Kinny Sts., Newark, New Jersey</t>
+    <t>Broome at W. Kinny St., Newark, New Jersey</t>
   </si>
   <si>
     <t>245 Academy St., Newark, New Jersey</t>
@@ -4499,7 +4499,7 @@
     <t>179 Orange St., Newark, New Jersey</t>
   </si>
   <si>
-    <t>60 Waverly Ave., Newark, New Jersey</t>
+    <t>60 Waverly, Newark, New Jersey</t>
   </si>
   <si>
     <t>173 W. Kinny St, Newark, New Jersey</t>
@@ -4514,7 +4514,7 @@
     <t>258 Prinnce St., Newark, New Jersey</t>
   </si>
   <si>
-    <t>88 Waverly St., Newark, New Jersey</t>
+    <t>88 Waverly, Newark, New Jersey</t>
   </si>
   <si>
     <t>28 Wright St., Newark, New Jersey</t>
@@ -4538,7 +4538,7 @@
     <t>150 Charleston St., Newark, New Jersey</t>
   </si>
   <si>
-    <t>Warren &amp; Newark St., Newark, New Jersey</t>
+    <t>Warren at Newark St., Newark, New Jersey</t>
   </si>
   <si>
     <t>36 Arlington St., Newark, New Jersey</t>
@@ -4559,7 +4559,7 @@
     <t>120 Hickory St., ORANGE, New Jersey</t>
   </si>
   <si>
-    <t>Parrow &amp; Chestnut Pl., ORANGE, New Jersey</t>
+    <t>Parrow at Chestnut Pl., ORANGE, New Jersey</t>
   </si>
   <si>
     <t>132 Parrow St., ORANGE, New Jersey</t>
@@ -4988,7 +4988,7 @@
     <t>105 W. 116th St, New York City, New York</t>
   </si>
   <si>
-    <t>142nd St &amp; Lenox Ave., New York City, New York</t>
+    <t>142nd St at Lenox Ave., New York City, New York</t>
   </si>
   <si>
     <t>7th Ave. &amp; 135th St., New York City, New York</t>
@@ -5111,7 +5111,7 @@
     <t>212 St. Nicholas Ave., New York City, New York</t>
   </si>
   <si>
-    <t>19 St. Nichalos Ave., New York City, New York</t>
+    <t>19 St. Nicholas Ave., New York City, New York</t>
   </si>
   <si>
     <t>2205 7th Ave., New York City, New York</t>
@@ -6335,6 +6335,9 @@
     <t>212 ST NICHOLAS AVE, NEW YORK, NY, 10027</t>
   </si>
   <si>
+    <t>19 ST NICHOLAS AVE, NEW YORK, NY, 10026</t>
+  </si>
+  <si>
     <t>2205 7TH AVE, NEW YORK, NY, 10027</t>
   </si>
   <si>
@@ -6795,6 +6798,9 @@
   </si>
   <si>
     <t>148TH</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>139TH</t>
@@ -7485,16 +7491,16 @@
         <v>33.5143485707937</v>
       </c>
       <c r="L3" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="M3" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="N3" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="O3" t="s">
-        <v>2332</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="4">
@@ -7532,16 +7538,16 @@
         <v>33.5320444220056</v>
       </c>
       <c r="L4" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="M4" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="N4" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="O4" t="s">
-        <v>2333</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="5">
@@ -7579,16 +7585,16 @@
         <v>33.5154455727818</v>
       </c>
       <c r="L5" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="M5" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="N5" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="O5" t="s">
-        <v>2332</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="6">
@@ -7626,16 +7632,16 @@
         <v>33.5154374173175</v>
       </c>
       <c r="L6" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="M6" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="N6" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="O6" t="s">
-        <v>2332</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="7">
@@ -7673,16 +7679,16 @@
         <v>34.6118640107611</v>
       </c>
       <c r="L7" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="M7" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="N7" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="O7" t="s">
-        <v>2334</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="8">
@@ -7720,16 +7726,16 @@
         <v>33.9940141891079</v>
       </c>
       <c r="L8" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="M8" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="N8" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="O8" t="s">
-        <v>2335</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="9">
@@ -7767,16 +7773,16 @@
         <v>34.0151992985974</v>
       </c>
       <c r="L9" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="M9" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="N9" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="O9" t="s">
-        <v>2336</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="10">
@@ -7814,16 +7820,16 @@
         <v>34.0152022461397</v>
       </c>
       <c r="L10" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="M10" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="N10" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="O10" t="s">
-        <v>2336</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="11">
@@ -7861,16 +7867,16 @@
         <v>34.0150862358663</v>
       </c>
       <c r="L11" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="M11" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="N11" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="O11" t="s">
-        <v>2336</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="12">
@@ -7908,16 +7914,16 @@
         <v>34.0175041515731</v>
       </c>
       <c r="L12" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="M12" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="N12" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="O12" t="s">
-        <v>2336</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="13">
@@ -8096,16 +8102,16 @@
         <v>30.6960542804327</v>
       </c>
       <c r="L16" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="M16" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="N16" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="O16" t="s">
-        <v>2337</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="17">
@@ -8143,16 +8149,16 @@
         <v>30.6935613534321</v>
       </c>
       <c r="L17" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="M17" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="N17" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="O17" t="s">
-        <v>2337</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="18">
@@ -8190,16 +8196,16 @@
         <v>30.6976495325603</v>
       </c>
       <c r="L18" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="M18" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="N18" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="O18" t="s">
-        <v>2337</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="19">
@@ -8331,16 +8337,16 @@
         <v>31.8159372445166</v>
       </c>
       <c r="L21" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="M21" t="s">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="N21" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="O21" t="s">
-        <v>2338</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="22">
@@ -8425,16 +8431,16 @@
         <v>33.2027155164248</v>
       </c>
       <c r="L23" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="M23" t="s">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="N23" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="O23" t="s">
-        <v>2339</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="24">
@@ -8472,16 +8478,16 @@
         <v>33.2083686457691</v>
       </c>
       <c r="L24" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="M24" t="s">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="N24" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="O24" t="s">
-        <v>2339</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="25">
@@ -8519,16 +8525,16 @@
         <v>33.1997383053909</v>
       </c>
       <c r="L25" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="M25" t="s">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="N25" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="O25" t="s">
-        <v>2339</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="26">
@@ -8613,16 +8619,16 @@
         <v>41.1697328006184</v>
       </c>
       <c r="L27" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="M27" t="s">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="N27" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="O27" t="s">
-        <v>2340</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="28">
@@ -8660,16 +8666,16 @@
         <v>41.199216796974</v>
       </c>
       <c r="L28" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="M28" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="N28" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="O28" t="s">
-        <v>2341</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="29">
@@ -8754,16 +8760,16 @@
         <v>41.1848421780769</v>
       </c>
       <c r="L30" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="M30" t="s">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="N30" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="O30" t="s">
-        <v>2342</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="31">
@@ -8801,16 +8807,16 @@
         <v>41.6754278310956</v>
       </c>
       <c r="L31" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="M31" t="s">
-        <v>2273</v>
+        <v>2275</v>
       </c>
       <c r="N31" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="O31" t="s">
-        <v>2343</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="32">
@@ -8848,16 +8854,16 @@
         <v>41.7784449890697</v>
       </c>
       <c r="L32" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="M32" t="s">
-        <v>2273</v>
+        <v>2275</v>
       </c>
       <c r="N32" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="O32" t="s">
-        <v>2344</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="33">
@@ -8942,16 +8948,16 @@
         <v>41.3169568176862</v>
       </c>
       <c r="L34" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="M34" t="s">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c r="N34" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="O34" t="s">
-        <v>2345</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="35">
@@ -8989,16 +8995,16 @@
         <v>41.3180050633791</v>
       </c>
       <c r="L35" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="M35" t="s">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c r="N35" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="O35" t="s">
-        <v>2345</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="36">
@@ -9036,16 +9042,16 @@
         <v>41.3148333595736</v>
       </c>
       <c r="L36" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="M36" t="s">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c r="N36" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="O36" t="s">
-        <v>2345</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="37">
@@ -9083,16 +9089,16 @@
         <v>41.3145692903558</v>
       </c>
       <c r="L37" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="M37" t="s">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c r="N37" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="O37" t="s">
-        <v>2345</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="38">
@@ -9130,16 +9136,16 @@
         <v>41.3147577080202</v>
       </c>
       <c r="L38" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="M38" t="s">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c r="N38" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="O38" t="s">
-        <v>2345</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="39">
@@ -9224,16 +9230,16 @@
         <v>41.3514720716549</v>
       </c>
       <c r="L40" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="M40" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
       <c r="N40" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="O40" t="s">
-        <v>2346</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="41">
@@ -9318,16 +9324,16 @@
         <v>41.354739888483</v>
       </c>
       <c r="L42" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="M42" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
       <c r="N42" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="O42" t="s">
-        <v>2346</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="43">
@@ -9365,16 +9371,16 @@
         <v>41.3529769238668</v>
       </c>
       <c r="L43" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="M43" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
       <c r="N43" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="O43" t="s">
-        <v>2346</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="44">
@@ -9412,16 +9418,16 @@
         <v>41.3491636454073</v>
       </c>
       <c r="L44" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="M44" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
       <c r="N44" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="O44" t="s">
-        <v>2346</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="45">
@@ -9506,16 +9512,16 @@
         <v>41.0437896616415</v>
       </c>
       <c r="L46" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="M46" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="N46" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="O46" t="s">
-        <v>2347</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="47">
@@ -9553,16 +9559,16 @@
         <v>41.5612899305374</v>
       </c>
       <c r="L47" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="M47" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="N47" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="O47" t="s">
-        <v>2348</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="48">
@@ -9694,16 +9700,16 @@
         <v>41.5632588753159</v>
       </c>
       <c r="L50" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="M50" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="N50" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="O50" t="s">
-        <v>2348</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="51">
@@ -9741,16 +9747,16 @@
         <v>41.5637429063891</v>
       </c>
       <c r="L51" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="M51" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="N51" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="O51" t="s">
-        <v>2348</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="52">
@@ -9788,16 +9794,16 @@
         <v>41.562421005866</v>
       </c>
       <c r="L52" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="M52" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="N52" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="O52" t="s">
-        <v>2348</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="53">
@@ -9835,16 +9841,16 @@
         <v>41.5616483994562</v>
       </c>
       <c r="L53" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="M53" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="N53" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="O53" t="s">
-        <v>2348</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="54">
@@ -9882,16 +9888,16 @@
         <v>41.5623010119887</v>
       </c>
       <c r="L54" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="M54" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="N54" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="O54" t="s">
-        <v>2348</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="55">
@@ -10258,16 +10264,16 @@
         <v>39.7474398054402</v>
       </c>
       <c r="L62" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="M62" t="s">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="N62" t="s">
-        <v>2319</v>
+        <v>2321</v>
       </c>
       <c r="O62" t="s">
-        <v>2349</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="63">
@@ -10305,16 +10311,16 @@
         <v>39.7478471710777</v>
       </c>
       <c r="L63" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="M63" t="s">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="N63" t="s">
-        <v>2319</v>
+        <v>2321</v>
       </c>
       <c r="O63" t="s">
-        <v>2349</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="64">
@@ -10352,16 +10358,16 @@
         <v>39.7449178629458</v>
       </c>
       <c r="L64" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="M64" t="s">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="N64" t="s">
-        <v>2319</v>
+        <v>2321</v>
       </c>
       <c r="O64" t="s">
-        <v>2349</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="65">
@@ -10399,16 +10405,16 @@
         <v>39.7494633757811</v>
       </c>
       <c r="L65" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="M65" t="s">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="N65" t="s">
-        <v>2319</v>
+        <v>2321</v>
       </c>
       <c r="O65" t="s">
-        <v>2349</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="66">
@@ -10493,16 +10499,16 @@
         <v>38.914479329056</v>
       </c>
       <c r="L67" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="M67" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="N67" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="O67" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="68">
@@ -10540,16 +10546,16 @@
         <v>38.9097567644737</v>
       </c>
       <c r="L68" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="M68" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="N68" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="O68" t="s">
-        <v>2351</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="69">
@@ -10590,13 +10596,13 @@
         <v>#N/A</v>
       </c>
       <c r="M69" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="N69" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="O69" t="s">
-        <v>2352</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="70">
@@ -10637,13 +10643,13 @@
         <v>#N/A</v>
       </c>
       <c r="M70" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="N70" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="O70" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="71">
@@ -10681,16 +10687,16 @@
         <v>38.9143727773704</v>
       </c>
       <c r="L71" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="M71" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="N71" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="O71" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="72">
@@ -10728,16 +10734,16 @@
         <v>38.9219005286626</v>
       </c>
       <c r="L72" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="M72" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="N72" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="O72" t="s">
-        <v>2353</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="73">
@@ -10775,16 +10781,16 @@
         <v>38.9132161452251</v>
       </c>
       <c r="L73" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="M73" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="N73" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="O73" t="s">
-        <v>2352</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="74">
@@ -10822,16 +10828,16 @@
         <v>38.9164206523088</v>
       </c>
       <c r="L74" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="M74" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="N74" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="O74" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="75">
@@ -10869,16 +10875,16 @@
         <v>38.9256909129142</v>
       </c>
       <c r="L75" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="M75" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="N75" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="O75" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="76">
@@ -10916,16 +10922,16 @@
         <v>38.9111805073978</v>
       </c>
       <c r="L76" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="M76" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="N76" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="O76" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="77">
@@ -10963,16 +10969,16 @@
         <v>38.9014899586915</v>
       </c>
       <c r="L77" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="M77" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="N77" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="O77" t="s">
-        <v>2352</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="78">
@@ -11010,16 +11016,16 @@
         <v>38.9169429146724</v>
       </c>
       <c r="L78" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="M78" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="N78" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="O78" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="79">
@@ -11060,13 +11066,13 @@
         <v>#N/A</v>
       </c>
       <c r="M79" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="N79" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="O79" t="s">
-        <v>2352</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="80">
@@ -11104,16 +11110,16 @@
         <v>38.9170575062334</v>
       </c>
       <c r="L80" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="M80" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="N80" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="O80" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="81">
@@ -11154,13 +11160,13 @@
         <v>#N/A</v>
       </c>
       <c r="M81" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="N81" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="O81" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="82">
@@ -11248,13 +11254,13 @@
         <v>#N/A</v>
       </c>
       <c r="M83" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="N83" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="O83" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="84">
@@ -11292,16 +11298,16 @@
         <v>30.3317340886304</v>
       </c>
       <c r="L84" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="M84" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="N84" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="O84" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="85">
@@ -11339,16 +11345,16 @@
         <v>30.3324873646761</v>
       </c>
       <c r="L85" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="M85" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="N85" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="O85" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="86">
@@ -11386,16 +11392,16 @@
         <v>30.3323804309158</v>
       </c>
       <c r="L86" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="M86" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="N86" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="O86" t="s">
-        <v>2355</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="87">
@@ -11433,16 +11439,16 @@
         <v>30.3310619027347</v>
       </c>
       <c r="L87" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="M87" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="N87" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="O87" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="88">
@@ -11480,16 +11486,16 @@
         <v>30.3319572677424</v>
       </c>
       <c r="L88" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="M88" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="N88" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="O88" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="89">
@@ -11527,16 +11533,16 @@
         <v>30.3506369396631</v>
       </c>
       <c r="L89" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="M89" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="N89" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="O89" t="s">
-        <v>2356</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="90">
@@ -11577,13 +11583,13 @@
         <v>630</v>
       </c>
       <c r="M90" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="N90" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="O90" t="s">
-        <v>2357</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="91">
@@ -11621,16 +11627,16 @@
         <v>28.0515331436022</v>
       </c>
       <c r="L91" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="M91" t="s">
-        <v>2280</v>
+        <v>2282</v>
       </c>
       <c r="N91" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="O91" t="s">
-        <v>2358</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="92">
@@ -11668,16 +11674,16 @@
         <v>25.7831004736858</v>
       </c>
       <c r="L92" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="M92" t="s">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="N92" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="O92" t="s">
-        <v>2359</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="93">
@@ -11715,16 +11721,16 @@
         <v>25.780776879909</v>
       </c>
       <c r="L93" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="M93" t="s">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="N93" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="O93" t="s">
-        <v>2359</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="94">
@@ -11762,16 +11768,16 @@
         <v>30.4173283716835</v>
       </c>
       <c r="L94" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="M94" t="s">
-        <v>2282</v>
+        <v>2284</v>
       </c>
       <c r="N94" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="O94" t="s">
-        <v>2360</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="95">
@@ -11856,16 +11862,16 @@
         <v>29.8889543261281</v>
       </c>
       <c r="L96" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="M96" t="s">
-        <v>2283</v>
+        <v>2285</v>
       </c>
       <c r="N96" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="O96" t="s">
-        <v>2361</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="97">
@@ -11953,13 +11959,13 @@
         <v>#N/A</v>
       </c>
       <c r="M98" t="s">
-        <v>2284</v>
+        <v>2286</v>
       </c>
       <c r="N98" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="O98" t="s">
-        <v>2362</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="99">
@@ -11997,16 +12003,16 @@
         <v>27.7775621697773</v>
       </c>
       <c r="L99" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="M99" t="s">
-        <v>2284</v>
+        <v>2286</v>
       </c>
       <c r="N99" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="O99" t="s">
-        <v>2363</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="100">
@@ -12044,16 +12050,16 @@
         <v>27.7684565804156</v>
       </c>
       <c r="L100" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="M100" t="s">
-        <v>2284</v>
+        <v>2286</v>
       </c>
       <c r="N100" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="O100" t="s">
-        <v>2363</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="101">
@@ -12138,16 +12144,16 @@
         <v>28.0369705572527</v>
       </c>
       <c r="L102" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="M102" t="s">
-        <v>2285</v>
+        <v>2287</v>
       </c>
       <c r="N102" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="O102" t="s">
-        <v>2364</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="103">
@@ -12185,16 +12191,16 @@
         <v>27.9514759647849</v>
       </c>
       <c r="L103" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="M103" t="s">
-        <v>2285</v>
+        <v>2287</v>
       </c>
       <c r="N103" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="O103" t="s">
-        <v>2365</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="104">
@@ -12279,16 +12285,16 @@
         <v>31.570782330215</v>
       </c>
       <c r="L105" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="M105" t="s">
-        <v>2286</v>
+        <v>2288</v>
       </c>
       <c r="N105" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="O105" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="106">
@@ -12373,16 +12379,16 @@
         <v>31.5706677388341</v>
       </c>
       <c r="L107" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="M107" t="s">
-        <v>2286</v>
+        <v>2288</v>
       </c>
       <c r="N107" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="O107" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="108">
@@ -12420,16 +12426,16 @@
         <v>31.5750372612829</v>
       </c>
       <c r="L108" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="M108" t="s">
-        <v>2286</v>
+        <v>2288</v>
       </c>
       <c r="N108" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="O108" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="109">
@@ -12467,16 +12473,16 @@
         <v>33.7554761552048</v>
       </c>
       <c r="L109" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="M109" t="s">
-        <v>2287</v>
+        <v>2289</v>
       </c>
       <c r="N109" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="O109" t="s">
-        <v>2367</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="110">
@@ -12514,16 +12520,16 @@
         <v>33.7554764607385</v>
       </c>
       <c r="L110" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="M110" t="s">
-        <v>2287</v>
+        <v>2289</v>
       </c>
       <c r="N110" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="O110" t="s">
-        <v>2367</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="111">
@@ -12608,16 +12614,16 @@
         <v>33.7542988983468</v>
       </c>
       <c r="L112" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="M112" t="s">
-        <v>2287</v>
+        <v>2289</v>
       </c>
       <c r="N112" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="O112" t="s">
-        <v>2367</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="113">
@@ -12749,16 +12755,16 @@
         <v>33.755573706652</v>
       </c>
       <c r="L115" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="M115" t="s">
-        <v>2287</v>
+        <v>2289</v>
       </c>
       <c r="N115" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="O115" t="s">
-        <v>2367</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="116">
@@ -12796,16 +12802,16 @@
         <v>33.7533247062306</v>
       </c>
       <c r="L116" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="M116" t="s">
-        <v>2287</v>
+        <v>2289</v>
       </c>
       <c r="N116" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="O116" t="s">
-        <v>2367</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="117">
@@ -12846,13 +12852,13 @@
         <v>#N/A</v>
       </c>
       <c r="M117" t="s">
-        <v>2287</v>
+        <v>2289</v>
       </c>
       <c r="N117" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="O117" t="s">
-        <v>2367</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="118">
@@ -12875,10 +12881,10 @@
         <v>#N/A</v>
       </c>
       <c r="G118" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="H118" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="I118" t="s">
         <v>1713</v>
@@ -12922,10 +12928,10 @@
         <v>#N/A</v>
       </c>
       <c r="G119" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H119" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I119" t="s">
         <v>1713</v>
@@ -12969,10 +12975,10 @@
         <v>#N/A</v>
       </c>
       <c r="G120" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H120" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I120" t="s">
         <v>1713</v>
@@ -13016,10 +13022,10 @@
         <v>#N/A</v>
       </c>
       <c r="G121" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="H121" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="I121" t="s">
         <v>1713</v>
@@ -13125,16 +13131,16 @@
         <v>32.5377709172792</v>
       </c>
       <c r="L123" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="M123" t="s">
-        <v>2288</v>
+        <v>2290</v>
       </c>
       <c r="N123" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="O123" t="s">
-        <v>2368</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="124">
@@ -13219,16 +13225,16 @@
         <v>32.5348729735006</v>
       </c>
       <c r="L125" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="M125" t="s">
-        <v>2288</v>
+        <v>2290</v>
       </c>
       <c r="N125" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="O125" t="s">
-        <v>2368</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="126">
@@ -13266,16 +13272,16 @@
         <v>32.5348142214987</v>
       </c>
       <c r="L126" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="M126" t="s">
-        <v>2288</v>
+        <v>2290</v>
       </c>
       <c r="N126" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="O126" t="s">
-        <v>2368</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="127">
@@ -13313,16 +13319,16 @@
         <v>32.1974259274433</v>
       </c>
       <c r="L127" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="M127" t="s">
-        <v>2289</v>
+        <v>2291</v>
       </c>
       <c r="N127" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="O127" t="s">
-        <v>2369</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="128">
@@ -13548,16 +13554,16 @@
         <v>32.8363891501449</v>
       </c>
       <c r="L132" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="M132" t="s">
-        <v>2290</v>
+        <v>2292</v>
       </c>
       <c r="N132" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="O132" t="s">
-        <v>2370</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="133">
@@ -13595,16 +13601,16 @@
         <v>32.8365235005416</v>
       </c>
       <c r="L133" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="M133" t="s">
-        <v>2290</v>
+        <v>2292</v>
       </c>
       <c r="N133" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="O133" t="s">
-        <v>2370</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="134">
@@ -13642,16 +13648,16 @@
         <v>32.8431781507018</v>
       </c>
       <c r="L134" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="M134" t="s">
-        <v>2290</v>
+        <v>2292</v>
       </c>
       <c r="N134" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="O134" t="s">
-        <v>2370</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="135">
@@ -13689,16 +13695,16 @@
         <v>32.8429590533055</v>
       </c>
       <c r="L135" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="M135" t="s">
-        <v>2290</v>
+        <v>2292</v>
       </c>
       <c r="N135" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="O135" t="s">
-        <v>2370</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="136">
@@ -13736,16 +13742,16 @@
         <v>32.8409769041021</v>
       </c>
       <c r="L136" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="M136" t="s">
-        <v>2290</v>
+        <v>2292</v>
       </c>
       <c r="N136" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="O136" t="s">
-        <v>2370</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="137">
@@ -13783,16 +13789,16 @@
         <v>32.8431294623915</v>
       </c>
       <c r="L137" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="M137" t="s">
-        <v>2290</v>
+        <v>2292</v>
       </c>
       <c r="N137" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="O137" t="s">
-        <v>2370</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="138">
@@ -13877,16 +13883,16 @@
         <v>31.2061685420047</v>
       </c>
       <c r="L139" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="M139" t="s">
-        <v>2291</v>
+        <v>2293</v>
       </c>
       <c r="N139" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="O139" t="s">
-        <v>2371</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="140">
@@ -13924,16 +13930,16 @@
         <v>31.2063140652285</v>
       </c>
       <c r="L140" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="M140" t="s">
-        <v>2291</v>
+        <v>2293</v>
       </c>
       <c r="N140" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="O140" t="s">
-        <v>2371</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="141">
@@ -13971,16 +13977,16 @@
         <v>41.8228322426559</v>
       </c>
       <c r="L141" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="M141" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="N141" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="O141" t="s">
-        <v>2372</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="142">
@@ -14018,16 +14024,16 @@
         <v>41.8838745143989</v>
       </c>
       <c r="L142" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="M142" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="N142" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="O142" t="s">
-        <v>2373</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="143">
@@ -14112,16 +14118,16 @@
         <v>41.8272281159363</v>
       </c>
       <c r="L144" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="M144" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="N144" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="O144" t="s">
-        <v>2372</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="145">
@@ -14159,16 +14165,16 @@
         <v>41.4676644550239</v>
       </c>
       <c r="L145" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="M145" t="s">
-        <v>2293</v>
+        <v>2295</v>
       </c>
       <c r="N145" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="O145" t="s">
-        <v>2374</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="146">
@@ -14206,16 +14212,16 @@
         <v>41.8225947282313</v>
       </c>
       <c r="L146" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M146" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="N146" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="O146" t="s">
-        <v>2372</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="147">
@@ -14300,16 +14306,16 @@
         <v>41.8225947282313</v>
       </c>
       <c r="L148" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="M148" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="N148" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="O148" t="s">
-        <v>2372</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="149">
@@ -14394,16 +14400,16 @@
         <v>41.8289288597573</v>
       </c>
       <c r="L150" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="M150" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="N150" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="O150" t="s">
-        <v>2375</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="151">
@@ -14441,16 +14447,16 @@
         <v>41.8260533743027</v>
       </c>
       <c r="L151" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="M151" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="N151" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="O151" t="s">
-        <v>2372</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="152">
@@ -14535,16 +14541,16 @@
         <v>41.8229158014307</v>
       </c>
       <c r="L153" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="M153" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="N153" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="O153" t="s">
-        <v>2372</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="154">
@@ -14817,16 +14823,16 @@
         <v>39.8012130736331</v>
       </c>
       <c r="L159" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="M159" t="s">
-        <v>2294</v>
+        <v>2296</v>
       </c>
       <c r="N159" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="O159" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="160">
@@ -14864,16 +14870,16 @@
         <v>38.253920869889</v>
       </c>
       <c r="L160" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="M160" t="s">
-        <v>2295</v>
+        <v>2297</v>
       </c>
       <c r="N160" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="O160" t="s">
-        <v>2377</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="161">
@@ -14958,16 +14964,16 @@
         <v>37.5405037250218</v>
       </c>
       <c r="L162" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="M162" t="s">
-        <v>2296</v>
+        <v>2298</v>
       </c>
       <c r="N162" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="O162" t="s">
-        <v>2378</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="163">
@@ -15146,16 +15152,16 @@
         <v>37.0796504778711</v>
       </c>
       <c r="L166" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="M166" t="s">
-        <v>2297</v>
+        <v>2299</v>
       </c>
       <c r="N166" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="O166" t="s">
-        <v>2379</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="167">
@@ -15193,16 +15199,16 @@
         <v>37.0826818546096</v>
       </c>
       <c r="L167" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="M167" t="s">
-        <v>2297</v>
+        <v>2299</v>
       </c>
       <c r="N167" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="O167" t="s">
-        <v>2379</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="168">
@@ -15240,16 +15246,16 @@
         <v>29.953936284899</v>
       </c>
       <c r="L168" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="M168" t="s">
-        <v>2298</v>
+        <v>2300</v>
       </c>
       <c r="N168" t="s">
-        <v>2325</v>
+        <v>2327</v>
       </c>
       <c r="O168" t="s">
-        <v>2380</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="169">
@@ -15334,16 +15340,16 @@
         <v>29.9474653733504</v>
       </c>
       <c r="L170" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="M170" t="s">
-        <v>2298</v>
+        <v>2300</v>
       </c>
       <c r="N170" t="s">
-        <v>2325</v>
+        <v>2327</v>
       </c>
       <c r="O170" t="s">
-        <v>2380</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="171">
@@ -15475,16 +15481,16 @@
         <v>43.6407743455495</v>
       </c>
       <c r="L173" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="M173" t="s">
-        <v>2299</v>
+        <v>2301</v>
       </c>
       <c r="N173" t="s">
-        <v>2326</v>
+        <v>2328</v>
       </c>
       <c r="O173" t="s">
-        <v>2381</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="174">
@@ -15522,16 +15528,16 @@
         <v>38.9800754310097</v>
       </c>
       <c r="L174" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="M174" t="s">
-        <v>2300</v>
+        <v>2302</v>
       </c>
       <c r="N174" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="O174" t="s">
-        <v>2382</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="175">
@@ -15616,16 +15622,16 @@
         <v>39.2997982450489</v>
       </c>
       <c r="L176" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="M176" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="N176" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="O176" t="s">
-        <v>2383</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="177">
@@ -15663,16 +15669,16 @@
         <v>39.2984890798081</v>
       </c>
       <c r="L177" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="M177" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="N177" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="O177" t="s">
-        <v>2384</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="178">
@@ -15710,16 +15716,16 @@
         <v>39.3049706144218</v>
       </c>
       <c r="L178" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="M178" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="N178" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="O178" t="s">
-        <v>2384</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="179">
@@ -15757,16 +15763,16 @@
         <v>39.3033147225585</v>
       </c>
       <c r="L179" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="M179" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="N179" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="O179" t="s">
-        <v>2384</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="180">
@@ -15804,16 +15810,16 @@
         <v>39.3003529367262</v>
       </c>
       <c r="L180" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="M180" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="N180" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="O180" t="s">
-        <v>2383</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="181">
@@ -15851,16 +15857,16 @@
         <v>39.3025949572543</v>
       </c>
       <c r="L181" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="M181" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="N181" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="O181" t="s">
-        <v>2384</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="182">
@@ -15898,16 +15904,16 @@
         <v>39.2994551167825</v>
       </c>
       <c r="L182" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="M182" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="N182" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="O182" t="s">
-        <v>2385</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="183">
@@ -15945,16 +15951,16 @@
         <v>39.3044001312512</v>
       </c>
       <c r="L183" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="M183" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="N183" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="O183" t="s">
-        <v>2384</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="184">
@@ -15992,16 +15998,16 @@
         <v>39.3012244165169</v>
       </c>
       <c r="L184" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="M184" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="N184" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="O184" t="s">
-        <v>2384</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="185">
@@ -16039,16 +16045,16 @@
         <v>39.4118723508247</v>
       </c>
       <c r="L185" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="M185" t="s">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="N185" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="O185" t="s">
-        <v>2386</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="186">
@@ -16086,16 +16092,16 @@
         <v>39.4202493721342</v>
       </c>
       <c r="L186" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="M186" t="s">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="N186" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="O186" t="s">
-        <v>2386</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="187">
@@ -16133,16 +16139,16 @@
         <v>39.4110469979725</v>
       </c>
       <c r="L187" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="M187" t="s">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="N187" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="O187" t="s">
-        <v>2386</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="188">
@@ -16180,16 +16186,16 @@
         <v>38.3647961203265</v>
       </c>
       <c r="L188" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="M188" t="s">
-        <v>2302</v>
+        <v>2304</v>
       </c>
       <c r="N188" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="O188" t="s">
-        <v>2387</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="189">
@@ -16274,16 +16280,16 @@
         <v>39.6460453718648</v>
       </c>
       <c r="L190" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="M190" t="s">
-        <v>2303</v>
+        <v>2305</v>
       </c>
       <c r="N190" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="O190" t="s">
-        <v>2388</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="191">
@@ -16368,16 +16374,16 @@
         <v>42.3447621070603</v>
       </c>
       <c r="L192" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="M192" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="N192" t="s">
-        <v>2328</v>
+        <v>2330</v>
       </c>
       <c r="O192" t="s">
-        <v>2389</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="193">
@@ -16415,16 +16421,16 @@
         <v>42.3381377658745</v>
       </c>
       <c r="L193" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="M193" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="N193" t="s">
-        <v>2328</v>
+        <v>2330</v>
       </c>
       <c r="O193" t="s">
-        <v>2390</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="194">
@@ -16462,16 +16468,16 @@
         <v>42.3393873066311</v>
       </c>
       <c r="L194" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="M194" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c r="N194" t="s">
-        <v>2329</v>
+        <v>2331</v>
       </c>
       <c r="O194" t="s">
-        <v>2391</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="195">
@@ -16606,13 +16612,13 @@
         <v>618</v>
       </c>
       <c r="M197" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c r="N197" t="s">
-        <v>2329</v>
+        <v>2331</v>
       </c>
       <c r="O197" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="198">
@@ -16650,16 +16656,16 @@
         <v>42.3386405671432</v>
       </c>
       <c r="L198" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="M198" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c r="N198" t="s">
-        <v>2329</v>
+        <v>2331</v>
       </c>
       <c r="O198" t="s">
-        <v>2391</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="199">
@@ -16697,16 +16703,16 @@
         <v>42.3377319669728</v>
       </c>
       <c r="L199" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="M199" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c r="N199" t="s">
-        <v>2329</v>
+        <v>2331</v>
       </c>
       <c r="O199" t="s">
-        <v>2393</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="200">
@@ -17026,16 +17032,16 @@
         <v>40.2114476135637</v>
       </c>
       <c r="L206" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="M206" t="s">
-        <v>2305</v>
+        <v>2307</v>
       </c>
       <c r="N206" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O206" t="s">
-        <v>2394</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="207">
@@ -17073,16 +17079,16 @@
         <v>40.2150093092462</v>
       </c>
       <c r="L207" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="M207" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="N207" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O207" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="208">
@@ -17120,16 +17126,16 @@
         <v>40.2136447122591</v>
       </c>
       <c r="L208" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="M208" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="N208" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O208" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="209">
@@ -17167,16 +17173,16 @@
         <v>40.2136224261866</v>
       </c>
       <c r="L209" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="M209" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="N209" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O209" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="210">
@@ -17214,16 +17220,16 @@
         <v>40.2150093092462</v>
       </c>
       <c r="L210" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="M210" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="N210" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O210" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="211">
@@ -17261,16 +17267,16 @@
         <v>40.2161953009375</v>
       </c>
       <c r="L211" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="M211" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="N211" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O211" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="212">
@@ -17308,16 +17314,16 @@
         <v>40.2192907572847</v>
       </c>
       <c r="L212" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="M212" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="N212" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O212" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="213">
@@ -17402,16 +17408,16 @@
         <v>40.2136447122591</v>
       </c>
       <c r="L214" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="M214" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="N214" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O214" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="215">
@@ -17449,16 +17455,16 @@
         <v>40.2142913360775</v>
       </c>
       <c r="L215" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="M215" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="N215" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O215" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="216">
@@ -17496,16 +17502,16 @@
         <v>40.214302218096</v>
       </c>
       <c r="L216" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="M216" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="N216" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O216" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="217">
@@ -17543,16 +17549,16 @@
         <v>40.2177014636664</v>
       </c>
       <c r="L217" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="M217" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="N217" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O217" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="218">
@@ -17590,16 +17596,16 @@
         <v>40.2180267435597</v>
       </c>
       <c r="L218" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="M218" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="N218" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O218" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="219">
@@ -17731,16 +17737,16 @@
         <v>40.2154150426161</v>
       </c>
       <c r="L221" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="M221" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="N221" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O221" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="222">
@@ -17778,16 +17784,16 @@
         <v>40.214858307013</v>
       </c>
       <c r="L222" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="M222" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="N222" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O222" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="223">
@@ -17825,16 +17831,16 @@
         <v>40.2149804573318</v>
       </c>
       <c r="L223" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="M223" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="N223" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O223" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="224">
@@ -17872,16 +17878,16 @@
         <v>40.2150461693654</v>
       </c>
       <c r="L224" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="M224" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="N224" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O224" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="225">
@@ -17919,16 +17925,16 @@
         <v>40.2151157874928</v>
       </c>
       <c r="L225" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="M225" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="N225" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O225" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="226">
@@ -17966,16 +17972,16 @@
         <v>40.2153017193096</v>
       </c>
       <c r="L226" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="M226" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="N226" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O226" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="227">
@@ -18013,16 +18019,16 @@
         <v>40.2150631316698</v>
       </c>
       <c r="L227" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="M227" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="N227" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O227" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="228">
@@ -18060,16 +18066,16 @@
         <v>40.2149481570892</v>
       </c>
       <c r="L228" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="M228" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="N228" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O228" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="229">
@@ -18107,16 +18113,16 @@
         <v>40.2148599220251</v>
       </c>
       <c r="L229" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="M229" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="N229" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O229" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="230">
@@ -18154,16 +18160,16 @@
         <v>40.2152522630172</v>
       </c>
       <c r="L230" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="M230" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="N230" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O230" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="231">
@@ -18201,16 +18207,16 @@
         <v>40.2148663820736</v>
       </c>
       <c r="L231" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="M231" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="N231" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O231" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="232">
@@ -18248,16 +18254,16 @@
         <v>40.2145540924895</v>
       </c>
       <c r="L232" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="M232" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="N232" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O232" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="233">
@@ -18295,16 +18301,16 @@
         <v>40.2150277393058</v>
       </c>
       <c r="L233" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="M233" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="N233" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O233" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="234">
@@ -18342,16 +18348,16 @@
         <v>39.3650976125531</v>
       </c>
       <c r="L234" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="M234" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="N234" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O234" t="s">
-        <v>2396</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="235">
@@ -18389,16 +18395,16 @@
         <v>39.367128837033</v>
       </c>
       <c r="L235" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="M235" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="N235" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O235" t="s">
-        <v>2396</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="236">
@@ -18439,13 +18445,13 @@
         <v>#N/A</v>
       </c>
       <c r="M236" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="N236" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O236" t="s">
-        <v>2396</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="237">
@@ -18483,16 +18489,16 @@
         <v>39.3626683611619</v>
       </c>
       <c r="L237" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="M237" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="N237" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O237" t="s">
-        <v>2396</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="238">
@@ -18530,16 +18536,16 @@
         <v>39.3615391584953</v>
       </c>
       <c r="L238" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="M238" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="N238" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O238" t="s">
-        <v>2396</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="239">
@@ -18577,16 +18583,16 @@
         <v>39.3615444956412</v>
       </c>
       <c r="L239" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="M239" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="N239" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O239" t="s">
-        <v>2396</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="240">
@@ -18624,16 +18630,16 @@
         <v>39.3601576476768</v>
       </c>
       <c r="L240" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="M240" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="N240" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O240" t="s">
-        <v>2396</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="241">
@@ -18718,16 +18724,16 @@
         <v>39.3617825979103</v>
       </c>
       <c r="L242" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="M242" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="N242" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O242" t="s">
-        <v>2396</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="243">
@@ -18909,13 +18915,13 @@
         <v>#N/A</v>
       </c>
       <c r="M246" t="s">
-        <v>2308</v>
+        <v>2310</v>
       </c>
       <c r="N246" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O246" t="s">
-        <v>2397</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="247">
@@ -18953,16 +18959,16 @@
         <v>38.936066720208</v>
       </c>
       <c r="L247" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="M247" t="s">
         <v>614</v>
       </c>
       <c r="N247" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O247" t="s">
-        <v>2398</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="248">
@@ -19047,16 +19053,16 @@
         <v>38.9357961017752</v>
       </c>
       <c r="L249" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="M249" t="s">
         <v>614</v>
       </c>
       <c r="N249" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O249" t="s">
-        <v>2398</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="250">
@@ -19094,16 +19100,16 @@
         <v>38.9358454947729</v>
       </c>
       <c r="L250" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="M250" t="s">
         <v>614</v>
       </c>
       <c r="N250" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O250" t="s">
-        <v>2398</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="251">
@@ -19235,16 +19241,16 @@
         <v>40.7588607326301</v>
       </c>
       <c r="L253" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="M253" t="s">
-        <v>2309</v>
+        <v>2311</v>
       </c>
       <c r="N253" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O253" t="s">
-        <v>2399</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="254">
@@ -19282,16 +19288,16 @@
         <v>40.7719536412167</v>
       </c>
       <c r="L254" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="M254" t="s">
         <v>630</v>
       </c>
       <c r="N254" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O254" t="s">
-        <v>2400</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="255">
@@ -19329,16 +19335,16 @@
         <v>40.6664321939293</v>
       </c>
       <c r="L255" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="M255" t="s">
         <v>618</v>
       </c>
       <c r="N255" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O255" t="s">
-        <v>2401</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="256">
@@ -19376,16 +19382,16 @@
         <v>40.6570957477059</v>
       </c>
       <c r="L256" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="M256" t="s">
         <v>618</v>
       </c>
       <c r="N256" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O256" t="s">
-        <v>2402</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="257">
@@ -19423,16 +19429,16 @@
         <v>40.6663365310407</v>
       </c>
       <c r="L257" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="M257" t="s">
         <v>618</v>
       </c>
       <c r="N257" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O257" t="s">
-        <v>2401</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="258">
@@ -19470,16 +19476,16 @@
         <v>40.6823036430218</v>
       </c>
       <c r="L258" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="M258" t="s">
         <v>618</v>
       </c>
       <c r="N258" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O258" t="s">
-        <v>2401</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="259">
@@ -19517,16 +19523,16 @@
         <v>40.6671065347363</v>
       </c>
       <c r="L259" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="M259" t="s">
         <v>618</v>
       </c>
       <c r="N259" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O259" t="s">
-        <v>2401</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="260">
@@ -19564,16 +19570,16 @@
         <v>40.8921392663804</v>
       </c>
       <c r="L260" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="M260" t="s">
         <v>619</v>
       </c>
       <c r="N260" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O260" t="s">
-        <v>2403</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="261">
@@ -19611,16 +19617,16 @@
         <v>40.8934795213351</v>
       </c>
       <c r="L261" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="M261" t="s">
         <v>619</v>
       </c>
       <c r="N261" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O261" t="s">
-        <v>2403</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="262">
@@ -19658,16 +19664,16 @@
         <v>40.888621565364</v>
       </c>
       <c r="L262" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="M262" t="s">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c r="N262" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O262" t="s">
-        <v>2404</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="263">
@@ -19705,16 +19711,16 @@
         <v>40.888621565364</v>
       </c>
       <c r="L263" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="M263" t="s">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c r="N263" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O263" t="s">
-        <v>2404</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="264">
@@ -19752,16 +19758,16 @@
         <v>40.887420592285</v>
       </c>
       <c r="L264" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="M264" t="s">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c r="N264" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O264" t="s">
-        <v>2404</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="265">
@@ -19799,16 +19805,16 @@
         <v>40.8884224523412</v>
       </c>
       <c r="L265" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="M265" t="s">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c r="N265" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O265" t="s">
-        <v>2404</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="266">
@@ -19846,16 +19852,16 @@
         <v>40.888039771273</v>
       </c>
       <c r="L266" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="M266" t="s">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c r="N266" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O266" t="s">
-        <v>2404</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="267">
@@ -19893,16 +19899,16 @@
         <v>40.88951678441</v>
       </c>
       <c r="L267" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="M267" t="s">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c r="N267" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O267" t="s">
-        <v>2404</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="268">
@@ -19940,16 +19946,16 @@
         <v>40.8880010725862</v>
       </c>
       <c r="L268" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="M268" t="s">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c r="N268" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O268" t="s">
-        <v>2404</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="269">
@@ -20269,16 +20275,16 @@
         <v>40.6443435795189</v>
       </c>
       <c r="L275" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="M275" t="s">
         <v>624</v>
       </c>
       <c r="N275" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O275" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="276">
@@ -20316,16 +20322,16 @@
         <v>40.303955218226</v>
       </c>
       <c r="L276" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="M276" t="s">
         <v>625</v>
       </c>
       <c r="N276" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O276" t="s">
-        <v>2406</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="277">
@@ -20363,16 +20369,16 @@
         <v>40.3036083497256</v>
       </c>
       <c r="L277" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="M277" t="s">
         <v>625</v>
       </c>
       <c r="N277" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O277" t="s">
-        <v>2406</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="278">
@@ -20457,16 +20463,16 @@
         <v>40.3036198014309</v>
       </c>
       <c r="L279" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="M279" t="s">
         <v>625</v>
       </c>
       <c r="N279" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O279" t="s">
-        <v>2406</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="280">
@@ -20551,16 +20557,16 @@
         <v>40.3038849483965</v>
       </c>
       <c r="L281" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="M281" t="s">
         <v>625</v>
       </c>
       <c r="N281" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O281" t="s">
-        <v>2406</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="282">
@@ -20645,16 +20651,16 @@
         <v>40.7605045152621</v>
       </c>
       <c r="L283" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="M283" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N283" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O283" t="s">
-        <v>2407</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="284">
@@ -20692,16 +20698,16 @@
         <v>40.7818903073156</v>
       </c>
       <c r="L284" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="M284" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="N284" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O284" t="s">
-        <v>2408</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="285">
@@ -20739,16 +20745,16 @@
         <v>40.8043904082653</v>
       </c>
       <c r="L285" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="M285" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="N285" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O285" t="s">
-        <v>2408</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="286">
@@ -20792,10 +20798,10 @@
         <v>627</v>
       </c>
       <c r="N286" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O286" t="s">
-        <v>2409</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="287">
@@ -20833,16 +20839,16 @@
         <v>40.7808341051171</v>
       </c>
       <c r="L287" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="M287" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="N287" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O287" t="s">
-        <v>2408</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="288">
@@ -20880,16 +20886,16 @@
         <v>40.7815382399161</v>
       </c>
       <c r="L288" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="M288" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="N288" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O288" t="s">
-        <v>2408</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="289">
@@ -20927,16 +20933,16 @@
         <v>40.7621799968</v>
       </c>
       <c r="L289" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="M289" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N289" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O289" t="s">
-        <v>2407</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="290">
@@ -20974,16 +20980,16 @@
         <v>40.7392896473358</v>
       </c>
       <c r="L290" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="M290" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N290" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O290" t="s">
-        <v>2410</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="291">
@@ -21021,16 +21027,16 @@
         <v>40.7199776636757</v>
       </c>
       <c r="L291" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="M291" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N291" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O291" t="s">
-        <v>2411</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="292">
@@ -21068,16 +21074,16 @@
         <v>40.7676090653327</v>
       </c>
       <c r="L292" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="M292" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N292" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O292" t="s">
-        <v>2407</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="293">
@@ -21115,16 +21121,16 @@
         <v>40.7274393313268</v>
       </c>
       <c r="L293" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="M293" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N293" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O293" t="s">
-        <v>2410</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="294">
@@ -21165,13 +21171,13 @@
         <v>630</v>
       </c>
       <c r="M294" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N294" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O294" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="295">
@@ -21303,16 +21309,16 @@
         <v>40.7305480384586</v>
       </c>
       <c r="L297" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="M297" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N297" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O297" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="298">
@@ -21350,16 +21356,16 @@
         <v>40.7333684152671</v>
       </c>
       <c r="L298" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="M298" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N298" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O298" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="299">
@@ -21397,16 +21403,16 @@
         <v>40.7334654844626</v>
       </c>
       <c r="L299" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="M299" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N299" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O299" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="300">
@@ -21491,16 +21497,16 @@
         <v>40.7409596589602</v>
       </c>
       <c r="L301" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="M301" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N301" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O301" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="302">
@@ -21538,16 +21544,16 @@
         <v>40.7302315910578</v>
       </c>
       <c r="L302" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="M302" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N302" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O302" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="303">
@@ -21585,16 +21591,16 @@
         <v>40.728370695911</v>
       </c>
       <c r="L303" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="M303" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N303" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O303" t="s">
-        <v>2413</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="304">
@@ -21635,13 +21641,13 @@
         <v>630</v>
       </c>
       <c r="M304" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N304" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O304" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="305">
@@ -21682,13 +21688,13 @@
         <v>630</v>
       </c>
       <c r="M305" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N305" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O305" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="306">
@@ -21773,16 +21779,16 @@
         <v>40.7310374470585</v>
       </c>
       <c r="L307" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="M307" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N307" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O307" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="308">
@@ -21820,16 +21826,16 @@
         <v>40.7712255129912</v>
       </c>
       <c r="L308" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="M308" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N308" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O308" t="s">
-        <v>2414</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="309">
@@ -21867,16 +21873,16 @@
         <v>40.7429434115637</v>
       </c>
       <c r="L309" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="M309" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N309" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O309" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="310">
@@ -21914,16 +21920,16 @@
         <v>40.7277567318296</v>
       </c>
       <c r="L310" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="M310" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N310" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O310" t="s">
-        <v>2413</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="311">
@@ -22008,16 +22014,16 @@
         <v>40.7222285374967</v>
       </c>
       <c r="L312" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="M312" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N312" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O312" t="s">
-        <v>2411</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="313">
@@ -22055,16 +22061,16 @@
         <v>40.7271905159304</v>
       </c>
       <c r="L313" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="M313" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N313" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O313" t="s">
-        <v>2413</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="314">
@@ -22102,16 +22108,16 @@
         <v>40.7316807314408</v>
       </c>
       <c r="L314" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="M314" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N314" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O314" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="315">
@@ -22149,16 +22155,16 @@
         <v>40.7316570171791</v>
       </c>
       <c r="L315" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="M315" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N315" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O315" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="316">
@@ -22196,16 +22202,16 @@
         <v>40.7274383682103</v>
       </c>
       <c r="L316" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="M316" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N316" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O316" t="s">
-        <v>2413</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="317">
@@ -22243,16 +22249,16 @@
         <v>40.7384741876221</v>
       </c>
       <c r="L317" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="M317" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N317" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O317" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="318">
@@ -22290,16 +22296,16 @@
         <v>40.7293809962016</v>
       </c>
       <c r="L318" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="M318" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N318" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O318" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="319">
@@ -22384,16 +22390,16 @@
         <v>40.7352755565692</v>
       </c>
       <c r="L320" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="M320" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N320" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O320" t="s">
-        <v>2410</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="321">
@@ -22431,16 +22437,16 @@
         <v>40.7327453715699</v>
       </c>
       <c r="L321" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="M321" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N321" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O321" t="s">
-        <v>2410</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="322">
@@ -22478,16 +22484,16 @@
         <v>40.7284411072458</v>
       </c>
       <c r="L322" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="M322" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N322" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O322" t="s">
-        <v>2413</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="323">
@@ -22525,16 +22531,16 @@
         <v>40.7280100126526</v>
       </c>
       <c r="L323" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="M323" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="N323" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O323" t="s">
-        <v>2413</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="324">
@@ -22619,16 +22625,16 @@
         <v>40.7669830120396</v>
       </c>
       <c r="L325" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="M325" t="s">
         <v>630</v>
       </c>
       <c r="N325" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O325" t="s">
-        <v>2400</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="326">
@@ -22713,16 +22719,16 @@
         <v>40.7671043446335</v>
       </c>
       <c r="L327" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="M327" t="s">
         <v>630</v>
       </c>
       <c r="N327" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O327" t="s">
-        <v>2400</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="328">
@@ -22760,16 +22766,16 @@
         <v>39.2888080259599</v>
       </c>
       <c r="L328" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="M328" t="s">
         <v>631</v>
       </c>
       <c r="N328" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O328" t="s">
-        <v>2415</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="329">
@@ -22854,16 +22860,16 @@
         <v>40.9221835168163</v>
       </c>
       <c r="L330" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="M330" t="s">
         <v>632</v>
       </c>
       <c r="N330" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O330" t="s">
-        <v>2416</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="331">
@@ -22901,16 +22907,16 @@
         <v>40.9223573995542</v>
       </c>
       <c r="L331" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="M331" t="s">
         <v>632</v>
       </c>
       <c r="N331" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O331" t="s">
-        <v>2416</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="332">
@@ -22995,16 +23001,16 @@
         <v>40.8639781897734</v>
       </c>
       <c r="L333" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="M333" t="s">
-        <v>2312</v>
+        <v>2314</v>
       </c>
       <c r="N333" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O333" t="s">
-        <v>2417</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="334">
@@ -23089,16 +23095,16 @@
         <v>40.613539227877</v>
       </c>
       <c r="L335" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="M335" t="s">
-        <v>2313</v>
+        <v>2315</v>
       </c>
       <c r="N335" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O335" t="s">
-        <v>2418</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="336">
@@ -23136,16 +23142,16 @@
         <v>40.3419106098403</v>
       </c>
       <c r="L336" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="M336" t="s">
         <v>637</v>
       </c>
       <c r="N336" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O336" t="s">
-        <v>2419</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="337">
@@ -23183,16 +23189,16 @@
         <v>40.341486055456</v>
       </c>
       <c r="L337" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="M337" t="s">
         <v>637</v>
       </c>
       <c r="N337" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O337" t="s">
-        <v>2419</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="338">
@@ -23230,16 +23236,16 @@
         <v>40.3424870511681</v>
       </c>
       <c r="L338" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="M338" t="s">
         <v>637</v>
       </c>
       <c r="N338" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O338" t="s">
-        <v>2419</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="339">
@@ -23277,16 +23283,16 @@
         <v>40.3415169186392</v>
       </c>
       <c r="L339" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="M339" t="s">
         <v>637</v>
       </c>
       <c r="N339" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O339" t="s">
-        <v>2419</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="340">
@@ -23324,16 +23330,16 @@
         <v>40.3435559838656</v>
       </c>
       <c r="L340" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="M340" t="s">
         <v>637</v>
       </c>
       <c r="N340" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O340" t="s">
-        <v>2419</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="341">
@@ -23377,10 +23383,10 @@
         <v>637</v>
       </c>
       <c r="N341" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O341" t="s">
-        <v>2419</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="342">
@@ -23418,16 +23424,16 @@
         <v>40.3395759368863</v>
       </c>
       <c r="L342" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="M342" t="s">
         <v>637</v>
       </c>
       <c r="N342" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O342" t="s">
-        <v>2419</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="343">
@@ -23653,16 +23659,16 @@
         <v>40.3610685768442</v>
       </c>
       <c r="L347" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="M347" t="s">
-        <v>2314</v>
+        <v>2316</v>
       </c>
       <c r="N347" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="O347" t="s">
-        <v>2420</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="348">
@@ -23794,16 +23800,16 @@
         <v>42.8725019372458</v>
       </c>
       <c r="L350" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="M350" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="N350" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O350" t="s">
-        <v>2421</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="351">
@@ -23841,16 +23847,16 @@
         <v>42.8830956020012</v>
       </c>
       <c r="L351" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="M351" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="N351" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O351" t="s">
-        <v>2421</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="352">
@@ -23888,16 +23894,16 @@
         <v>42.8841445438434</v>
       </c>
       <c r="L352" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="M352" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="N352" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O352" t="s">
-        <v>2422</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="353">
@@ -23935,16 +23941,16 @@
         <v>40.8074111616048</v>
       </c>
       <c r="L353" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M353" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N353" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O353" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="354">
@@ -23985,13 +23991,13 @@
         <v>#N/A</v>
       </c>
       <c r="M354" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N354" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O354" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="355">
@@ -24029,16 +24035,16 @@
         <v>40.803972872293</v>
       </c>
       <c r="L355" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="M355" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N355" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O355" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="356">
@@ -24076,16 +24082,16 @@
         <v>40.8154312139436</v>
       </c>
       <c r="L356" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="M356" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N356" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O356" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="357">
@@ -24123,16 +24129,16 @@
         <v>40.8115752523921</v>
       </c>
       <c r="L357" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="M357" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N357" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O357" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="358">
@@ -24170,16 +24176,16 @@
         <v>40.8061252288846</v>
       </c>
       <c r="L358" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="M358" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N358" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O358" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="359">
@@ -24217,16 +24223,16 @@
         <v>40.8128158973742</v>
       </c>
       <c r="L359" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="M359" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N359" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O359" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="360">
@@ -24264,16 +24270,16 @@
         <v>40.7372535643539</v>
       </c>
       <c r="L360" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M360" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N360" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O360" t="s">
-        <v>2427</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="361">
@@ -24358,16 +24364,16 @@
         <v>40.8136726078813</v>
       </c>
       <c r="L362" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="M362" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N362" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O362" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="363">
@@ -24405,16 +24411,16 @@
         <v>40.8112829485704</v>
       </c>
       <c r="L363" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="M363" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N363" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O363" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="364">
@@ -24452,16 +24458,16 @@
         <v>40.7992270490966</v>
       </c>
       <c r="L364" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="M364" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N364" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O364" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="365">
@@ -24499,16 +24505,16 @@
         <v>40.8193037919241</v>
       </c>
       <c r="L365" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M365" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N365" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O365" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="366">
@@ -24546,16 +24552,16 @@
         <v>40.8067383651947</v>
       </c>
       <c r="L366" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="M366" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N366" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O366" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="367">
@@ -24593,16 +24599,16 @@
         <v>40.8150501728979</v>
       </c>
       <c r="L367" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="M367" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N367" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O367" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="368">
@@ -24640,16 +24646,16 @@
         <v>40.8104058335707</v>
       </c>
       <c r="L368" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M368" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N368" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O368" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="369">
@@ -24690,13 +24696,13 @@
         <v>#N/A</v>
       </c>
       <c r="M369" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N369" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O369" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="370">
@@ -24734,16 +24740,16 @@
         <v>40.8250143299888</v>
       </c>
       <c r="L370" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="M370" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N370" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O370" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="371">
@@ -24781,16 +24787,16 @@
         <v>40.816391956764</v>
       </c>
       <c r="L371" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="M371" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N371" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O371" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="372">
@@ -24828,16 +24834,16 @@
         <v>40.8089918390091</v>
       </c>
       <c r="L372" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="M372" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N372" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O372" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="373">
@@ -24875,16 +24881,16 @@
         <v>40.8105205125442</v>
       </c>
       <c r="L373" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="M373" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N373" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O373" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="374">
@@ -24922,16 +24928,16 @@
         <v>40.8180518096903</v>
       </c>
       <c r="L374" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="M374" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N374" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O374" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="375">
@@ -24969,16 +24975,16 @@
         <v>40.8099914897658</v>
       </c>
       <c r="L375" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M375" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N375" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O375" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="376">
@@ -25016,16 +25022,16 @@
         <v>40.8207019930549</v>
       </c>
       <c r="L376" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="M376" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N376" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O376" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="377">
@@ -25063,16 +25069,16 @@
         <v>40.8101145871198</v>
       </c>
       <c r="L377" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M377" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N377" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O377" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="378">
@@ -25110,16 +25116,16 @@
         <v>40.8301533721475</v>
       </c>
       <c r="L378" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="M378" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N378" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O378" t="s">
-        <v>2429</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="379">
@@ -25157,16 +25163,16 @@
         <v>40.803453704669</v>
       </c>
       <c r="L379" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="M379" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N379" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O379" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="380">
@@ -25204,16 +25210,16 @@
         <v>40.8097760693965</v>
       </c>
       <c r="L380" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M380" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N380" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O380" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="381">
@@ -25251,16 +25257,16 @@
         <v>40.8064073305652</v>
       </c>
       <c r="L381" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="M381" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N381" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O381" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="382">
@@ -25298,16 +25304,16 @@
         <v>40.8222514829999</v>
       </c>
       <c r="L382" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="M382" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N382" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O382" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="383">
@@ -25345,16 +25351,16 @@
         <v>40.8261847954995</v>
       </c>
       <c r="L383" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="M383" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N383" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O383" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="384">
@@ -25392,16 +25398,16 @@
         <v>40.8288742685195</v>
       </c>
       <c r="L384" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="M384" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N384" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O384" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="385">
@@ -25439,16 +25445,16 @@
         <v>40.8205193804645</v>
       </c>
       <c r="L385" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M385" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N385" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O385" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="386">
@@ -25486,16 +25492,16 @@
         <v>40.8223862303268</v>
       </c>
       <c r="L386" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="M386" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N386" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O386" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="387">
@@ -25533,16 +25539,16 @@
         <v>40.8067383651947</v>
       </c>
       <c r="L387" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="M387" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N387" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O387" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="388">
@@ -25580,16 +25586,16 @@
         <v>40.8151649526238</v>
       </c>
       <c r="L388" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M388" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N388" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O388" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="389">
@@ -25627,16 +25633,16 @@
         <v>40.8183339651328</v>
       </c>
       <c r="L389" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M389" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N389" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O389" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="390">
@@ -25677,13 +25683,13 @@
         <v>#N/A</v>
       </c>
       <c r="M390" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N390" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O390" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="391">
@@ -25721,16 +25727,16 @@
         <v>40.8165249758249</v>
       </c>
       <c r="L391" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M391" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N391" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O391" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="392">
@@ -25768,16 +25774,16 @@
         <v>40.8284616900888</v>
       </c>
       <c r="L392" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="M392" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N392" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O392" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="393">
@@ -25815,16 +25821,16 @@
         <v>40.8221023001215</v>
       </c>
       <c r="L393" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="M393" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N393" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O393" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="394">
@@ -25862,16 +25868,16 @@
         <v>40.8149650920743</v>
       </c>
       <c r="L394" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M394" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N394" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O394" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="395">
@@ -25909,16 +25915,16 @@
         <v>40.8164259067019</v>
       </c>
       <c r="L395" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="M395" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N395" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O395" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="396">
@@ -25956,16 +25962,16 @@
         <v>40.8103074524103</v>
       </c>
       <c r="L396" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="M396" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N396" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O396" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="397">
@@ -26003,16 +26009,16 @@
         <v>40.8156988479051</v>
       </c>
       <c r="L397" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M397" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N397" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O397" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="398">
@@ -26050,16 +26056,16 @@
         <v>40.8106897251114</v>
       </c>
       <c r="L398" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="M398" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N398" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O398" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="399">
@@ -26097,16 +26103,16 @@
         <v>40.8025711480304</v>
       </c>
       <c r="L399" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="M399" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N399" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O399" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="400">
@@ -26144,16 +26150,16 @@
         <v>40.8121229367704</v>
       </c>
       <c r="L400" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M400" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N400" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O400" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="401">
@@ -26191,16 +26197,16 @@
         <v>40.8110444559593</v>
       </c>
       <c r="L401" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="M401" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N401" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O401" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="402">
@@ -26238,16 +26244,16 @@
         <v>40.8054627737462</v>
       </c>
       <c r="L402" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="M402" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N402" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O402" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="403">
@@ -26285,16 +26291,16 @@
         <v>40.8091191314914</v>
       </c>
       <c r="L403" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="M403" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N403" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O403" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="404">
@@ -26335,13 +26341,13 @@
         <v>#N/A</v>
       </c>
       <c r="M404" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N404" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O404" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="405">
@@ -26379,16 +26385,16 @@
         <v>40.8150084160676</v>
       </c>
       <c r="L405" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="M405" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N405" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O405" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="406">
@@ -26426,16 +26432,16 @@
         <v>40.8153845759943</v>
       </c>
       <c r="L406" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M406" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N406" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O406" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="407">
@@ -26473,16 +26479,16 @@
         <v>40.815635993523</v>
       </c>
       <c r="L407" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M407" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N407" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O407" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="408">
@@ -26520,16 +26526,16 @@
         <v>40.809806843735</v>
       </c>
       <c r="L408" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M408" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N408" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O408" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="409">
@@ -26567,16 +26573,16 @@
         <v>40.8099641166048</v>
       </c>
       <c r="L409" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="M409" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N409" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O409" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="410">
@@ -26614,16 +26620,16 @@
         <v>40.8173571703057</v>
       </c>
       <c r="L410" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="M410" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N410" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O410" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="411">
@@ -26661,16 +26667,16 @@
         <v>40.8091901427731</v>
       </c>
       <c r="L411" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M411" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N411" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O411" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="412">
@@ -26711,13 +26717,13 @@
         <v>#N/A</v>
       </c>
       <c r="M412" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N412" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O412" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="413">
@@ -26755,16 +26761,16 @@
         <v>40.8101539963686</v>
       </c>
       <c r="L413" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="M413" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N413" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O413" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="414">
@@ -26802,16 +26808,16 @@
         <v>40.8250358004123</v>
       </c>
       <c r="L414" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="M414" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N414" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O414" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="415">
@@ -26849,16 +26855,16 @@
         <v>40.8245951066748</v>
       </c>
       <c r="L415" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="M415" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N415" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O415" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="416">
@@ -26896,16 +26902,16 @@
         <v>40.8186768261035</v>
       </c>
       <c r="L416" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="M416" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N416" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O416" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="417">
@@ -26943,16 +26949,16 @@
         <v>40.8130403931941</v>
       </c>
       <c r="L417" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="M417" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N417" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O417" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="418">
@@ -26990,16 +26996,16 @@
         <v>40.811430882027</v>
       </c>
       <c r="L418" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M418" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N418" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O418" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="419">
@@ -27037,16 +27043,16 @@
         <v>40.8237263293157</v>
       </c>
       <c r="L419" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="M419" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N419" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O419" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="420">
@@ -27084,16 +27090,16 @@
         <v>40.8196509634955</v>
       </c>
       <c r="L420" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M420" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N420" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O420" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="421">
@@ -27131,16 +27137,16 @@
         <v>40.8163201201174</v>
       </c>
       <c r="L421" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="M421" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N421" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O421" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="422">
@@ -27178,16 +27184,16 @@
         <v>40.8191736025849</v>
       </c>
       <c r="L422" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M422" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N422" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O422" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="423">
@@ -27225,16 +27231,16 @@
         <v>40.8098837795812</v>
       </c>
       <c r="L423" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M423" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N423" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O423" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="424">
@@ -27272,16 +27278,16 @@
         <v>40.8021472274012</v>
       </c>
       <c r="L424" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="M424" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N424" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O424" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="425">
@@ -27319,16 +27325,16 @@
         <v>40.816050466445</v>
       </c>
       <c r="L425" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M425" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N425" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O425" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="426">
@@ -27366,16 +27372,16 @@
         <v>40.8054423178274</v>
       </c>
       <c r="L426" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M426" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N426" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O426" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="427">
@@ -27413,16 +27419,16 @@
         <v>40.8147096229473</v>
       </c>
       <c r="L427" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M427" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N427" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O427" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="428">
@@ -27460,16 +27466,16 @@
         <v>40.8208486278665</v>
       </c>
       <c r="L428" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M428" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N428" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O428" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="429">
@@ -27507,16 +27513,16 @@
         <v>40.8259317909798</v>
       </c>
       <c r="L429" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="M429" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N429" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O429" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="430">
@@ -27557,13 +27563,13 @@
         <v>#N/A</v>
       </c>
       <c r="M430" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N430" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O430" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="431">
@@ -27601,16 +27607,16 @@
         <v>40.825309883459</v>
       </c>
       <c r="L431" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="M431" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N431" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O431" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="432">
@@ -27648,16 +27654,16 @@
         <v>40.806778288196</v>
       </c>
       <c r="L432" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="M432" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N432" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O432" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="433">
@@ -27695,16 +27701,16 @@
         <v>40.8150786333882</v>
       </c>
       <c r="L433" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="M433" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N433" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O433" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="434">
@@ -27742,16 +27748,16 @@
         <v>40.8072314085168</v>
       </c>
       <c r="L434" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M434" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N434" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O434" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="435">
@@ -27789,16 +27795,16 @@
         <v>40.8206252647579</v>
       </c>
       <c r="L435" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M435" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N435" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O435" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="436">
@@ -27836,16 +27842,16 @@
         <v>40.821548687626</v>
       </c>
       <c r="L436" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M436" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N436" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O436" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="437">
@@ -27883,16 +27889,16 @@
         <v>40.8237263293157</v>
       </c>
       <c r="L437" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="M437" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N437" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O437" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="438">
@@ -27977,16 +27983,16 @@
         <v>40.8218464743525</v>
       </c>
       <c r="L439" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="M439" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N439" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O439" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="440">
@@ -28024,16 +28030,16 @@
         <v>40.8135247071316</v>
       </c>
       <c r="L440" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M440" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N440" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O440" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="441">
@@ -28065,22 +28071,22 @@
         <v>2039</v>
       </c>
       <c r="J441" t="n">
-        <v>-73.94012347975557</v>
+        <v>-73.9401234797556</v>
       </c>
       <c r="K441" t="n">
-        <v>40.82031535949548</v>
+        <v>40.8203153594955</v>
       </c>
       <c r="L441" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M441" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N441" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O441" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="442">
@@ -28112,22 +28118,22 @@
         <v>2040</v>
       </c>
       <c r="J442" t="n">
-        <v>-73.93782567065062</v>
+        <v>-73.9378256706506</v>
       </c>
       <c r="K442" t="n">
-        <v>40.818381084057464</v>
+        <v>40.8183810840575</v>
       </c>
       <c r="L442" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="M442" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N442" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O442" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="443">
@@ -28159,22 +28165,22 @@
         <v>2041</v>
       </c>
       <c r="J443" t="n">
-        <v>-73.94046993538728</v>
+        <v>-73.9404699353873</v>
       </c>
       <c r="K443" t="n">
-        <v>40.814753266162555</v>
+        <v>40.8147532661626</v>
       </c>
       <c r="L443" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="M443" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N443" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O443" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="444">
@@ -28206,22 +28212,22 @@
         <v>2042</v>
       </c>
       <c r="J444" t="n">
-        <v>-73.94082376456205</v>
+        <v>-73.9408237645621</v>
       </c>
       <c r="K444" t="n">
-        <v>40.814268389137474</v>
+        <v>40.8142683891375</v>
       </c>
       <c r="L444" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="M444" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N444" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O444" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="445">
@@ -28253,22 +28259,22 @@
         <v>2043</v>
       </c>
       <c r="J445" t="n">
-        <v>-73.94394250346858</v>
+        <v>-73.9439425034686</v>
       </c>
       <c r="K445" t="n">
-        <v>40.82206129764007</v>
+        <v>40.8220612976401</v>
       </c>
       <c r="L445" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="M445" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N445" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O445" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="446">
@@ -28300,22 +28306,22 @@
         <v>2044</v>
       </c>
       <c r="J446" t="n">
-        <v>-73.93907329514701</v>
+        <v>-73.939073295147</v>
       </c>
       <c r="K446" t="n">
-        <v>40.81643389613439</v>
+        <v>40.8164338961344</v>
       </c>
       <c r="L446" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="M446" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N446" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O446" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="447">
@@ -28347,22 +28353,22 @@
         <v>2045</v>
       </c>
       <c r="J447" t="n">
-        <v>-73.93991546548267</v>
+        <v>-73.9399154654827</v>
       </c>
       <c r="K447" t="n">
-        <v>40.81551422529185</v>
+        <v>40.8155142252919</v>
       </c>
       <c r="L447" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="M447" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N447" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O447" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="448">
@@ -28394,22 +28400,22 @@
         <v>2046</v>
       </c>
       <c r="J448" t="n">
-        <v>-73.95077523823787</v>
+        <v>-73.9507752382379</v>
       </c>
       <c r="K448" t="n">
-        <v>40.810595159716755</v>
+        <v>40.8105951597168</v>
       </c>
       <c r="L448" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="M448" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N448" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O448" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="449">
@@ -28441,22 +28447,22 @@
         <v>2047</v>
       </c>
       <c r="J449" t="n">
-        <v>-73.95179580046155</v>
+        <v>-73.9517958004616</v>
       </c>
       <c r="K449" t="n">
-        <v>40.79900192942139</v>
+        <v>40.7990019294214</v>
       </c>
       <c r="L449" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="M449" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N449" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O449" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="450">
@@ -28488,22 +28494,22 @@
         <v>2048</v>
       </c>
       <c r="J450" t="n">
-        <v>-73.95410497169281</v>
+        <v>-73.9541049716928</v>
       </c>
       <c r="K450" t="n">
-        <v>40.803949822179916</v>
+        <v>40.8039498221799</v>
       </c>
       <c r="L450" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="M450" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N450" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O450" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="451">
@@ -28582,22 +28588,22 @@
         <v>2049</v>
       </c>
       <c r="J452" t="n">
-        <v>-73.95272145590457</v>
+        <v>-73.9527214559046</v>
       </c>
       <c r="K452" t="n">
-        <v>40.803367519512584</v>
+        <v>40.8033675195126</v>
       </c>
       <c r="L452" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="M452" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N452" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O452" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="453">
@@ -28629,22 +28635,22 @@
         <v>2050</v>
       </c>
       <c r="J453" t="n">
-        <v>-73.94215654185444</v>
+        <v>-73.9421565418544</v>
       </c>
       <c r="K453" t="n">
-        <v>40.81729815623316</v>
+        <v>40.8172981562332</v>
       </c>
       <c r="L453" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M453" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N453" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O453" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="454">
@@ -28676,22 +28682,22 @@
         <v>2048</v>
       </c>
       <c r="J454" t="n">
-        <v>-73.95410497169281</v>
+        <v>-73.9541049716928</v>
       </c>
       <c r="K454" t="n">
-        <v>40.803949822179916</v>
+        <v>40.8039498221799</v>
       </c>
       <c r="L454" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="M454" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N454" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O454" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="455">
@@ -28726,19 +28732,19 @@
         <v>-73.9449565418933</v>
       </c>
       <c r="K455" t="n">
-        <v>40.813468292330185</v>
+        <v>40.8134682923302</v>
       </c>
       <c r="L455" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M455" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N455" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O455" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="456">
@@ -28770,22 +28776,22 @@
         <v>2052</v>
       </c>
       <c r="J456" t="n">
-        <v>-73.93919820951862</v>
+        <v>-73.9391982095186</v>
       </c>
       <c r="K456" t="n">
-        <v>40.81649971173382</v>
+        <v>40.8164997117338</v>
       </c>
       <c r="L456" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="M456" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N456" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O456" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="457">
@@ -28817,22 +28823,22 @@
         <v>2053</v>
       </c>
       <c r="J457" t="n">
-        <v>-73.95455398030009</v>
+        <v>-73.9545539803001</v>
       </c>
       <c r="K457" t="n">
-        <v>40.80565107005573</v>
+        <v>40.8056510700557</v>
       </c>
       <c r="L457" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="M457" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N457" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O457" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="458">
@@ -28864,22 +28870,22 @@
         <v>2054</v>
       </c>
       <c r="J458" t="n">
-        <v>-73.94890688140221</v>
+        <v>-73.9489068814022</v>
       </c>
       <c r="K458" t="n">
-        <v>40.81314797910372</v>
+        <v>40.8131479791037</v>
       </c>
       <c r="L458" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="M458" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N458" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O458" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="459">
@@ -28914,19 +28920,19 @@
         <v>-73.9281658256768</v>
       </c>
       <c r="K459" t="n">
-        <v>40.857089404762114</v>
+        <v>40.8570894047621</v>
       </c>
       <c r="L459" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="M459" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N459" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O459" t="s">
-        <v>2431</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="460">
@@ -28958,22 +28964,22 @@
         <v>2056</v>
       </c>
       <c r="J460" t="n">
-        <v>-73.95163275545089</v>
+        <v>-73.9516327554509</v>
       </c>
       <c r="K460" t="n">
-        <v>40.809414789894056</v>
+        <v>40.8094147898941</v>
       </c>
       <c r="L460" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="M460" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N460" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O460" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="461">
@@ -29005,22 +29011,22 @@
         <v>2057</v>
       </c>
       <c r="J461" t="n">
-        <v>-73.95282535150784</v>
+        <v>-73.9528253515078</v>
       </c>
       <c r="K461" t="n">
-        <v>40.807493804577675</v>
+        <v>40.8074938045777</v>
       </c>
       <c r="L461" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="M461" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N461" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O461" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="462">
@@ -29052,22 +29058,22 @@
         <v>2058</v>
       </c>
       <c r="J462" t="n">
-        <v>-73.95254583291633</v>
+        <v>-73.9525458329163</v>
       </c>
       <c r="K462" t="n">
-        <v>40.802630685070135</v>
+        <v>40.8026306850701</v>
       </c>
       <c r="L462" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="M462" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N462" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O462" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="463">
@@ -29099,22 +29105,22 @@
         <v>2059</v>
       </c>
       <c r="J463" t="n">
-        <v>-73.94350917015367</v>
+        <v>-73.9435091701537</v>
       </c>
       <c r="K463" t="n">
-        <v>40.82563006783549</v>
+        <v>40.8256300678355</v>
       </c>
       <c r="L463" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="M463" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N463" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O463" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="464">
@@ -29146,22 +29152,22 @@
         <v>2022</v>
       </c>
       <c r="J464" t="n">
-        <v>-73.94095911280289</v>
+        <v>-73.9409591128029</v>
       </c>
       <c r="K464" t="n">
-        <v>40.81917360258487</v>
+        <v>40.8191736025849</v>
       </c>
       <c r="L464" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M464" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N464" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O464" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="465">
@@ -29193,22 +29199,22 @@
         <v>2060</v>
       </c>
       <c r="J465" t="n">
-        <v>-73.93826812282245</v>
+        <v>-73.9382681228225</v>
       </c>
       <c r="K465" t="n">
-        <v>40.82795759951811</v>
+        <v>40.8279575995181</v>
       </c>
       <c r="L465" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="M465" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N465" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O465" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="466">
@@ -29240,22 +29246,22 @@
         <v>2061</v>
       </c>
       <c r="J466" t="n">
-        <v>-73.94610285308046</v>
+        <v>-73.9461028530805</v>
       </c>
       <c r="K466" t="n">
-        <v>40.81190351528456</v>
+        <v>40.8119035152846</v>
       </c>
       <c r="L466" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M466" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N466" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O466" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="467">
@@ -29287,22 +29293,22 @@
         <v>2062</v>
       </c>
       <c r="J467" t="n">
-        <v>-73.94211528481041</v>
+        <v>-73.9421152848104</v>
       </c>
       <c r="K467" t="n">
-        <v>40.82285822454839</v>
+        <v>40.8228582245484</v>
       </c>
       <c r="L467" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="M467" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N467" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O467" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="468">
@@ -29334,22 +29340,22 @@
         <v>2063</v>
       </c>
       <c r="J468" t="n">
-        <v>-73.94257174475874</v>
+        <v>-73.9425717447587</v>
       </c>
       <c r="K468" t="n">
-        <v>40.81697013619408</v>
+        <v>40.8169701361941</v>
       </c>
       <c r="L468" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M468" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N468" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O468" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="469">
@@ -29384,19 +29390,19 @@
         <v>-73.94437159001</v>
       </c>
       <c r="K469" t="n">
-        <v>40.824680636133444</v>
+        <v>40.8246806361334</v>
       </c>
       <c r="L469" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="M469" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N469" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O469" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="470">
@@ -29428,22 +29434,22 @@
         <v>2065</v>
       </c>
       <c r="J470" t="n">
-        <v>-73.94988064962264</v>
+        <v>-73.9498806496226</v>
       </c>
       <c r="K470" t="n">
-        <v>40.801868471990964</v>
+        <v>40.801868471991</v>
       </c>
       <c r="L470" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="M470" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N470" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O470" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="471">
@@ -29475,22 +29481,22 @@
         <v>2066</v>
       </c>
       <c r="J471" t="n">
-        <v>-73.94180256598733</v>
+        <v>-73.9418025659873</v>
       </c>
       <c r="K471" t="n">
-        <v>40.81281372177277</v>
+        <v>40.8128137217728</v>
       </c>
       <c r="L471" t="e">
         <v>#N/A</v>
       </c>
       <c r="M471" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N471" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O471" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="472">
@@ -29522,22 +29528,22 @@
         <v>2024</v>
       </c>
       <c r="J472" t="n">
-        <v>-73.94982211659035</v>
+        <v>-73.9498221165904</v>
       </c>
       <c r="K472" t="n">
-        <v>40.80214722740121</v>
+        <v>40.8021472274012</v>
       </c>
       <c r="L472" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="M472" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N472" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O472" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="473">
@@ -29574,17 +29580,17 @@
       <c r="K473" t="n">
         <v>40.81860072050208</v>
       </c>
-      <c r="L473" t="e">
-        <v>#N/A</v>
+      <c r="L473" t="s">
+        <v>2262</v>
       </c>
       <c r="M473" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N473" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O473" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="474">
@@ -29616,7 +29622,7 @@
         <v>2068</v>
       </c>
       <c r="J474" t="n">
-        <v>-73.94369706522859</v>
+        <v>-73.9436970652286</v>
       </c>
       <c r="K474" t="n">
         <v>40.8153067213518</v>
@@ -29625,13 +29631,13 @@
         <v>#N/A</v>
       </c>
       <c r="M474" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N474" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O474" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="475">
@@ -29663,22 +29669,22 @@
         <v>2069</v>
       </c>
       <c r="J475" t="n">
-        <v>-73.93902023067021</v>
+        <v>-73.9390202306702</v>
       </c>
       <c r="K475" t="n">
-        <v>40.816743467633145</v>
+        <v>40.8167434676331</v>
       </c>
       <c r="L475" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="M475" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N475" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O475" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="476">
@@ -29710,22 +29716,22 @@
         <v>2070</v>
       </c>
       <c r="J476" t="n">
-        <v>-73.94033898322273</v>
+        <v>-73.9403389832227</v>
       </c>
       <c r="K476" t="n">
-        <v>40.82210461851413</v>
+        <v>40.8221046185141</v>
       </c>
       <c r="L476" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="M476" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N476" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O476" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="477">
@@ -29757,22 +29763,22 @@
         <v>2071</v>
       </c>
       <c r="J477" t="n">
-        <v>-73.94648263388291</v>
+        <v>-73.9464826338829</v>
       </c>
       <c r="K477" t="n">
-        <v>40.81670922245181</v>
+        <v>40.8167092224518</v>
       </c>
       <c r="L477" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="M477" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N477" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O477" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="478">
@@ -29804,22 +29810,22 @@
         <v>2072</v>
       </c>
       <c r="J478" t="n">
-        <v>-73.94336486098712</v>
+        <v>-73.9433648609871</v>
       </c>
       <c r="K478" t="n">
-        <v>40.81564344903338</v>
+        <v>40.8156434490334</v>
       </c>
       <c r="L478" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M478" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N478" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O478" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="479">
@@ -29854,19 +29860,19 @@
         <v>-73.9526107746415</v>
       </c>
       <c r="K479" t="n">
-        <v>40.80332093529921</v>
+        <v>40.8033209352992</v>
       </c>
       <c r="L479" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="M479" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N479" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O479" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="480">
@@ -29901,19 +29907,19 @@
         <v>-73.9444624626868</v>
       </c>
       <c r="K480" t="n">
-        <v>40.81414852937384</v>
+        <v>40.8141485293738</v>
       </c>
       <c r="L480" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M480" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N480" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O480" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="481">
@@ -29945,22 +29951,22 @@
         <v>2075</v>
       </c>
       <c r="J481" t="n">
-        <v>-73.94433788060155</v>
+        <v>-73.9443378806016</v>
       </c>
       <c r="K481" t="n">
-        <v>40.81455180182322</v>
+        <v>40.8145518018232</v>
       </c>
       <c r="L481" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M481" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N481" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O481" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="482">
@@ -29992,22 +29998,22 @@
         <v>2076</v>
       </c>
       <c r="J482" t="n">
-        <v>-73.95029396452132</v>
+        <v>-73.9502939645213</v>
       </c>
       <c r="K482" t="n">
-        <v>40.80616033055404</v>
+        <v>40.806160330554</v>
       </c>
       <c r="L482" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M482" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N482" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O482" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="483">
@@ -30039,22 +30045,22 @@
         <v>2077</v>
       </c>
       <c r="J483" t="n">
-        <v>-73.93868807591831</v>
+        <v>-73.9386880759183</v>
       </c>
       <c r="K483" t="n">
         <v>40.8222866019032</v>
       </c>
       <c r="L483" t="s">
-        <v>2262</v>
+        <v>2264</v>
       </c>
       <c r="M483" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N483" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O483" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="484">
@@ -30086,22 +30092,22 @@
         <v>2078</v>
       </c>
       <c r="J484" t="n">
-        <v>-73.94963936235494</v>
+        <v>-73.9496393623549</v>
       </c>
       <c r="K484" t="n">
-        <v>40.81238520719783</v>
+        <v>40.8123852071978</v>
       </c>
       <c r="L484" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="M484" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N484" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O484" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="485">
@@ -30133,22 +30139,22 @@
         <v>2079</v>
       </c>
       <c r="J485" t="n">
-        <v>-73.94398682001324</v>
+        <v>-73.9439868200132</v>
       </c>
       <c r="K485" t="n">
-        <v>40.823775334770275</v>
+        <v>40.8237753347703</v>
       </c>
       <c r="L485" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="M485" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N485" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O485" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="486">
@@ -30180,22 +30186,22 @@
         <v>2080</v>
       </c>
       <c r="J486" t="n">
-        <v>-73.95148769003843</v>
+        <v>-73.9514876900384</v>
       </c>
       <c r="K486" t="n">
-        <v>40.80271713005301</v>
+        <v>40.802717130053</v>
       </c>
       <c r="L486" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="M486" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N486" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O486" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="487">
@@ -30227,22 +30233,22 @@
         <v>2081</v>
       </c>
       <c r="J487" t="n">
-        <v>-73.94554220336616</v>
+        <v>-73.9455422033662</v>
       </c>
       <c r="K487" t="n">
-        <v>40.812905579501994</v>
+        <v>40.812905579502</v>
       </c>
       <c r="L487" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M487" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N487" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O487" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="488">
@@ -30274,22 +30280,22 @@
         <v>2082</v>
       </c>
       <c r="J488" t="n">
-        <v>-73.94770948952169</v>
+        <v>-73.9477094895217</v>
       </c>
       <c r="K488" t="n">
-        <v>40.814784699884015</v>
+        <v>40.814784699884</v>
       </c>
       <c r="L488" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="M488" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N488" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O488" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="489">
@@ -30321,22 +30327,22 @@
         <v>2083</v>
       </c>
       <c r="J489" t="n">
-        <v>-73.95035256283337</v>
+        <v>-73.9503525628334</v>
       </c>
       <c r="K489" t="n">
-        <v>40.80223937070625</v>
+        <v>40.8022393707063</v>
       </c>
       <c r="L489" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="M489" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N489" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O489" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="490">
@@ -30368,22 +30374,22 @@
         <v>2084</v>
       </c>
       <c r="J490" t="n">
-        <v>-73.94778886280318</v>
+        <v>-73.9477888628032</v>
       </c>
       <c r="K490" t="n">
-        <v>40.80982223090419</v>
+        <v>40.8098222309042</v>
       </c>
       <c r="L490" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M490" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N490" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O490" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="491">
@@ -30415,22 +30421,22 @@
         <v>2085</v>
       </c>
       <c r="J491" t="n">
-        <v>-73.94243348711287</v>
+        <v>-73.9424334871129</v>
       </c>
       <c r="K491" t="n">
-        <v>40.816922463460706</v>
+        <v>40.8169224634607</v>
       </c>
       <c r="L491" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M491" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N491" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O491" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="492">
@@ -30462,22 +30468,22 @@
         <v>2086</v>
       </c>
       <c r="J492" t="n">
-        <v>-73.94319879560601</v>
+        <v>-73.943198795606</v>
       </c>
       <c r="K492" t="n">
-        <v>40.81610929122136</v>
+        <v>40.8161092912214</v>
       </c>
       <c r="L492" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M492" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N492" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O492" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="493">
@@ -30512,19 +30518,19 @@
         <v>-73.9435613401338</v>
       </c>
       <c r="K493" t="n">
-        <v>40.82579343059941</v>
+        <v>40.8257934305994</v>
       </c>
       <c r="L493" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="M493" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N493" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O493" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="494">
@@ -30556,22 +30562,22 @@
         <v>2088</v>
       </c>
       <c r="J494" t="n">
-        <v>-73.94009910798316</v>
+        <v>-73.9400991079832</v>
       </c>
       <c r="K494" t="n">
-        <v>40.822134144744645</v>
+        <v>40.8221341447447</v>
       </c>
       <c r="L494" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="M494" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N494" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O494" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="495">
@@ -30603,22 +30609,22 @@
         <v>2089</v>
       </c>
       <c r="J495" t="n">
-        <v>-73.94373831610274</v>
+        <v>-73.9437383161027</v>
       </c>
       <c r="K495" t="n">
-        <v>40.820465285358395</v>
+        <v>40.8204652853584</v>
       </c>
       <c r="L495" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="M495" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N495" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O495" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="496">
@@ -30650,22 +30656,22 @@
         <v>2090</v>
       </c>
       <c r="J496" t="n">
-        <v>-73.94879288004199</v>
+        <v>-73.948792880042</v>
       </c>
       <c r="K496" t="n">
-        <v>40.813542900972735</v>
+        <v>40.8135429009727</v>
       </c>
       <c r="L496" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="M496" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N496" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O496" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="497">
@@ -30744,22 +30750,22 @@
         <v>2091</v>
       </c>
       <c r="J498" t="n">
-        <v>-73.94211536903153</v>
+        <v>-73.9421153690315</v>
       </c>
       <c r="K498" t="n">
-        <v>40.817590913278025</v>
+        <v>40.817590913278</v>
       </c>
       <c r="L498" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M498" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N498" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O498" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="499">
@@ -30791,22 +30797,22 @@
         <v>2092</v>
       </c>
       <c r="J499" t="n">
-        <v>-73.95210677008012</v>
+        <v>-73.9521067700801</v>
       </c>
       <c r="K499" t="n">
-        <v>40.81131953388575</v>
+        <v>40.8113195338858</v>
       </c>
       <c r="L499" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="M499" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N499" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O499" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="500">
@@ -30841,19 +30847,19 @@
         <v>-73.9574451975134</v>
       </c>
       <c r="K500" t="n">
-        <v>40.80406383593044</v>
+        <v>40.8040638359304</v>
       </c>
       <c r="L500" t="s">
-        <v>2263</v>
+        <v>2265</v>
       </c>
       <c r="M500" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N500" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O500" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="501">
@@ -30885,22 +30891,22 @@
         <v>2094</v>
       </c>
       <c r="J501" t="n">
-        <v>-73.94769957387885</v>
+        <v>-73.9476995738789</v>
       </c>
       <c r="K501" t="n">
-        <v>40.80994532825812</v>
+        <v>40.8099453282581</v>
       </c>
       <c r="L501" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M501" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N501" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O501" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="502">
@@ -30932,22 +30938,22 @@
         <v>2095</v>
       </c>
       <c r="J502" t="n">
-        <v>-73.94641165132467</v>
+        <v>-73.9464116513247</v>
       </c>
       <c r="K502" t="n">
-        <v>40.81171430629011</v>
+        <v>40.8117143062901</v>
       </c>
       <c r="L502" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M502" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N502" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O502" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="503">
@@ -30985,16 +30991,16 @@
         <v>40.8130019925635</v>
       </c>
       <c r="L503" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="M503" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N503" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O503" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="504">
@@ -31026,22 +31032,22 @@
         <v>2097</v>
       </c>
       <c r="J504" t="n">
-        <v>-73.94162166723446</v>
+        <v>-73.9416216672345</v>
       </c>
       <c r="K504" t="n">
-        <v>40.81827516579715</v>
+        <v>40.8182751657971</v>
       </c>
       <c r="L504" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M504" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N504" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O504" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="505">
@@ -31073,22 +31079,22 @@
         <v>2098</v>
       </c>
       <c r="J505" t="n">
-        <v>-73.94454988013877</v>
+        <v>-73.9445498801388</v>
       </c>
       <c r="K505" t="n">
-        <v>40.82443547814601</v>
+        <v>40.824435478146</v>
       </c>
       <c r="L505" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="M505" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N505" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O505" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="506">
@@ -31120,22 +31126,22 @@
         <v>2099</v>
       </c>
       <c r="J506" t="n">
-        <v>-73.94042838682776</v>
+        <v>-73.9404283868278</v>
       </c>
       <c r="K506" t="n">
-        <v>40.819898753786134</v>
+        <v>40.8198987537861</v>
       </c>
       <c r="L506" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M506" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N506" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O506" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="507">
@@ -31167,22 +31173,22 @@
         <v>2100</v>
       </c>
       <c r="J507" t="n">
-        <v>-73.94406392098313</v>
+        <v>-73.9440639209831</v>
       </c>
       <c r="K507" t="n">
-        <v>40.823676633674324</v>
+        <v>40.8236766336743</v>
       </c>
       <c r="L507" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="M507" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N507" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O507" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="508">
@@ -31214,22 +31220,22 @@
         <v>2101</v>
       </c>
       <c r="J508" t="n">
-        <v>-73.94333055625157</v>
+        <v>-73.9433305562516</v>
       </c>
       <c r="K508" t="n">
-        <v>40.82826505224555</v>
+        <v>40.8282650522455</v>
       </c>
       <c r="L508" t="s">
-        <v>2264</v>
+        <v>2266</v>
       </c>
       <c r="M508" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N508" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O508" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="509">
@@ -31261,22 +31267,22 @@
         <v>2102</v>
       </c>
       <c r="J509" t="n">
-        <v>-73.94631952454405</v>
+        <v>-73.9463195245441</v>
       </c>
       <c r="K509" t="n">
-        <v>40.81184215570191</v>
+        <v>40.8118421557019</v>
       </c>
       <c r="L509" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M509" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N509" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O509" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="510">
@@ -31308,22 +31314,22 @@
         <v>2103</v>
       </c>
       <c r="J510" t="n">
-        <v>-73.93954656752203</v>
+        <v>-73.939546567522</v>
       </c>
       <c r="K510" t="n">
-        <v>40.82189946823409</v>
+        <v>40.8218994682341</v>
       </c>
       <c r="L510" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="M510" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N510" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O510" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="511">
@@ -31355,22 +31361,22 @@
         <v>2104</v>
       </c>
       <c r="J511" t="n">
-        <v>-73.95377292790363</v>
+        <v>-73.9537729279036</v>
       </c>
       <c r="K511" t="n">
-        <v>40.80381006953975</v>
+        <v>40.8038100695398</v>
       </c>
       <c r="L511" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="M511" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N511" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O511" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="512">
@@ -31402,22 +31408,22 @@
         <v>2105</v>
       </c>
       <c r="J512" t="n">
-        <v>-73.94234256484341</v>
+        <v>-73.9423425648434</v>
       </c>
       <c r="K512" t="n">
-        <v>40.82877971867058</v>
+        <v>40.8287797186706</v>
       </c>
       <c r="L512" t="e">
         <v>#N/A</v>
       </c>
       <c r="M512" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N512" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O512" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="513">
@@ -31449,22 +31455,22 @@
         <v>2106</v>
       </c>
       <c r="J513" t="n">
-        <v>-73.95281240343759</v>
+        <v>-73.9528124034376</v>
       </c>
       <c r="K513" t="n">
-        <v>40.807252970168236</v>
+        <v>40.8072529701682</v>
       </c>
       <c r="L513" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="M513" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N513" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O513" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="514">
@@ -31493,25 +31499,25 @@
         <v>1699</v>
       </c>
       <c r="I514" t="s">
-        <v>1713</v>
-      </c>
-      <c r="J514" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K514" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L514" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M514" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N514" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O514" t="e">
-        <v>#N/A</v>
+        <v>2107</v>
+      </c>
+      <c r="J514" t="n">
+        <v>-73.95253082728954</v>
+      </c>
+      <c r="K514" t="n">
+        <v>40.79978494980985</v>
+      </c>
+      <c r="L514" t="s">
+        <v>2252</v>
+      </c>
+      <c r="M514" t="s">
+        <v>2318</v>
+      </c>
+      <c r="N514" t="s">
+        <v>2333</v>
+      </c>
+      <c r="O514" t="s">
+        <v>2426</v>
       </c>
     </row>
     <row r="515">
@@ -31540,25 +31546,25 @@
         <v>1700</v>
       </c>
       <c r="I515" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="J515" t="n">
-        <v>-73.94594274820415</v>
+        <v>-73.9459427482042</v>
       </c>
       <c r="K515" t="n">
-        <v>40.81212293677036</v>
+        <v>40.8121229367704</v>
       </c>
       <c r="L515" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M515" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N515" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O515" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="516">
@@ -31587,25 +31593,25 @@
         <v>1701</v>
       </c>
       <c r="I516" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="J516" t="n">
         <v>-73.9398424082835</v>
       </c>
       <c r="K516" t="n">
-        <v>40.820704240193585</v>
+        <v>40.8207042401936</v>
       </c>
       <c r="L516" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M516" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N516" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O516" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="517">
@@ -31634,25 +31640,25 @@
         <v>1702</v>
       </c>
       <c r="I517" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="J517" t="n">
-        <v>-73.94252895801101</v>
+        <v>-73.942528958011</v>
       </c>
       <c r="K517" t="n">
-        <v>40.81702802414787</v>
+        <v>40.8170280241479</v>
       </c>
       <c r="L517" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M517" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N517" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O517" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="518">
@@ -31681,25 +31687,25 @@
         <v>1703</v>
       </c>
       <c r="I518" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="J518" t="n">
-        <v>-73.94413110376068</v>
+        <v>-73.9441311037607</v>
       </c>
       <c r="K518" t="n">
-        <v>40.82477368455816</v>
+        <v>40.8247736845582</v>
       </c>
       <c r="L518" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="M518" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N518" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O518" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="519">
@@ -31728,25 +31734,25 @@
         <v>1704</v>
       </c>
       <c r="I519" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="J519" t="n">
-        <v>-73.95661051758128</v>
+        <v>-73.9566105175813</v>
       </c>
       <c r="K519" t="n">
-        <v>40.80500458459458</v>
+        <v>40.8050045845946</v>
       </c>
       <c r="L519" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="M519" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N519" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O519" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="520">
@@ -31775,25 +31781,25 @@
         <v>1705</v>
       </c>
       <c r="I520" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="J520" t="n">
-        <v>-73.94975805211558</v>
+        <v>-73.9497580521156</v>
       </c>
       <c r="K520" t="n">
         <v>40.8138229266156</v>
       </c>
       <c r="L520" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="M520" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N520" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O520" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="521">
@@ -31822,25 +31828,25 @@
         <v>1706</v>
       </c>
       <c r="I521" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="J521" t="n">
-        <v>-73.95087358929617</v>
+        <v>-73.9508735892962</v>
       </c>
       <c r="K521" t="n">
         <v>40.8025897777258</v>
       </c>
       <c r="L521" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="M521" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N521" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O521" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="522">
@@ -31869,25 +31875,25 @@
         <v>1707</v>
       </c>
       <c r="I522" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="J522" t="n">
-        <v>-73.94759912383897</v>
+        <v>-73.947599123839</v>
       </c>
       <c r="K522" t="n">
-        <v>40.810083812781286</v>
+        <v>40.8100838127813</v>
       </c>
       <c r="L522" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M522" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N522" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O522" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="523">
@@ -31916,25 +31922,25 @@
         <v>1708</v>
       </c>
       <c r="I523" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="J523" t="n">
-        <v>-73.94783350726536</v>
+        <v>-73.9478335072654</v>
       </c>
       <c r="K523" t="n">
-        <v>40.809760682227214</v>
+        <v>40.8097606822272</v>
       </c>
       <c r="L523" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M523" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N523" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O523" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="524">
@@ -31963,25 +31969,25 @@
         <v>1709</v>
       </c>
       <c r="I524" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="J524" t="n">
         <v>-73.9393241454893</v>
       </c>
       <c r="K524" t="n">
-        <v>40.82117850904662</v>
+        <v>40.8211785090466</v>
       </c>
       <c r="L524" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M524" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N524" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O524" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="525">
@@ -32010,25 +32016,25 @@
         <v>1708</v>
       </c>
       <c r="I525" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="J525" t="n">
-        <v>-73.94783350726536</v>
+        <v>-73.9478335072654</v>
       </c>
       <c r="K525" t="n">
-        <v>40.809760682227214</v>
+        <v>40.8097606822272</v>
       </c>
       <c r="L525" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="M525" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N525" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O525" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="526">
@@ -32057,25 +32063,25 @@
         <v>1710</v>
       </c>
       <c r="I526" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="J526" t="n">
-        <v>-73.94410051269797</v>
+        <v>-73.944100512698</v>
       </c>
       <c r="K526" t="n">
-        <v>40.827966816762824</v>
+        <v>40.8279668167628</v>
       </c>
       <c r="L526" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="M526" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N526" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O526" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="527">
@@ -32104,25 +32110,25 @@
         <v>1711</v>
       </c>
       <c r="I527" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="J527" t="n">
-        <v>-73.94380000371108</v>
+        <v>-73.9438000037111</v>
       </c>
       <c r="K527" t="n">
-        <v>40.81528444254923</v>
+        <v>40.8152844425492</v>
       </c>
       <c r="L527" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="M527" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N527" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O527" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="528">
@@ -32151,25 +32157,25 @@
         <v>1712</v>
       </c>
       <c r="I528" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="J528" t="n">
-        <v>-73.94940637013252</v>
+        <v>-73.9494063701325</v>
       </c>
       <c r="K528" t="n">
-        <v>40.809494616566425</v>
+        <v>40.8094946165664</v>
       </c>
       <c r="L528" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="M528" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="N528" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="O528" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
   </sheetData>
